--- a/excel/finished/焦化12/CK12-化产-鼓风冷凝报表（二）（日）.xlsx
+++ b/excel/finished/焦化12/CK12-化产-鼓风冷凝报表（二）（日）.xlsx
@@ -830,10 +830,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -884,9 +884,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,22 +916,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,33 +924,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -975,24 +951,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,15 +1014,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,25 +1076,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,7 +1112,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,13 +1148,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,31 +1166,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1196,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,13 +1226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,37 +1244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1866,6 +1866,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1877,6 +1886,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1901,30 +1940,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1936,21 +1951,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1969,10 +1969,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1981,133 +1981,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -2161,17 +2161,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="justify"/>
@@ -2232,6 +2226,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2239,6 +2236,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2301,9 +2301,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify"/>
       <protection locked="0"/>
@@ -2332,6 +2329,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2687,19 +2687,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="B1:AH35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09166666666667" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="16" max="16" width="9.40833333333333" customWidth="1"/>
+    <col min="22" max="34" width="9.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:33">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="22.5" spans="2:34">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2708,43 +2711,43 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
     </row>
-    <row r="2" ht="16.5" spans="1:33">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="16.5" spans="2:34">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -2762,153 +2765,153 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
-      <c r="AD2" s="7"/>
+      <c r="AD2" s="8"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
     </row>
-    <row r="3" ht="16.5" spans="1:33">
-      <c r="A3" s="9" t="s">
+    <row r="3" ht="16.5" spans="2:34">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="10"/>
+      <c r="P3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="57" t="s">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="58" t="s">
+      <c r="S3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="59"/>
       <c r="T3" s="59"/>
-      <c r="U3" s="41" t="s">
+      <c r="U3" s="59"/>
+      <c r="V3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="60"/>
       <c r="W3" s="60"/>
       <c r="X3" s="60"/>
-      <c r="Y3" s="58" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="57" t="s">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="69" t="s">
+      <c r="AD3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="57" t="s">
+      <c r="AE3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="57" t="s">
+      <c r="AF3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AG3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AG3" s="77" t="s">
+      <c r="AH3" s="77" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:33">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" ht="14.25" spans="2:34">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="L4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="M4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="N4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="O4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="63"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="62"/>
       <c r="T4" s="63"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="78"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="78"/>
     </row>
-    <row r="5" ht="45.75" spans="1:33">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+    <row r="5" ht="45.75" spans="2:34">
+      <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -2917,3574 +2920,3670 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="M5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="N5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="O5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="12" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="T5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="U5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="V5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="W5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="X5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="65" t="s">
+      <c r="Y5" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="75">
+      <c r="Z5" s="75">
         <v>1302</v>
       </c>
-      <c r="Z5" s="75">
+      <c r="AA5" s="75">
         <v>1303</v>
       </c>
-      <c r="AA5" s="75">
+      <c r="AB5" s="75">
         <v>1304</v>
       </c>
-      <c r="AB5" s="75"/>
       <c r="AC5" s="75"/>
-      <c r="AD5" s="76"/>
+      <c r="AD5" s="75"/>
       <c r="AE5" s="76"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="78"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="78"/>
     </row>
-    <row r="6" ht="14.25" spans="1:33">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+    <row r="6" ht="14.25" spans="2:34">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="42"/>
+      <c r="J6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="L6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="15" t="s">
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="Q6" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="R6" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="S6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="T6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="U6" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="V6" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="W6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="X6" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="Y6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Y6" s="15" t="s">
+      <c r="Z6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15" t="s">
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" s="15" t="s">
+      <c r="AD6" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" s="15" t="s">
+      <c r="AE6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="15" t="s">
+      <c r="AF6" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AF6" s="15" t="s">
+      <c r="AG6" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AG6" s="79" t="s">
+      <c r="AH6" s="79" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="14.25" hidden="1" spans="1:33">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
+    <row r="7" ht="14.25" hidden="1" spans="2:34">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="I7" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="J7" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="48"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="18" t="s">
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="Q7" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="R7" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="R7" s="18" t="s">
+      <c r="S7" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="T7" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="V7" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="V7" s="18" t="s">
+      <c r="W7" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="W7" s="18" t="s">
+      <c r="X7" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18" t="s">
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="Z7" s="18" t="s">
+      <c r="AA7" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="AA7" s="18" t="s">
+      <c r="AB7" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="AB7" s="18" t="s">
+      <c r="AC7" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AC7" s="18" t="s">
+      <c r="AD7" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="AD7" s="18" t="s">
+      <c r="AE7" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="AE7" s="18" t="s">
+      <c r="AF7" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="AF7" s="18" t="s">
+      <c r="AG7" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="AG7" s="80" t="s">
+      <c r="AH7" s="80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" ht="71.25" hidden="1" spans="1:33">
-      <c r="A8" s="19" t="s">
+    <row r="8" ht="71.25" hidden="1" spans="2:34">
+      <c r="B8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="1" t="e">
+      <c r="I8" s="1" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="P8" s="1" t="e">
-        <v>#N/A</v>
       </c>
       <c r="Q8" s="1" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:33">
-      <c r="A9" s="20">
+    <row r="9" ht="14.25" spans="2:34">
+      <c r="B9" s="18">
         <v>0</v>
       </c>
-      <c r="B9" s="21" t="str">
+      <c r="C9" s="19" t="str">
         <f>IF(_gfln_day_hour!A2="","",_gfln_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="C9" s="21" t="str">
+      <c r="D9" s="19" t="str">
         <f>IF(_gfln_day_hour!B2="","",_gfln_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="D9" s="21" t="str">
+      <c r="E9" s="19" t="str">
         <f>IF(_gfln_day_hour!C2="","",_gfln_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="E9" s="21" t="str">
+      <c r="F9" s="19" t="str">
         <f>IF(_gfln_day_hour!D2="","",_gfln_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="G9" s="19" t="str">
         <f>IF(_gfln_day_hour!E2="","",_gfln_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="G9" s="21" t="str">
+      <c r="H9" s="19" t="str">
         <f>IF(_gfln_day_hour!F2="","",_gfln_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="I9" s="19" t="str">
         <f>IF(_gfln_day_hour!G2="","",_gfln_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="I9" s="21" t="str">
+      <c r="J9" s="19" t="str">
         <f>IF(_gfln_day_hour!H2="","",_gfln_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="K9" s="19" t="str">
         <f>IF(_gfln_day_hour!I2="","",_gfln_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="L9" s="19" t="str">
         <f>IF(_gfln_day_hour!J2="","",_gfln_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="L9" s="21" t="str">
+      <c r="M9" s="19" t="str">
         <f>IF(_gfln_day_hour!K2="","",_gfln_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="M9" s="21" t="str">
+      <c r="N9" s="19" t="str">
         <f>IF(_gfln_day_hour!L2="","",_gfln_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="N9" s="21" t="str">
+      <c r="O9" s="19" t="str">
         <f>IF(_gfln_day_hour!M2="","",_gfln_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="O9" s="21" t="str">
+      <c r="P9" s="19" t="str">
         <f>IF(_gfln_day_hour!N2="","",_gfln_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="P9" s="21" t="str">
+      <c r="Q9" s="19" t="str">
         <f>IF(_gfln_day_hour!O2="","",_gfln_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="Q9" s="21" t="str">
+      <c r="R9" s="19" t="str">
         <f>IF(_gfln_day_hour!P2="","",_gfln_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="R9" s="21" t="str">
+      <c r="S9" s="19" t="str">
         <f>IF(_gfln_day_hour!Q2="","",_gfln_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="S9" s="21" t="str">
+      <c r="T9" s="19" t="str">
         <f>IF(_gfln_day_hour!R2="","",_gfln_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="T9" s="21" t="str">
+      <c r="U9" s="19" t="str">
         <f>IF(_gfln_day_hour!S2="","",_gfln_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="U9" s="21" t="str">
+      <c r="V9" s="19" t="str">
         <f>IF(_gfln_day_hour!T2="","",_gfln_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="V9" s="21" t="str">
+      <c r="W9" s="19" t="str">
         <f>IF(_gfln_day_hour!U2="","",_gfln_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="W9" s="21" t="str">
+      <c r="X9" s="19" t="str">
         <f>IF(_gfln_day_hour!V2="","",_gfln_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="X9" s="21" t="str">
+      <c r="Y9" s="19" t="str">
         <f>IF(_gfln_day_hour!W2="","",_gfln_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Y9" s="21" t="str">
+      <c r="Z9" s="19" t="str">
         <f>IF(_gfln_day_hour!X2="","",_gfln_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="Z9" s="21" t="str">
+      <c r="AA9" s="19" t="str">
         <f>IF(_gfln_day_hour!Y2="","",_gfln_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AA9" s="21" t="str">
+      <c r="AB9" s="19" t="str">
         <f>IF(_gfln_day_hour!Z2="","",_gfln_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AB9" s="21" t="str">
+      <c r="AC9" s="19" t="str">
         <f>IF(_gfln_day_hour!AA2="","",_gfln_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AC9" s="21" t="str">
+      <c r="AD9" s="19" t="str">
         <f>IF(_gfln_day_hour!AB2="","",_gfln_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AD9" s="21" t="str">
+      <c r="AE9" s="19" t="str">
         <f>IF(_gfln_day_hour!AC2="","",_gfln_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AE9" s="21" t="str">
+      <c r="AF9" s="19" t="str">
         <f>IF(_gfln_day_hour!AD2="","",_gfln_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AF9" s="21" t="str">
+      <c r="AG9" s="19" t="str">
         <f>IF(_gfln_day_hour!AE2="","",_gfln_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AG9" s="81" t="str">
+      <c r="AH9" s="81" t="str">
         <f>IF(_gfln_day_hour!AF2="","",_gfln_day_hour!AF2)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:33">
-      <c r="A10" s="20">
+    <row r="10" ht="14.25" spans="2:34">
+      <c r="B10" s="18">
         <v>0.0416666666666667</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="C10" s="19" t="str">
         <f>IF(_gfln_day_hour!A3="","",_gfln_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="C10" s="21" t="str">
+      <c r="D10" s="19" t="str">
         <f>IF(_gfln_day_hour!B3="","",_gfln_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="D10" s="21" t="str">
+      <c r="E10" s="19" t="str">
         <f>IF(_gfln_day_hour!C3="","",_gfln_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="E10" s="21" t="str">
+      <c r="F10" s="19" t="str">
         <f>IF(_gfln_day_hour!D3="","",_gfln_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="F10" s="21" t="str">
+      <c r="G10" s="19" t="str">
         <f>IF(_gfln_day_hour!E3="","",_gfln_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="G10" s="21" t="str">
+      <c r="H10" s="19" t="str">
         <f>IF(_gfln_day_hour!F3="","",_gfln_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="I10" s="19" t="str">
         <f>IF(_gfln_day_hour!G3="","",_gfln_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="I10" s="21" t="str">
+      <c r="J10" s="19" t="str">
         <f>IF(_gfln_day_hour!H3="","",_gfln_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="J10" s="21" t="str">
+      <c r="K10" s="19" t="str">
         <f>IF(_gfln_day_hour!I3="","",_gfln_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="K10" s="21" t="str">
+      <c r="L10" s="19" t="str">
         <f>IF(_gfln_day_hour!J3="","",_gfln_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="L10" s="21" t="str">
+      <c r="M10" s="19" t="str">
         <f>IF(_gfln_day_hour!K3="","",_gfln_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="M10" s="21" t="str">
+      <c r="N10" s="19" t="str">
         <f>IF(_gfln_day_hour!L3="","",_gfln_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="N10" s="21" t="str">
+      <c r="O10" s="19" t="str">
         <f>IF(_gfln_day_hour!M3="","",_gfln_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="O10" s="21" t="str">
+      <c r="P10" s="19" t="str">
         <f>IF(_gfln_day_hour!N3="","",_gfln_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="P10" s="21" t="str">
+      <c r="Q10" s="19" t="str">
         <f>IF(_gfln_day_hour!O3="","",_gfln_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="Q10" s="21" t="str">
+      <c r="R10" s="19" t="str">
         <f>IF(_gfln_day_hour!P3="","",_gfln_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="R10" s="21" t="str">
+      <c r="S10" s="19" t="str">
         <f>IF(_gfln_day_hour!Q3="","",_gfln_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="S10" s="21" t="str">
+      <c r="T10" s="19" t="str">
         <f>IF(_gfln_day_hour!R3="","",_gfln_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="T10" s="21" t="str">
+      <c r="U10" s="19" t="str">
         <f>IF(_gfln_day_hour!S3="","",_gfln_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="U10" s="21" t="str">
+      <c r="V10" s="19" t="str">
         <f>IF(_gfln_day_hour!T3="","",_gfln_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="V10" s="21" t="str">
+      <c r="W10" s="19" t="str">
         <f>IF(_gfln_day_hour!U3="","",_gfln_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="W10" s="21" t="str">
+      <c r="X10" s="19" t="str">
         <f>IF(_gfln_day_hour!V3="","",_gfln_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="X10" s="21" t="str">
+      <c r="Y10" s="19" t="str">
         <f>IF(_gfln_day_hour!W3="","",_gfln_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Y10" s="21" t="str">
+      <c r="Z10" s="19" t="str">
         <f>IF(_gfln_day_hour!X3="","",_gfln_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="Z10" s="21" t="str">
+      <c r="AA10" s="19" t="str">
         <f>IF(_gfln_day_hour!Y3="","",_gfln_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AA10" s="21" t="str">
+      <c r="AB10" s="19" t="str">
         <f>IF(_gfln_day_hour!Z3="","",_gfln_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AB10" s="21" t="str">
+      <c r="AC10" s="19" t="str">
         <f>IF(_gfln_day_hour!AA3="","",_gfln_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AC10" s="21" t="str">
+      <c r="AD10" s="19" t="str">
         <f>IF(_gfln_day_hour!AB3="","",_gfln_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AD10" s="21" t="str">
+      <c r="AE10" s="19" t="str">
         <f>IF(_gfln_day_hour!AC3="","",_gfln_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AE10" s="21" t="str">
+      <c r="AF10" s="19" t="str">
         <f>IF(_gfln_day_hour!AD3="","",_gfln_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AF10" s="21" t="str">
+      <c r="AG10" s="19" t="str">
         <f>IF(_gfln_day_hour!AE3="","",_gfln_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AG10" s="81" t="str">
+      <c r="AH10" s="81" t="str">
         <f>IF(_gfln_day_hour!AF3="","",_gfln_day_hour!AF3)</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:33">
-      <c r="A11" s="22">
+    <row r="11" ht="14.25" spans="2:34">
+      <c r="B11" s="20">
         <v>0.0833333333333333</v>
       </c>
-      <c r="B11" s="23" t="str">
+      <c r="C11" s="21" t="str">
         <f>IF(_gfln_day_hour!A4="","",_gfln_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="C11" s="23" t="str">
+      <c r="D11" s="21" t="str">
         <f>IF(_gfln_day_hour!B4="","",_gfln_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="D11" s="23" t="str">
+      <c r="E11" s="21" t="str">
         <f>IF(_gfln_day_hour!C4="","",_gfln_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="E11" s="23" t="str">
+      <c r="F11" s="21" t="str">
         <f>IF(_gfln_day_hour!D4="","",_gfln_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="F11" s="23" t="str">
+      <c r="G11" s="21" t="str">
         <f>IF(_gfln_day_hour!E4="","",_gfln_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="G11" s="23" t="str">
+      <c r="H11" s="21" t="str">
         <f>IF(_gfln_day_hour!F4="","",_gfln_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="H11" s="23" t="str">
+      <c r="I11" s="21" t="str">
         <f>IF(_gfln_day_hour!G4="","",_gfln_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="I11" s="23" t="str">
+      <c r="J11" s="21" t="str">
         <f>IF(_gfln_day_hour!H4="","",_gfln_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="J11" s="23" t="str">
+      <c r="K11" s="21" t="str">
         <f>IF(_gfln_day_hour!I4="","",_gfln_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="K11" s="23" t="str">
+      <c r="L11" s="21" t="str">
         <f>IF(_gfln_day_hour!J4="","",_gfln_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="L11" s="23" t="str">
+      <c r="M11" s="21" t="str">
         <f>IF(_gfln_day_hour!K4="","",_gfln_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="M11" s="23" t="str">
+      <c r="N11" s="21" t="str">
         <f>IF(_gfln_day_hour!L4="","",_gfln_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="N11" s="23" t="str">
+      <c r="O11" s="21" t="str">
         <f>IF(_gfln_day_hour!M4="","",_gfln_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="O11" s="23" t="str">
+      <c r="P11" s="21" t="str">
         <f>IF(_gfln_day_hour!N4="","",_gfln_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="P11" s="23" t="str">
+      <c r="Q11" s="21" t="str">
         <f>IF(_gfln_day_hour!O4="","",_gfln_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="Q11" s="23" t="str">
+      <c r="R11" s="21" t="str">
         <f>IF(_gfln_day_hour!P4="","",_gfln_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="R11" s="23" t="str">
+      <c r="S11" s="21" t="str">
         <f>IF(_gfln_day_hour!Q4="","",_gfln_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="S11" s="23" t="str">
+      <c r="T11" s="21" t="str">
         <f>IF(_gfln_day_hour!R4="","",_gfln_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="T11" s="23" t="str">
+      <c r="U11" s="21" t="str">
         <f>IF(_gfln_day_hour!S4="","",_gfln_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="U11" s="23" t="str">
+      <c r="V11" s="21" t="str">
         <f>IF(_gfln_day_hour!T4="","",_gfln_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="V11" s="23" t="str">
+      <c r="W11" s="21" t="str">
         <f>IF(_gfln_day_hour!U4="","",_gfln_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="W11" s="23" t="str">
+      <c r="X11" s="21" t="str">
         <f>IF(_gfln_day_hour!V4="","",_gfln_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="X11" s="23" t="str">
+      <c r="Y11" s="21" t="str">
         <f>IF(_gfln_day_hour!W4="","",_gfln_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Y11" s="23" t="str">
+      <c r="Z11" s="21" t="str">
         <f>IF(_gfln_day_hour!X4="","",_gfln_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="Z11" s="23" t="str">
+      <c r="AA11" s="21" t="str">
         <f>IF(_gfln_day_hour!Y4="","",_gfln_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AA11" s="23" t="str">
+      <c r="AB11" s="21" t="str">
         <f>IF(_gfln_day_hour!Z4="","",_gfln_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AB11" s="23" t="str">
+      <c r="AC11" s="21" t="str">
         <f>IF(_gfln_day_hour!AA4="","",_gfln_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AC11" s="23" t="str">
+      <c r="AD11" s="21" t="str">
         <f>IF(_gfln_day_hour!AB4="","",_gfln_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AD11" s="23" t="str">
+      <c r="AE11" s="21" t="str">
         <f>IF(_gfln_day_hour!AC4="","",_gfln_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AE11" s="23" t="str">
+      <c r="AF11" s="21" t="str">
         <f>IF(_gfln_day_hour!AD4="","",_gfln_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AF11" s="23" t="str">
+      <c r="AG11" s="21" t="str">
         <f>IF(_gfln_day_hour!AE4="","",_gfln_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AG11" s="82" t="str">
+      <c r="AH11" s="82" t="str">
         <f>IF(_gfln_day_hour!AF4="","",_gfln_day_hour!AF4)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:33">
-      <c r="A12" s="22">
+    <row r="12" ht="14.25" spans="2:34">
+      <c r="B12" s="20">
         <v>0.125</v>
       </c>
-      <c r="B12" s="23" t="str">
+      <c r="C12" s="21" t="str">
         <f>IF(_gfln_day_hour!A5="","",_gfln_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="C12" s="23" t="str">
+      <c r="D12" s="21" t="str">
         <f>IF(_gfln_day_hour!B5="","",_gfln_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="D12" s="23" t="str">
+      <c r="E12" s="21" t="str">
         <f>IF(_gfln_day_hour!C5="","",_gfln_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="E12" s="23" t="str">
+      <c r="F12" s="21" t="str">
         <f>IF(_gfln_day_hour!D5="","",_gfln_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="F12" s="23" t="str">
+      <c r="G12" s="21" t="str">
         <f>IF(_gfln_day_hour!E5="","",_gfln_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="G12" s="23" t="str">
+      <c r="H12" s="21" t="str">
         <f>IF(_gfln_day_hour!F5="","",_gfln_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="H12" s="23" t="str">
+      <c r="I12" s="21" t="str">
         <f>IF(_gfln_day_hour!G5="","",_gfln_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="I12" s="23" t="str">
+      <c r="J12" s="21" t="str">
         <f>IF(_gfln_day_hour!H5="","",_gfln_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="J12" s="23" t="str">
+      <c r="K12" s="21" t="str">
         <f>IF(_gfln_day_hour!I5="","",_gfln_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="K12" s="50" t="str">
+      <c r="L12" s="50" t="str">
         <f>IF(_gfln_day_hour!J5="","",_gfln_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="L12" s="23" t="str">
+      <c r="M12" s="21" t="str">
         <f>IF(_gfln_day_hour!K5="","",_gfln_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="M12" s="23" t="str">
+      <c r="N12" s="21" t="str">
         <f>IF(_gfln_day_hour!L5="","",_gfln_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="N12" s="23" t="str">
+      <c r="O12" s="21" t="str">
         <f>IF(_gfln_day_hour!M5="","",_gfln_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="O12" s="23" t="str">
+      <c r="P12" s="21" t="str">
         <f>IF(_gfln_day_hour!N5="","",_gfln_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="P12" s="23" t="str">
+      <c r="Q12" s="21" t="str">
         <f>IF(_gfln_day_hour!O5="","",_gfln_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="Q12" s="23" t="str">
+      <c r="R12" s="21" t="str">
         <f>IF(_gfln_day_hour!P5="","",_gfln_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="R12" s="23" t="str">
+      <c r="S12" s="21" t="str">
         <f>IF(_gfln_day_hour!Q5="","",_gfln_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="S12" s="23" t="str">
+      <c r="T12" s="21" t="str">
         <f>IF(_gfln_day_hour!R5="","",_gfln_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="T12" s="23" t="str">
+      <c r="U12" s="21" t="str">
         <f>IF(_gfln_day_hour!S5="","",_gfln_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="U12" s="23" t="str">
+      <c r="V12" s="21" t="str">
         <f>IF(_gfln_day_hour!T5="","",_gfln_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="V12" s="23" t="str">
+      <c r="W12" s="21" t="str">
         <f>IF(_gfln_day_hour!U5="","",_gfln_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="W12" s="23" t="str">
+      <c r="X12" s="21" t="str">
         <f>IF(_gfln_day_hour!V5="","",_gfln_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="X12" s="23" t="str">
+      <c r="Y12" s="21" t="str">
         <f>IF(_gfln_day_hour!W5="","",_gfln_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Y12" s="23" t="str">
+      <c r="Z12" s="21" t="str">
         <f>IF(_gfln_day_hour!X5="","",_gfln_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="Z12" s="23" t="str">
+      <c r="AA12" s="21" t="str">
         <f>IF(_gfln_day_hour!Y5="","",_gfln_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AA12" s="23" t="str">
+      <c r="AB12" s="21" t="str">
         <f>IF(_gfln_day_hour!Z5="","",_gfln_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AB12" s="23" t="str">
+      <c r="AC12" s="21" t="str">
         <f>IF(_gfln_day_hour!AA5="","",_gfln_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AC12" s="23" t="str">
+      <c r="AD12" s="21" t="str">
         <f>IF(_gfln_day_hour!AB5="","",_gfln_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AD12" s="23" t="str">
+      <c r="AE12" s="21" t="str">
         <f>IF(_gfln_day_hour!AC5="","",_gfln_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AE12" s="23" t="str">
+      <c r="AF12" s="21" t="str">
         <f>IF(_gfln_day_hour!AD5="","",_gfln_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AF12" s="23" t="str">
+      <c r="AG12" s="21" t="str">
         <f>IF(_gfln_day_hour!AE5="","",_gfln_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AG12" s="82" t="str">
+      <c r="AH12" s="82" t="str">
         <f>IF(_gfln_day_hour!AF5="","",_gfln_day_hour!AF5)</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:33">
-      <c r="A13" s="22">
+    <row r="13" ht="14.25" spans="2:34">
+      <c r="B13" s="20">
         <v>0.166666666666667</v>
       </c>
-      <c r="B13" s="23" t="str">
+      <c r="C13" s="21" t="str">
         <f>IF(_gfln_day_hour!A6="","",_gfln_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="C13" s="23" t="str">
+      <c r="D13" s="21" t="str">
         <f>IF(_gfln_day_hour!B6="","",_gfln_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="D13" s="23" t="str">
+      <c r="E13" s="21" t="str">
         <f>IF(_gfln_day_hour!C6="","",_gfln_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="E13" s="23" t="str">
+      <c r="F13" s="21" t="str">
         <f>IF(_gfln_day_hour!D6="","",_gfln_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="F13" s="23" t="str">
+      <c r="G13" s="21" t="str">
         <f>IF(_gfln_day_hour!E6="","",_gfln_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="G13" s="23" t="str">
+      <c r="H13" s="21" t="str">
         <f>IF(_gfln_day_hour!F6="","",_gfln_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="H13" s="23" t="str">
+      <c r="I13" s="21" t="str">
         <f>IF(_gfln_day_hour!G6="","",_gfln_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="I13" s="23" t="str">
+      <c r="J13" s="21" t="str">
         <f>IF(_gfln_day_hour!H6="","",_gfln_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="J13" s="23" t="str">
+      <c r="K13" s="21" t="str">
         <f>IF(_gfln_day_hour!I6="","",_gfln_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="K13" s="23" t="str">
+      <c r="L13" s="21" t="str">
         <f>IF(_gfln_day_hour!J6="","",_gfln_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="L13" s="23" t="str">
+      <c r="M13" s="21" t="str">
         <f>IF(_gfln_day_hour!K6="","",_gfln_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="M13" s="23" t="str">
+      <c r="N13" s="21" t="str">
         <f>IF(_gfln_day_hour!L6="","",_gfln_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="N13" s="23" t="str">
+      <c r="O13" s="21" t="str">
         <f>IF(_gfln_day_hour!M6="","",_gfln_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="O13" s="23" t="str">
+      <c r="P13" s="21" t="str">
         <f>IF(_gfln_day_hour!N6="","",_gfln_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="P13" s="23" t="str">
+      <c r="Q13" s="21" t="str">
         <f>IF(_gfln_day_hour!O6="","",_gfln_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="Q13" s="23" t="str">
+      <c r="R13" s="21" t="str">
         <f>IF(_gfln_day_hour!P6="","",_gfln_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="R13" s="23" t="str">
+      <c r="S13" s="21" t="str">
         <f>IF(_gfln_day_hour!Q6="","",_gfln_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="S13" s="23" t="str">
+      <c r="T13" s="21" t="str">
         <f>IF(_gfln_day_hour!R6="","",_gfln_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="T13" s="23" t="str">
+      <c r="U13" s="21" t="str">
         <f>IF(_gfln_day_hour!S6="","",_gfln_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="U13" s="23" t="str">
+      <c r="V13" s="21" t="str">
         <f>IF(_gfln_day_hour!T6="","",_gfln_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="V13" s="23" t="str">
+      <c r="W13" s="21" t="str">
         <f>IF(_gfln_day_hour!U6="","",_gfln_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="W13" s="23" t="str">
+      <c r="X13" s="21" t="str">
         <f>IF(_gfln_day_hour!V6="","",_gfln_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="X13" s="23" t="str">
+      <c r="Y13" s="21" t="str">
         <f>IF(_gfln_day_hour!W6="","",_gfln_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Y13" s="23" t="str">
+      <c r="Z13" s="21" t="str">
         <f>IF(_gfln_day_hour!X6="","",_gfln_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="Z13" s="23" t="str">
+      <c r="AA13" s="21" t="str">
         <f>IF(_gfln_day_hour!Y6="","",_gfln_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AA13" s="23" t="str">
+      <c r="AB13" s="21" t="str">
         <f>IF(_gfln_day_hour!Z6="","",_gfln_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AB13" s="23" t="str">
+      <c r="AC13" s="21" t="str">
         <f>IF(_gfln_day_hour!AA6="","",_gfln_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AC13" s="23" t="str">
+      <c r="AD13" s="21" t="str">
         <f>IF(_gfln_day_hour!AB6="","",_gfln_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AD13" s="23" t="str">
+      <c r="AE13" s="21" t="str">
         <f>IF(_gfln_day_hour!AC6="","",_gfln_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AE13" s="23" t="str">
+      <c r="AF13" s="21" t="str">
         <f>IF(_gfln_day_hour!AD6="","",_gfln_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AF13" s="23" t="str">
+      <c r="AG13" s="21" t="str">
         <f>IF(_gfln_day_hour!AE6="","",_gfln_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AG13" s="82" t="str">
+      <c r="AH13" s="82" t="str">
         <f>IF(_gfln_day_hour!AF6="","",_gfln_day_hour!AF6)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:33">
-      <c r="A14" s="22">
+    <row r="14" ht="14.25" spans="2:34">
+      <c r="B14" s="20">
         <v>0.208333333333333</v>
       </c>
-      <c r="B14" s="23" t="str">
+      <c r="C14" s="21" t="str">
         <f>IF(_gfln_day_hour!A7="","",_gfln_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="C14" s="23" t="str">
+      <c r="D14" s="21" t="str">
         <f>IF(_gfln_day_hour!B7="","",_gfln_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="D14" s="23" t="str">
+      <c r="E14" s="21" t="str">
         <f>IF(_gfln_day_hour!C7="","",_gfln_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="E14" s="23" t="str">
+      <c r="F14" s="21" t="str">
         <f>IF(_gfln_day_hour!D7="","",_gfln_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="F14" s="23" t="str">
+      <c r="G14" s="21" t="str">
         <f>IF(_gfln_day_hour!E7="","",_gfln_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="G14" s="23" t="str">
+      <c r="H14" s="21" t="str">
         <f>IF(_gfln_day_hour!F7="","",_gfln_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="H14" s="23" t="str">
+      <c r="I14" s="21" t="str">
         <f>IF(_gfln_day_hour!G7="","",_gfln_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="I14" s="23" t="str">
+      <c r="J14" s="21" t="str">
         <f>IF(_gfln_day_hour!H7="","",_gfln_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="J14" s="23" t="str">
+      <c r="K14" s="21" t="str">
         <f>IF(_gfln_day_hour!I7="","",_gfln_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="K14" s="23" t="str">
+      <c r="L14" s="21" t="str">
         <f>IF(_gfln_day_hour!J7="","",_gfln_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="L14" s="23" t="str">
+      <c r="M14" s="21" t="str">
         <f>IF(_gfln_day_hour!K7="","",_gfln_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="M14" s="23" t="str">
+      <c r="N14" s="21" t="str">
         <f>IF(_gfln_day_hour!L7="","",_gfln_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="N14" s="23" t="str">
+      <c r="O14" s="21" t="str">
         <f>IF(_gfln_day_hour!M7="","",_gfln_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="O14" s="23" t="str">
+      <c r="P14" s="21" t="str">
         <f>IF(_gfln_day_hour!N7="","",_gfln_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="P14" s="23" t="str">
+      <c r="Q14" s="21" t="str">
         <f>IF(_gfln_day_hour!O7="","",_gfln_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="Q14" s="23" t="str">
+      <c r="R14" s="21" t="str">
         <f>IF(_gfln_day_hour!P7="","",_gfln_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="R14" s="23" t="str">
+      <c r="S14" s="21" t="str">
         <f>IF(_gfln_day_hour!Q7="","",_gfln_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="S14" s="23" t="str">
+      <c r="T14" s="21" t="str">
         <f>IF(_gfln_day_hour!R7="","",_gfln_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="T14" s="23" t="str">
+      <c r="U14" s="21" t="str">
         <f>IF(_gfln_day_hour!S7="","",_gfln_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="U14" s="23" t="str">
+      <c r="V14" s="21" t="str">
         <f>IF(_gfln_day_hour!T7="","",_gfln_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="V14" s="23" t="str">
+      <c r="W14" s="21" t="str">
         <f>IF(_gfln_day_hour!U7="","",_gfln_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="W14" s="23" t="str">
+      <c r="X14" s="21" t="str">
         <f>IF(_gfln_day_hour!V7="","",_gfln_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="X14" s="23" t="str">
+      <c r="Y14" s="21" t="str">
         <f>IF(_gfln_day_hour!W7="","",_gfln_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Y14" s="23" t="str">
+      <c r="Z14" s="21" t="str">
         <f>IF(_gfln_day_hour!X7="","",_gfln_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="Z14" s="23" t="str">
+      <c r="AA14" s="21" t="str">
         <f>IF(_gfln_day_hour!Y7="","",_gfln_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AA14" s="23" t="str">
+      <c r="AB14" s="21" t="str">
         <f>IF(_gfln_day_hour!Z7="","",_gfln_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AB14" s="23" t="str">
+      <c r="AC14" s="21" t="str">
         <f>IF(_gfln_day_hour!AA7="","",_gfln_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AC14" s="23" t="str">
+      <c r="AD14" s="21" t="str">
         <f>IF(_gfln_day_hour!AB7="","",_gfln_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AD14" s="23" t="str">
+      <c r="AE14" s="21" t="str">
         <f>IF(_gfln_day_hour!AC7="","",_gfln_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AE14" s="23" t="str">
+      <c r="AF14" s="21" t="str">
         <f>IF(_gfln_day_hour!AD7="","",_gfln_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AF14" s="23" t="str">
+      <c r="AG14" s="21" t="str">
         <f>IF(_gfln_day_hour!AE7="","",_gfln_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AG14" s="82" t="str">
+      <c r="AH14" s="82" t="str">
         <f>IF(_gfln_day_hour!AF7="","",_gfln_day_hour!AF7)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:33">
-      <c r="A15" s="22">
+    <row r="15" ht="14.25" spans="2:34">
+      <c r="B15" s="20">
         <v>0.25</v>
       </c>
-      <c r="B15" s="23" t="str">
+      <c r="C15" s="21" t="str">
         <f>IF(_gfln_day_hour!A8="","",_gfln_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="C15" s="23" t="str">
+      <c r="D15" s="21" t="str">
         <f>IF(_gfln_day_hour!B8="","",_gfln_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="D15" s="23" t="str">
+      <c r="E15" s="21" t="str">
         <f>IF(_gfln_day_hour!C8="","",_gfln_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="E15" s="23" t="str">
+      <c r="F15" s="21" t="str">
         <f>IF(_gfln_day_hour!D8="","",_gfln_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="F15" s="23" t="str">
+      <c r="G15" s="21" t="str">
         <f>IF(_gfln_day_hour!E8="","",_gfln_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="G15" s="23" t="str">
+      <c r="H15" s="21" t="str">
         <f>IF(_gfln_day_hour!F8="","",_gfln_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="H15" s="23" t="str">
+      <c r="I15" s="21" t="str">
         <f>IF(_gfln_day_hour!G8="","",_gfln_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="I15" s="23" t="str">
+      <c r="J15" s="21" t="str">
         <f>IF(_gfln_day_hour!H8="","",_gfln_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="J15" s="23" t="str">
+      <c r="K15" s="21" t="str">
         <f>IF(_gfln_day_hour!I8="","",_gfln_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="K15" s="23" t="str">
+      <c r="L15" s="21" t="str">
         <f>IF(_gfln_day_hour!J8="","",_gfln_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="L15" s="23" t="str">
+      <c r="M15" s="21" t="str">
         <f>IF(_gfln_day_hour!K8="","",_gfln_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="M15" s="23" t="str">
+      <c r="N15" s="21" t="str">
         <f>IF(_gfln_day_hour!L8="","",_gfln_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="N15" s="23" t="str">
+      <c r="O15" s="21" t="str">
         <f>IF(_gfln_day_hour!M8="","",_gfln_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="O15" s="23" t="str">
+      <c r="P15" s="21" t="str">
         <f>IF(_gfln_day_hour!N8="","",_gfln_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="P15" s="23" t="str">
+      <c r="Q15" s="21" t="str">
         <f>IF(_gfln_day_hour!O8="","",_gfln_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="Q15" s="23" t="str">
+      <c r="R15" s="21" t="str">
         <f>IF(_gfln_day_hour!P8="","",_gfln_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="R15" s="23" t="str">
+      <c r="S15" s="21" t="str">
         <f>IF(_gfln_day_hour!Q8="","",_gfln_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="S15" s="23" t="str">
+      <c r="T15" s="21" t="str">
         <f>IF(_gfln_day_hour!R8="","",_gfln_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="T15" s="23" t="str">
+      <c r="U15" s="21" t="str">
         <f>IF(_gfln_day_hour!S8="","",_gfln_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="U15" s="23" t="str">
+      <c r="V15" s="21" t="str">
         <f>IF(_gfln_day_hour!T8="","",_gfln_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="V15" s="23" t="str">
+      <c r="W15" s="21" t="str">
         <f>IF(_gfln_day_hour!U8="","",_gfln_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="W15" s="23" t="str">
+      <c r="X15" s="21" t="str">
         <f>IF(_gfln_day_hour!V8="","",_gfln_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="X15" s="23" t="str">
+      <c r="Y15" s="21" t="str">
         <f>IF(_gfln_day_hour!W8="","",_gfln_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Y15" s="23" t="str">
+      <c r="Z15" s="21" t="str">
         <f>IF(_gfln_day_hour!X8="","",_gfln_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="Z15" s="23" t="str">
+      <c r="AA15" s="21" t="str">
         <f>IF(_gfln_day_hour!Y8="","",_gfln_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AA15" s="23" t="str">
+      <c r="AB15" s="21" t="str">
         <f>IF(_gfln_day_hour!Z8="","",_gfln_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AB15" s="23" t="str">
+      <c r="AC15" s="21" t="str">
         <f>IF(_gfln_day_hour!AA8="","",_gfln_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AC15" s="23" t="str">
+      <c r="AD15" s="21" t="str">
         <f>IF(_gfln_day_hour!AB8="","",_gfln_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AD15" s="23" t="str">
+      <c r="AE15" s="21" t="str">
         <f>IF(_gfln_day_hour!AC8="","",_gfln_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AE15" s="23" t="str">
+      <c r="AF15" s="21" t="str">
         <f>IF(_gfln_day_hour!AD8="","",_gfln_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AF15" s="23" t="str">
+      <c r="AG15" s="21" t="str">
         <f>IF(_gfln_day_hour!AE8="","",_gfln_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AG15" s="82" t="str">
+      <c r="AH15" s="82" t="str">
         <f>IF(_gfln_day_hour!AF8="","",_gfln_day_hour!AF8)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:33">
-      <c r="A16" s="24">
+    <row r="16" ht="15" spans="2:34">
+      <c r="B16" s="22">
         <v>0.291666666666667</v>
       </c>
-      <c r="B16" s="25" t="str">
+      <c r="C16" s="23" t="str">
         <f>IF(_gfln_day_hour!A9="","",_gfln_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="C16" s="25" t="str">
+      <c r="D16" s="23" t="str">
         <f>IF(_gfln_day_hour!B9="","",_gfln_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="D16" s="25" t="str">
+      <c r="E16" s="23" t="str">
         <f>IF(_gfln_day_hour!C9="","",_gfln_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="E16" s="25" t="str">
+      <c r="F16" s="23" t="str">
         <f>IF(_gfln_day_hour!D9="","",_gfln_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="F16" s="25" t="str">
+      <c r="G16" s="23" t="str">
         <f>IF(_gfln_day_hour!E9="","",_gfln_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="G16" s="25" t="str">
+      <c r="H16" s="23" t="str">
         <f>IF(_gfln_day_hour!F9="","",_gfln_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="H16" s="25" t="str">
+      <c r="I16" s="23" t="str">
         <f>IF(_gfln_day_hour!G9="","",_gfln_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="I16" s="25" t="str">
+      <c r="J16" s="23" t="str">
         <f>IF(_gfln_day_hour!H9="","",_gfln_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="J16" s="25" t="str">
+      <c r="K16" s="23" t="str">
         <f>IF(_gfln_day_hour!I9="","",_gfln_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="K16" s="25" t="str">
+      <c r="L16" s="23" t="str">
         <f>IF(_gfln_day_hour!J9="","",_gfln_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="L16" s="25" t="str">
+      <c r="M16" s="23" t="str">
         <f>IF(_gfln_day_hour!K9="","",_gfln_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="M16" s="25" t="str">
+      <c r="N16" s="23" t="str">
         <f>IF(_gfln_day_hour!L9="","",_gfln_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="N16" s="25" t="str">
+      <c r="O16" s="23" t="str">
         <f>IF(_gfln_day_hour!M9="","",_gfln_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="O16" s="25" t="str">
+      <c r="P16" s="23" t="str">
         <f>IF(_gfln_day_hour!N9="","",_gfln_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="P16" s="25" t="str">
+      <c r="Q16" s="23" t="str">
         <f>IF(_gfln_day_hour!O9="","",_gfln_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="Q16" s="25" t="str">
+      <c r="R16" s="23" t="str">
         <f>IF(_gfln_day_hour!P9="","",_gfln_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="R16" s="25" t="str">
+      <c r="S16" s="23" t="str">
         <f>IF(_gfln_day_hour!Q9="","",_gfln_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="S16" s="25" t="str">
+      <c r="T16" s="23" t="str">
         <f>IF(_gfln_day_hour!R9="","",_gfln_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="T16" s="25" t="str">
+      <c r="U16" s="23" t="str">
         <f>IF(_gfln_day_hour!S9="","",_gfln_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="U16" s="25" t="str">
+      <c r="V16" s="23" t="str">
         <f>IF(_gfln_day_hour!T9="","",_gfln_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="V16" s="25" t="str">
+      <c r="W16" s="23" t="str">
         <f>IF(_gfln_day_hour!U9="","",_gfln_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="W16" s="25" t="str">
+      <c r="X16" s="23" t="str">
         <f>IF(_gfln_day_hour!V9="","",_gfln_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="X16" s="25" t="str">
+      <c r="Y16" s="23" t="str">
         <f>IF(_gfln_day_hour!W9="","",_gfln_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Y16" s="25" t="str">
+      <c r="Z16" s="23" t="str">
         <f>IF(_gfln_day_hour!X9="","",_gfln_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="Z16" s="25" t="str">
+      <c r="AA16" s="23" t="str">
         <f>IF(_gfln_day_hour!Y9="","",_gfln_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AA16" s="25" t="str">
+      <c r="AB16" s="23" t="str">
         <f>IF(_gfln_day_hour!Z9="","",_gfln_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AB16" s="25" t="str">
+      <c r="AC16" s="23" t="str">
         <f>IF(_gfln_day_hour!AA9="","",_gfln_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AC16" s="25" t="str">
+      <c r="AD16" s="23" t="str">
         <f>IF(_gfln_day_hour!AB9="","",_gfln_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AD16" s="25" t="str">
+      <c r="AE16" s="23" t="str">
         <f>IF(_gfln_day_hour!AC9="","",_gfln_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AE16" s="25" t="str">
+      <c r="AF16" s="23" t="str">
         <f>IF(_gfln_day_hour!AD9="","",_gfln_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AF16" s="25" t="str">
+      <c r="AG16" s="23" t="str">
         <f>IF(_gfln_day_hour!AE9="","",_gfln_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AG16" s="83" t="str">
+      <c r="AH16" s="83" t="str">
         <f>IF(_gfln_day_hour!AF9="","",_gfln_day_hour!AF9)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:33">
-      <c r="A17" s="26">
+    <row r="17" ht="14.25" spans="2:34">
+      <c r="B17" s="24">
         <v>0.333333333333334</v>
       </c>
-      <c r="B17" s="27" t="str">
+      <c r="C17" s="25" t="str">
         <f>IF(_gfln_day_hour!A10="","",_gfln_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="D17" s="25" t="str">
         <f>IF(_gfln_day_hour!B10="","",_gfln_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="D17" s="27" t="str">
+      <c r="E17" s="25" t="str">
         <f>IF(_gfln_day_hour!C10="","",_gfln_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="E17" s="27" t="str">
+      <c r="F17" s="25" t="str">
         <f>IF(_gfln_day_hour!D10="","",_gfln_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="F17" s="27" t="str">
+      <c r="G17" s="25" t="str">
         <f>IF(_gfln_day_hour!E10="","",_gfln_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="G17" s="27" t="str">
+      <c r="H17" s="25" t="str">
         <f>IF(_gfln_day_hour!F10="","",_gfln_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="H17" s="27" t="str">
+      <c r="I17" s="25" t="str">
         <f>IF(_gfln_day_hour!G10="","",_gfln_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="I17" s="27" t="str">
+      <c r="J17" s="25" t="str">
         <f>IF(_gfln_day_hour!H10="","",_gfln_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="J17" s="27" t="str">
+      <c r="K17" s="25" t="str">
         <f>IF(_gfln_day_hour!I10="","",_gfln_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="K17" s="27" t="str">
+      <c r="L17" s="25" t="str">
         <f>IF(_gfln_day_hour!J10="","",_gfln_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="L17" s="27" t="str">
+      <c r="M17" s="25" t="str">
         <f>IF(_gfln_day_hour!K10="","",_gfln_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="M17" s="27" t="str">
+      <c r="N17" s="25" t="str">
         <f>IF(_gfln_day_hour!L10="","",_gfln_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="N17" s="27" t="str">
+      <c r="O17" s="25" t="str">
         <f>IF(_gfln_day_hour!M10="","",_gfln_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="O17" s="27" t="str">
+      <c r="P17" s="25" t="str">
         <f>IF(_gfln_day_hour!N10="","",_gfln_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="P17" s="27" t="str">
+      <c r="Q17" s="25" t="str">
         <f>IF(_gfln_day_hour!O10="","",_gfln_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="Q17" s="27" t="str">
+      <c r="R17" s="25" t="str">
         <f>IF(_gfln_day_hour!P10="","",_gfln_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="R17" s="27" t="str">
+      <c r="S17" s="25" t="str">
         <f>IF(_gfln_day_hour!Q10="","",_gfln_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="S17" s="27" t="str">
+      <c r="T17" s="25" t="str">
         <f>IF(_gfln_day_hour!R10="","",_gfln_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="T17" s="27" t="str">
+      <c r="U17" s="25" t="str">
         <f>IF(_gfln_day_hour!S10="","",_gfln_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="U17" s="27" t="str">
+      <c r="V17" s="25" t="str">
         <f>IF(_gfln_day_hour!T10="","",_gfln_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="V17" s="27" t="str">
+      <c r="W17" s="25" t="str">
         <f>IF(_gfln_day_hour!U10="","",_gfln_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="W17" s="27" t="str">
+      <c r="X17" s="25" t="str">
         <f>IF(_gfln_day_hour!V10="","",_gfln_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="X17" s="27" t="str">
+      <c r="Y17" s="25" t="str">
         <f>IF(_gfln_day_hour!W10="","",_gfln_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Y17" s="27" t="str">
+      <c r="Z17" s="25" t="str">
         <f>IF(_gfln_day_hour!X10="","",_gfln_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="Z17" s="27" t="str">
+      <c r="AA17" s="25" t="str">
         <f>IF(_gfln_day_hour!Y10="","",_gfln_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AA17" s="27" t="str">
+      <c r="AB17" s="25" t="str">
         <f>IF(_gfln_day_hour!Z10="","",_gfln_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AB17" s="27" t="str">
+      <c r="AC17" s="25" t="str">
         <f>IF(_gfln_day_hour!AA10="","",_gfln_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AC17" s="27" t="str">
+      <c r="AD17" s="25" t="str">
         <f>IF(_gfln_day_hour!AB10="","",_gfln_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AD17" s="27" t="str">
+      <c r="AE17" s="25" t="str">
         <f>IF(_gfln_day_hour!AC10="","",_gfln_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AE17" s="27" t="str">
+      <c r="AF17" s="25" t="str">
         <f>IF(_gfln_day_hour!AD10="","",_gfln_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AF17" s="27" t="str">
+      <c r="AG17" s="25" t="str">
         <f>IF(_gfln_day_hour!AE10="","",_gfln_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AG17" s="84" t="str">
+      <c r="AH17" s="84" t="str">
         <f>IF(_gfln_day_hour!AF10="","",_gfln_day_hour!AF10)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:33">
-      <c r="A18" s="20">
+    <row r="18" ht="14.25" spans="2:34">
+      <c r="B18" s="18">
         <v>0.375</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="C18" s="19" t="str">
         <f>IF(_gfln_day_hour!A11="","",_gfln_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="C18" s="21" t="str">
+      <c r="D18" s="19" t="str">
         <f>IF(_gfln_day_hour!B11="","",_gfln_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="D18" s="21" t="str">
+      <c r="E18" s="19" t="str">
         <f>IF(_gfln_day_hour!C11="","",_gfln_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="E18" s="21" t="str">
+      <c r="F18" s="19" t="str">
         <f>IF(_gfln_day_hour!D11="","",_gfln_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="F18" s="21" t="str">
+      <c r="G18" s="19" t="str">
         <f>IF(_gfln_day_hour!E11="","",_gfln_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="G18" s="21" t="str">
+      <c r="H18" s="19" t="str">
         <f>IF(_gfln_day_hour!F11="","",_gfln_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="H18" s="21" t="str">
+      <c r="I18" s="19" t="str">
         <f>IF(_gfln_day_hour!G11="","",_gfln_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="I18" s="21" t="str">
+      <c r="J18" s="19" t="str">
         <f>IF(_gfln_day_hour!H11="","",_gfln_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="J18" s="21" t="str">
+      <c r="K18" s="19" t="str">
         <f>IF(_gfln_day_hour!I11="","",_gfln_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="K18" s="21" t="str">
+      <c r="L18" s="19" t="str">
         <f>IF(_gfln_day_hour!J11="","",_gfln_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="L18" s="21" t="str">
+      <c r="M18" s="19" t="str">
         <f>IF(_gfln_day_hour!K11="","",_gfln_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="M18" s="21" t="str">
+      <c r="N18" s="19" t="str">
         <f>IF(_gfln_day_hour!L11="","",_gfln_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="N18" s="21" t="str">
+      <c r="O18" s="19" t="str">
         <f>IF(_gfln_day_hour!M11="","",_gfln_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="O18" s="21" t="str">
+      <c r="P18" s="19" t="str">
         <f>IF(_gfln_day_hour!N11="","",_gfln_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="P18" s="21" t="str">
+      <c r="Q18" s="19" t="str">
         <f>IF(_gfln_day_hour!O11="","",_gfln_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="Q18" s="21" t="str">
+      <c r="R18" s="19" t="str">
         <f>IF(_gfln_day_hour!P11="","",_gfln_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="R18" s="21" t="str">
+      <c r="S18" s="19" t="str">
         <f>IF(_gfln_day_hour!Q11="","",_gfln_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="S18" s="21" t="str">
+      <c r="T18" s="19" t="str">
         <f>IF(_gfln_day_hour!R11="","",_gfln_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="T18" s="21" t="str">
+      <c r="U18" s="19" t="str">
         <f>IF(_gfln_day_hour!S11="","",_gfln_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="U18" s="21" t="str">
+      <c r="V18" s="19" t="str">
         <f>IF(_gfln_day_hour!T11="","",_gfln_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="V18" s="21" t="str">
+      <c r="W18" s="19" t="str">
         <f>IF(_gfln_day_hour!U11="","",_gfln_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="W18" s="21" t="str">
+      <c r="X18" s="19" t="str">
         <f>IF(_gfln_day_hour!V11="","",_gfln_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="X18" s="21" t="str">
+      <c r="Y18" s="19" t="str">
         <f>IF(_gfln_day_hour!W11="","",_gfln_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Y18" s="21" t="str">
+      <c r="Z18" s="19" t="str">
         <f>IF(_gfln_day_hour!X11="","",_gfln_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="Z18" s="21" t="str">
+      <c r="AA18" s="19" t="str">
         <f>IF(_gfln_day_hour!Y11="","",_gfln_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AA18" s="21" t="str">
+      <c r="AB18" s="19" t="str">
         <f>IF(_gfln_day_hour!Z11="","",_gfln_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AB18" s="21" t="str">
+      <c r="AC18" s="19" t="str">
         <f>IF(_gfln_day_hour!AA11="","",_gfln_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AC18" s="21" t="str">
+      <c r="AD18" s="19" t="str">
         <f>IF(_gfln_day_hour!AB11="","",_gfln_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AD18" s="21" t="str">
+      <c r="AE18" s="19" t="str">
         <f>IF(_gfln_day_hour!AC11="","",_gfln_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AE18" s="21" t="str">
+      <c r="AF18" s="19" t="str">
         <f>IF(_gfln_day_hour!AD11="","",_gfln_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AF18" s="21" t="str">
+      <c r="AG18" s="19" t="str">
         <f>IF(_gfln_day_hour!AE11="","",_gfln_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AG18" s="81" t="str">
+      <c r="AH18" s="81" t="str">
         <f>IF(_gfln_day_hour!AF11="","",_gfln_day_hour!AF11)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:33">
-      <c r="A19" s="20">
+    <row r="19" ht="14.25" spans="2:34">
+      <c r="B19" s="18">
         <v>0.416666666666667</v>
       </c>
-      <c r="B19" s="21" t="str">
+      <c r="C19" s="19" t="str">
         <f>IF(_gfln_day_hour!A12="","",_gfln_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="C19" s="21" t="str">
+      <c r="D19" s="19" t="str">
         <f>IF(_gfln_day_hour!B12="","",_gfln_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="D19" s="21" t="str">
+      <c r="E19" s="19" t="str">
         <f>IF(_gfln_day_hour!C12="","",_gfln_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="E19" s="21" t="str">
+      <c r="F19" s="19" t="str">
         <f>IF(_gfln_day_hour!D12="","",_gfln_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="F19" s="21" t="str">
+      <c r="G19" s="19" t="str">
         <f>IF(_gfln_day_hour!E12="","",_gfln_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="H19" s="19" t="str">
         <f>IF(_gfln_day_hour!F12="","",_gfln_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="H19" s="21" t="str">
+      <c r="I19" s="19" t="str">
         <f>IF(_gfln_day_hour!G12="","",_gfln_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="I19" s="21" t="str">
+      <c r="J19" s="19" t="str">
         <f>IF(_gfln_day_hour!H12="","",_gfln_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="J19" s="21" t="str">
+      <c r="K19" s="19" t="str">
         <f>IF(_gfln_day_hour!I12="","",_gfln_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="K19" s="21" t="str">
+      <c r="L19" s="19" t="str">
         <f>IF(_gfln_day_hour!J12="","",_gfln_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="L19" s="21" t="str">
+      <c r="M19" s="19" t="str">
         <f>IF(_gfln_day_hour!K12="","",_gfln_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="M19" s="21" t="str">
+      <c r="N19" s="19" t="str">
         <f>IF(_gfln_day_hour!L12="","",_gfln_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="N19" s="21" t="str">
+      <c r="O19" s="19" t="str">
         <f>IF(_gfln_day_hour!M12="","",_gfln_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="O19" s="21" t="str">
+      <c r="P19" s="19" t="str">
         <f>IF(_gfln_day_hour!N12="","",_gfln_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="P19" s="21" t="str">
+      <c r="Q19" s="19" t="str">
         <f>IF(_gfln_day_hour!O12="","",_gfln_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="Q19" s="21" t="str">
+      <c r="R19" s="19" t="str">
         <f>IF(_gfln_day_hour!P12="","",_gfln_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="R19" s="21" t="str">
+      <c r="S19" s="19" t="str">
         <f>IF(_gfln_day_hour!Q12="","",_gfln_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="S19" s="21" t="str">
+      <c r="T19" s="19" t="str">
         <f>IF(_gfln_day_hour!R12="","",_gfln_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="T19" s="21" t="str">
+      <c r="U19" s="19" t="str">
         <f>IF(_gfln_day_hour!S12="","",_gfln_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="U19" s="21" t="str">
+      <c r="V19" s="19" t="str">
         <f>IF(_gfln_day_hour!T12="","",_gfln_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="V19" s="21" t="str">
+      <c r="W19" s="19" t="str">
         <f>IF(_gfln_day_hour!U12="","",_gfln_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="W19" s="21" t="str">
+      <c r="X19" s="19" t="str">
         <f>IF(_gfln_day_hour!V12="","",_gfln_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="X19" s="21" t="str">
+      <c r="Y19" s="19" t="str">
         <f>IF(_gfln_day_hour!W12="","",_gfln_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Y19" s="21" t="str">
+      <c r="Z19" s="19" t="str">
         <f>IF(_gfln_day_hour!X12="","",_gfln_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="Z19" s="21" t="str">
+      <c r="AA19" s="19" t="str">
         <f>IF(_gfln_day_hour!Y12="","",_gfln_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AA19" s="21" t="str">
+      <c r="AB19" s="19" t="str">
         <f>IF(_gfln_day_hour!Z12="","",_gfln_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AB19" s="21" t="str">
+      <c r="AC19" s="19" t="str">
         <f>IF(_gfln_day_hour!AA12="","",_gfln_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AC19" s="21" t="str">
+      <c r="AD19" s="19" t="str">
         <f>IF(_gfln_day_hour!AB12="","",_gfln_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AD19" s="21" t="str">
+      <c r="AE19" s="19" t="str">
         <f>IF(_gfln_day_hour!AC12="","",_gfln_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AE19" s="21" t="str">
+      <c r="AF19" s="19" t="str">
         <f>IF(_gfln_day_hour!AD12="","",_gfln_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AF19" s="21" t="str">
+      <c r="AG19" s="19" t="str">
         <f>IF(_gfln_day_hour!AE12="","",_gfln_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AG19" s="81" t="str">
+      <c r="AH19" s="81" t="str">
         <f>IF(_gfln_day_hour!AF12="","",_gfln_day_hour!AF12)</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:33">
-      <c r="A20" s="20">
+    <row r="20" ht="14.25" spans="2:34">
+      <c r="B20" s="18">
         <v>0.458333333333334</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="C20" s="19" t="str">
         <f>IF(_gfln_day_hour!A13="","",_gfln_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="C20" s="21" t="str">
+      <c r="D20" s="19" t="str">
         <f>IF(_gfln_day_hour!B13="","",_gfln_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="D20" s="21" t="str">
+      <c r="E20" s="19" t="str">
         <f>IF(_gfln_day_hour!C13="","",_gfln_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="E20" s="21" t="str">
+      <c r="F20" s="19" t="str">
         <f>IF(_gfln_day_hour!D13="","",_gfln_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="F20" s="21" t="str">
+      <c r="G20" s="19" t="str">
         <f>IF(_gfln_day_hour!E13="","",_gfln_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="G20" s="21" t="str">
+      <c r="H20" s="19" t="str">
         <f>IF(_gfln_day_hour!F13="","",_gfln_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="H20" s="21" t="str">
+      <c r="I20" s="19" t="str">
         <f>IF(_gfln_day_hour!G13="","",_gfln_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="I20" s="21" t="str">
+      <c r="J20" s="19" t="str">
         <f>IF(_gfln_day_hour!H13="","",_gfln_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="J20" s="21" t="str">
+      <c r="K20" s="19" t="str">
         <f>IF(_gfln_day_hour!I13="","",_gfln_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="K20" s="21" t="str">
+      <c r="L20" s="19" t="str">
         <f>IF(_gfln_day_hour!J13="","",_gfln_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="L20" s="21" t="str">
+      <c r="M20" s="19" t="str">
         <f>IF(_gfln_day_hour!K13="","",_gfln_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="M20" s="21" t="str">
+      <c r="N20" s="19" t="str">
         <f>IF(_gfln_day_hour!L13="","",_gfln_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="N20" s="21" t="str">
+      <c r="O20" s="19" t="str">
         <f>IF(_gfln_day_hour!M13="","",_gfln_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="O20" s="21" t="str">
+      <c r="P20" s="19" t="str">
         <f>IF(_gfln_day_hour!N13="","",_gfln_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="P20" s="21" t="str">
+      <c r="Q20" s="19" t="str">
         <f>IF(_gfln_day_hour!O13="","",_gfln_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="Q20" s="21" t="str">
+      <c r="R20" s="19" t="str">
         <f>IF(_gfln_day_hour!P13="","",_gfln_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="R20" s="21" t="str">
+      <c r="S20" s="19" t="str">
         <f>IF(_gfln_day_hour!Q13="","",_gfln_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="S20" s="21" t="str">
+      <c r="T20" s="19" t="str">
         <f>IF(_gfln_day_hour!R13="","",_gfln_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="T20" s="21" t="str">
+      <c r="U20" s="19" t="str">
         <f>IF(_gfln_day_hour!S13="","",_gfln_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="U20" s="21" t="str">
+      <c r="V20" s="19" t="str">
         <f>IF(_gfln_day_hour!T13="","",_gfln_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="V20" s="21" t="str">
+      <c r="W20" s="19" t="str">
         <f>IF(_gfln_day_hour!U13="","",_gfln_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="W20" s="21" t="str">
+      <c r="X20" s="19" t="str">
         <f>IF(_gfln_day_hour!V13="","",_gfln_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="X20" s="21" t="str">
+      <c r="Y20" s="19" t="str">
         <f>IF(_gfln_day_hour!W13="","",_gfln_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Y20" s="21" t="str">
+      <c r="Z20" s="19" t="str">
         <f>IF(_gfln_day_hour!X13="","",_gfln_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="Z20" s="21" t="str">
+      <c r="AA20" s="19" t="str">
         <f>IF(_gfln_day_hour!Y13="","",_gfln_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AA20" s="21" t="str">
+      <c r="AB20" s="19" t="str">
         <f>IF(_gfln_day_hour!Z13="","",_gfln_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AB20" s="21" t="str">
+      <c r="AC20" s="19" t="str">
         <f>IF(_gfln_day_hour!AA13="","",_gfln_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AC20" s="21" t="str">
+      <c r="AD20" s="19" t="str">
         <f>IF(_gfln_day_hour!AB13="","",_gfln_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AD20" s="21" t="str">
+      <c r="AE20" s="19" t="str">
         <f>IF(_gfln_day_hour!AC13="","",_gfln_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AE20" s="21" t="str">
+      <c r="AF20" s="19" t="str">
         <f>IF(_gfln_day_hour!AD13="","",_gfln_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AF20" s="21" t="str">
+      <c r="AG20" s="19" t="str">
         <f>IF(_gfln_day_hour!AE13="","",_gfln_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AG20" s="81" t="str">
+      <c r="AH20" s="81" t="str">
         <f>IF(_gfln_day_hour!AF13="","",_gfln_day_hour!AF13)</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:33">
-      <c r="A21" s="20">
+    <row r="21" ht="14.25" spans="2:34">
+      <c r="B21" s="18">
         <v>0.5</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="C21" s="19" t="str">
         <f>IF(_gfln_day_hour!A14="","",_gfln_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="C21" s="21" t="str">
+      <c r="D21" s="19" t="str">
         <f>IF(_gfln_day_hour!B14="","",_gfln_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="D21" s="21" t="str">
+      <c r="E21" s="19" t="str">
         <f>IF(_gfln_day_hour!C14="","",_gfln_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="E21" s="21" t="str">
+      <c r="F21" s="19" t="str">
         <f>IF(_gfln_day_hour!D14="","",_gfln_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="F21" s="21" t="str">
+      <c r="G21" s="19" t="str">
         <f>IF(_gfln_day_hour!E14="","",_gfln_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="G21" s="21" t="str">
+      <c r="H21" s="19" t="str">
         <f>IF(_gfln_day_hour!F14="","",_gfln_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="H21" s="21" t="str">
+      <c r="I21" s="19" t="str">
         <f>IF(_gfln_day_hour!G14="","",_gfln_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="I21" s="21" t="str">
+      <c r="J21" s="19" t="str">
         <f>IF(_gfln_day_hour!H14="","",_gfln_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="J21" s="21" t="str">
+      <c r="K21" s="19" t="str">
         <f>IF(_gfln_day_hour!I14="","",_gfln_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="K21" s="21" t="str">
+      <c r="L21" s="19" t="str">
         <f>IF(_gfln_day_hour!J14="","",_gfln_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="L21" s="21" t="str">
+      <c r="M21" s="19" t="str">
         <f>IF(_gfln_day_hour!K14="","",_gfln_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="M21" s="21" t="str">
+      <c r="N21" s="19" t="str">
         <f>IF(_gfln_day_hour!L14="","",_gfln_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="N21" s="21" t="str">
+      <c r="O21" s="19" t="str">
         <f>IF(_gfln_day_hour!M14="","",_gfln_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="O21" s="21" t="str">
+      <c r="P21" s="19" t="str">
         <f>IF(_gfln_day_hour!N14="","",_gfln_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="P21" s="21" t="str">
+      <c r="Q21" s="19" t="str">
         <f>IF(_gfln_day_hour!O14="","",_gfln_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="Q21" s="21" t="str">
+      <c r="R21" s="19" t="str">
         <f>IF(_gfln_day_hour!P14="","",_gfln_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="R21" s="21" t="str">
+      <c r="S21" s="19" t="str">
         <f>IF(_gfln_day_hour!Q14="","",_gfln_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="S21" s="21" t="str">
+      <c r="T21" s="19" t="str">
         <f>IF(_gfln_day_hour!R14="","",_gfln_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="T21" s="21" t="str">
+      <c r="U21" s="19" t="str">
         <f>IF(_gfln_day_hour!S14="","",_gfln_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="U21" s="21" t="str">
+      <c r="V21" s="19" t="str">
         <f>IF(_gfln_day_hour!T14="","",_gfln_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="V21" s="21" t="str">
+      <c r="W21" s="19" t="str">
         <f>IF(_gfln_day_hour!U14="","",_gfln_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="W21" s="21" t="str">
+      <c r="X21" s="19" t="str">
         <f>IF(_gfln_day_hour!V14="","",_gfln_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="X21" s="21" t="str">
+      <c r="Y21" s="19" t="str">
         <f>IF(_gfln_day_hour!W14="","",_gfln_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Y21" s="21" t="str">
+      <c r="Z21" s="19" t="str">
         <f>IF(_gfln_day_hour!X14="","",_gfln_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="Z21" s="21" t="str">
+      <c r="AA21" s="19" t="str">
         <f>IF(_gfln_day_hour!Y14="","",_gfln_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AA21" s="21" t="str">
+      <c r="AB21" s="19" t="str">
         <f>IF(_gfln_day_hour!Z14="","",_gfln_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AB21" s="21" t="str">
+      <c r="AC21" s="19" t="str">
         <f>IF(_gfln_day_hour!AA14="","",_gfln_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AC21" s="21" t="str">
+      <c r="AD21" s="19" t="str">
         <f>IF(_gfln_day_hour!AB14="","",_gfln_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AD21" s="21" t="str">
+      <c r="AE21" s="19" t="str">
         <f>IF(_gfln_day_hour!AC14="","",_gfln_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AE21" s="21" t="str">
+      <c r="AF21" s="19" t="str">
         <f>IF(_gfln_day_hour!AD14="","",_gfln_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AF21" s="21" t="str">
+      <c r="AG21" s="19" t="str">
         <f>IF(_gfln_day_hour!AE14="","",_gfln_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AG21" s="81" t="str">
+      <c r="AH21" s="81" t="str">
         <f>IF(_gfln_day_hour!AF14="","",_gfln_day_hour!AF14)</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:33">
-      <c r="A22" s="20">
+    <row r="22" ht="14.25" spans="2:34">
+      <c r="B22" s="18">
         <v>0.541666666666667</v>
       </c>
-      <c r="B22" s="21" t="str">
+      <c r="C22" s="19" t="str">
         <f>IF(_gfln_day_hour!A15="","",_gfln_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="C22" s="21" t="str">
+      <c r="D22" s="19" t="str">
         <f>IF(_gfln_day_hour!B15="","",_gfln_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="D22" s="21" t="str">
+      <c r="E22" s="19" t="str">
         <f>IF(_gfln_day_hour!C15="","",_gfln_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="E22" s="21" t="str">
+      <c r="F22" s="19" t="str">
         <f>IF(_gfln_day_hour!D15="","",_gfln_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="F22" s="21" t="str">
+      <c r="G22" s="19" t="str">
         <f>IF(_gfln_day_hour!E15="","",_gfln_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="G22" s="21" t="str">
+      <c r="H22" s="19" t="str">
         <f>IF(_gfln_day_hour!F15="","",_gfln_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="H22" s="21" t="str">
+      <c r="I22" s="19" t="str">
         <f>IF(_gfln_day_hour!G15="","",_gfln_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="I22" s="21" t="str">
+      <c r="J22" s="19" t="str">
         <f>IF(_gfln_day_hour!H15="","",_gfln_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="J22" s="21" t="str">
+      <c r="K22" s="19" t="str">
         <f>IF(_gfln_day_hour!I15="","",_gfln_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="K22" s="21" t="str">
+      <c r="L22" s="19" t="str">
         <f>IF(_gfln_day_hour!J15="","",_gfln_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="L22" s="21" t="str">
+      <c r="M22" s="19" t="str">
         <f>IF(_gfln_day_hour!K15="","",_gfln_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="M22" s="21" t="str">
+      <c r="N22" s="19" t="str">
         <f>IF(_gfln_day_hour!L15="","",_gfln_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="N22" s="21" t="str">
+      <c r="O22" s="19" t="str">
         <f>IF(_gfln_day_hour!M15="","",_gfln_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="O22" s="21" t="str">
+      <c r="P22" s="19" t="str">
         <f>IF(_gfln_day_hour!N15="","",_gfln_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="P22" s="21" t="str">
+      <c r="Q22" s="19" t="str">
         <f>IF(_gfln_day_hour!O15="","",_gfln_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="Q22" s="21" t="str">
+      <c r="R22" s="19" t="str">
         <f>IF(_gfln_day_hour!P15="","",_gfln_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="R22" s="21" t="str">
+      <c r="S22" s="19" t="str">
         <f>IF(_gfln_day_hour!Q15="","",_gfln_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="S22" s="21" t="str">
+      <c r="T22" s="19" t="str">
         <f>IF(_gfln_day_hour!R15="","",_gfln_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="T22" s="21" t="str">
+      <c r="U22" s="19" t="str">
         <f>IF(_gfln_day_hour!S15="","",_gfln_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="U22" s="21" t="str">
+      <c r="V22" s="19" t="str">
         <f>IF(_gfln_day_hour!T15="","",_gfln_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="V22" s="21" t="str">
+      <c r="W22" s="19" t="str">
         <f>IF(_gfln_day_hour!U15="","",_gfln_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="W22" s="21" t="str">
+      <c r="X22" s="19" t="str">
         <f>IF(_gfln_day_hour!V15="","",_gfln_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="X22" s="21" t="str">
+      <c r="Y22" s="19" t="str">
         <f>IF(_gfln_day_hour!W15="","",_gfln_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Y22" s="21" t="str">
+      <c r="Z22" s="19" t="str">
         <f>IF(_gfln_day_hour!X15="","",_gfln_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="Z22" s="21" t="str">
+      <c r="AA22" s="19" t="str">
         <f>IF(_gfln_day_hour!Y15="","",_gfln_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AA22" s="21" t="str">
+      <c r="AB22" s="19" t="str">
         <f>IF(_gfln_day_hour!Z15="","",_gfln_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AB22" s="21" t="str">
+      <c r="AC22" s="19" t="str">
         <f>IF(_gfln_day_hour!AA15="","",_gfln_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AC22" s="21" t="str">
+      <c r="AD22" s="19" t="str">
         <f>IF(_gfln_day_hour!AB15="","",_gfln_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AD22" s="21" t="str">
+      <c r="AE22" s="19" t="str">
         <f>IF(_gfln_day_hour!AC15="","",_gfln_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AE22" s="21" t="str">
+      <c r="AF22" s="19" t="str">
         <f>IF(_gfln_day_hour!AD15="","",_gfln_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AF22" s="21" t="str">
+      <c r="AG22" s="19" t="str">
         <f>IF(_gfln_day_hour!AE15="","",_gfln_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AG22" s="81" t="str">
+      <c r="AH22" s="81" t="str">
         <f>IF(_gfln_day_hour!AF15="","",_gfln_day_hour!AF15)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:33">
-      <c r="A23" s="20">
+    <row r="23" ht="14.25" spans="2:34">
+      <c r="B23" s="18">
         <v>0.583333333333334</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="C23" s="19" t="str">
         <f>IF(_gfln_day_hour!A16="","",_gfln_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="C23" s="21" t="str">
+      <c r="D23" s="19" t="str">
         <f>IF(_gfln_day_hour!B16="","",_gfln_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="D23" s="21" t="str">
+      <c r="E23" s="19" t="str">
         <f>IF(_gfln_day_hour!C16="","",_gfln_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="E23" s="21" t="str">
+      <c r="F23" s="19" t="str">
         <f>IF(_gfln_day_hour!D16="","",_gfln_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="F23" s="21" t="str">
+      <c r="G23" s="19" t="str">
         <f>IF(_gfln_day_hour!E16="","",_gfln_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="G23" s="21" t="str">
+      <c r="H23" s="19" t="str">
         <f>IF(_gfln_day_hour!F16="","",_gfln_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="H23" s="21" t="str">
+      <c r="I23" s="19" t="str">
         <f>IF(_gfln_day_hour!G16="","",_gfln_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="I23" s="21" t="str">
+      <c r="J23" s="19" t="str">
         <f>IF(_gfln_day_hour!H16="","",_gfln_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="J23" s="21" t="str">
+      <c r="K23" s="19" t="str">
         <f>IF(_gfln_day_hour!I16="","",_gfln_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="K23" s="21" t="str">
+      <c r="L23" s="19" t="str">
         <f>IF(_gfln_day_hour!J16="","",_gfln_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="L23" s="21" t="str">
+      <c r="M23" s="19" t="str">
         <f>IF(_gfln_day_hour!K16="","",_gfln_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="M23" s="21" t="str">
+      <c r="N23" s="19" t="str">
         <f>IF(_gfln_day_hour!L16="","",_gfln_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="N23" s="21" t="str">
+      <c r="O23" s="19" t="str">
         <f>IF(_gfln_day_hour!M16="","",_gfln_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="O23" s="21" t="str">
+      <c r="P23" s="19" t="str">
         <f>IF(_gfln_day_hour!N16="","",_gfln_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="P23" s="21" t="str">
+      <c r="Q23" s="19" t="str">
         <f>IF(_gfln_day_hour!O16="","",_gfln_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="Q23" s="21" t="str">
+      <c r="R23" s="19" t="str">
         <f>IF(_gfln_day_hour!P16="","",_gfln_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="R23" s="21" t="str">
+      <c r="S23" s="19" t="str">
         <f>IF(_gfln_day_hour!Q16="","",_gfln_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="S23" s="21" t="str">
+      <c r="T23" s="19" t="str">
         <f>IF(_gfln_day_hour!R16="","",_gfln_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="T23" s="21" t="str">
+      <c r="U23" s="19" t="str">
         <f>IF(_gfln_day_hour!S16="","",_gfln_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="U23" s="21" t="str">
+      <c r="V23" s="19" t="str">
         <f>IF(_gfln_day_hour!T16="","",_gfln_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="V23" s="21" t="str">
+      <c r="W23" s="19" t="str">
         <f>IF(_gfln_day_hour!U16="","",_gfln_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="W23" s="21" t="str">
+      <c r="X23" s="19" t="str">
         <f>IF(_gfln_day_hour!V16="","",_gfln_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="X23" s="21" t="str">
+      <c r="Y23" s="19" t="str">
         <f>IF(_gfln_day_hour!W16="","",_gfln_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Y23" s="21" t="str">
+      <c r="Z23" s="19" t="str">
         <f>IF(_gfln_day_hour!X16="","",_gfln_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="Z23" s="21" t="str">
+      <c r="AA23" s="19" t="str">
         <f>IF(_gfln_day_hour!Y16="","",_gfln_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AA23" s="21" t="str">
+      <c r="AB23" s="19" t="str">
         <f>IF(_gfln_day_hour!Z16="","",_gfln_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AB23" s="21" t="str">
+      <c r="AC23" s="19" t="str">
         <f>IF(_gfln_day_hour!AA16="","",_gfln_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AC23" s="21" t="str">
+      <c r="AD23" s="19" t="str">
         <f>IF(_gfln_day_hour!AB16="","",_gfln_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AD23" s="21" t="str">
+      <c r="AE23" s="19" t="str">
         <f>IF(_gfln_day_hour!AC16="","",_gfln_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AE23" s="21" t="str">
+      <c r="AF23" s="19" t="str">
         <f>IF(_gfln_day_hour!AD16="","",_gfln_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AF23" s="21" t="str">
+      <c r="AG23" s="19" t="str">
         <f>IF(_gfln_day_hour!AE16="","",_gfln_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AG23" s="81" t="str">
+      <c r="AH23" s="81" t="str">
         <f>IF(_gfln_day_hour!AF16="","",_gfln_day_hour!AF16)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:33">
-      <c r="A24" s="28">
+    <row r="24" ht="15" spans="2:34">
+      <c r="B24" s="26">
         <v>0.625</v>
       </c>
-      <c r="B24" s="29" t="str">
+      <c r="C24" s="27" t="str">
         <f>IF(_gfln_day_hour!A17="","",_gfln_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="C24" s="29" t="str">
+      <c r="D24" s="27" t="str">
         <f>IF(_gfln_day_hour!B17="","",_gfln_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="D24" s="29" t="str">
+      <c r="E24" s="27" t="str">
         <f>IF(_gfln_day_hour!C17="","",_gfln_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="E24" s="29" t="str">
+      <c r="F24" s="27" t="str">
         <f>IF(_gfln_day_hour!D17="","",_gfln_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="F24" s="29" t="str">
+      <c r="G24" s="27" t="str">
         <f>IF(_gfln_day_hour!E17="","",_gfln_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="G24" s="29" t="str">
+      <c r="H24" s="27" t="str">
         <f>IF(_gfln_day_hour!F17="","",_gfln_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="H24" s="29" t="str">
+      <c r="I24" s="27" t="str">
         <f>IF(_gfln_day_hour!G17="","",_gfln_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="I24" s="29" t="str">
+      <c r="J24" s="27" t="str">
         <f>IF(_gfln_day_hour!H17="","",_gfln_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="J24" s="29" t="str">
+      <c r="K24" s="27" t="str">
         <f>IF(_gfln_day_hour!I17="","",_gfln_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="K24" s="29" t="str">
+      <c r="L24" s="27" t="str">
         <f>IF(_gfln_day_hour!J17="","",_gfln_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="L24" s="29" t="str">
+      <c r="M24" s="27" t="str">
         <f>IF(_gfln_day_hour!K17="","",_gfln_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="M24" s="29" t="str">
+      <c r="N24" s="27" t="str">
         <f>IF(_gfln_day_hour!L17="","",_gfln_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="N24" s="29" t="str">
+      <c r="O24" s="27" t="str">
         <f>IF(_gfln_day_hour!M17="","",_gfln_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="O24" s="29" t="str">
+      <c r="P24" s="27" t="str">
         <f>IF(_gfln_day_hour!N17="","",_gfln_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="P24" s="29" t="str">
+      <c r="Q24" s="27" t="str">
         <f>IF(_gfln_day_hour!O17="","",_gfln_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="Q24" s="29" t="str">
+      <c r="R24" s="27" t="str">
         <f>IF(_gfln_day_hour!P17="","",_gfln_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="R24" s="29" t="str">
+      <c r="S24" s="27" t="str">
         <f>IF(_gfln_day_hour!Q17="","",_gfln_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="S24" s="29" t="str">
+      <c r="T24" s="27" t="str">
         <f>IF(_gfln_day_hour!R17="","",_gfln_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="T24" s="29" t="str">
+      <c r="U24" s="27" t="str">
         <f>IF(_gfln_day_hour!S17="","",_gfln_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="U24" s="29" t="str">
+      <c r="V24" s="27" t="str">
         <f>IF(_gfln_day_hour!T17="","",_gfln_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="V24" s="29" t="str">
+      <c r="W24" s="27" t="str">
         <f>IF(_gfln_day_hour!U17="","",_gfln_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="W24" s="29" t="str">
+      <c r="X24" s="27" t="str">
         <f>IF(_gfln_day_hour!V17="","",_gfln_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="X24" s="29" t="str">
+      <c r="Y24" s="27" t="str">
         <f>IF(_gfln_day_hour!W17="","",_gfln_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Y24" s="29" t="str">
+      <c r="Z24" s="27" t="str">
         <f>IF(_gfln_day_hour!X17="","",_gfln_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="Z24" s="29" t="str">
+      <c r="AA24" s="27" t="str">
         <f>IF(_gfln_day_hour!Y17="","",_gfln_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AA24" s="29" t="str">
+      <c r="AB24" s="27" t="str">
         <f>IF(_gfln_day_hour!Z17="","",_gfln_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AB24" s="29" t="str">
+      <c r="AC24" s="27" t="str">
         <f>IF(_gfln_day_hour!AA17="","",_gfln_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AC24" s="29" t="str">
+      <c r="AD24" s="27" t="str">
         <f>IF(_gfln_day_hour!AB17="","",_gfln_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AD24" s="29" t="str">
+      <c r="AE24" s="27" t="str">
         <f>IF(_gfln_day_hour!AC17="","",_gfln_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AE24" s="29" t="str">
+      <c r="AF24" s="27" t="str">
         <f>IF(_gfln_day_hour!AD17="","",_gfln_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AF24" s="29" t="str">
+      <c r="AG24" s="27" t="str">
         <f>IF(_gfln_day_hour!AE17="","",_gfln_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AG24" s="85" t="str">
+      <c r="AH24" s="85" t="str">
         <f>IF(_gfln_day_hour!AF17="","",_gfln_day_hour!AF17)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:33">
-      <c r="A25" s="30">
+    <row r="25" ht="14.25" spans="2:34">
+      <c r="B25" s="28">
         <v>0.666666666666667</v>
       </c>
-      <c r="B25" s="31" t="str">
+      <c r="C25" s="29" t="str">
         <f>IF(_gfln_day_hour!A18="","",_gfln_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="C25" s="31" t="str">
+      <c r="D25" s="29" t="str">
         <f>IF(_gfln_day_hour!B18="","",_gfln_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="D25" s="31" t="str">
+      <c r="E25" s="29" t="str">
         <f>IF(_gfln_day_hour!C18="","",_gfln_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="E25" s="31" t="str">
+      <c r="F25" s="29" t="str">
         <f>IF(_gfln_day_hour!D18="","",_gfln_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="F25" s="31" t="str">
+      <c r="G25" s="29" t="str">
         <f>IF(_gfln_day_hour!E18="","",_gfln_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="G25" s="31" t="str">
+      <c r="H25" s="29" t="str">
         <f>IF(_gfln_day_hour!F18="","",_gfln_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="H25" s="31" t="str">
+      <c r="I25" s="29" t="str">
         <f>IF(_gfln_day_hour!G18="","",_gfln_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="I25" s="31" t="str">
+      <c r="J25" s="29" t="str">
         <f>IF(_gfln_day_hour!H18="","",_gfln_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="J25" s="31" t="str">
+      <c r="K25" s="29" t="str">
         <f>IF(_gfln_day_hour!I18="","",_gfln_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="K25" s="31" t="str">
+      <c r="L25" s="29" t="str">
         <f>IF(_gfln_day_hour!J18="","",_gfln_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="L25" s="31" t="str">
+      <c r="M25" s="29" t="str">
         <f>IF(_gfln_day_hour!K18="","",_gfln_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="M25" s="31" t="str">
+      <c r="N25" s="29" t="str">
         <f>IF(_gfln_day_hour!L18="","",_gfln_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="N25" s="31" t="str">
+      <c r="O25" s="29" t="str">
         <f>IF(_gfln_day_hour!M18="","",_gfln_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="O25" s="31" t="str">
+      <c r="P25" s="29" t="str">
         <f>IF(_gfln_day_hour!N18="","",_gfln_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="P25" s="31" t="str">
+      <c r="Q25" s="29" t="str">
         <f>IF(_gfln_day_hour!O18="","",_gfln_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="Q25" s="31" t="str">
+      <c r="R25" s="29" t="str">
         <f>IF(_gfln_day_hour!P18="","",_gfln_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="R25" s="31" t="str">
+      <c r="S25" s="29" t="str">
         <f>IF(_gfln_day_hour!Q18="","",_gfln_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="S25" s="31" t="str">
+      <c r="T25" s="29" t="str">
         <f>IF(_gfln_day_hour!R18="","",_gfln_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="T25" s="31" t="str">
+      <c r="U25" s="29" t="str">
         <f>IF(_gfln_day_hour!S18="","",_gfln_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="U25" s="31" t="str">
+      <c r="V25" s="29" t="str">
         <f>IF(_gfln_day_hour!T18="","",_gfln_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="V25" s="31" t="str">
+      <c r="W25" s="29" t="str">
         <f>IF(_gfln_day_hour!U18="","",_gfln_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="W25" s="31" t="str">
+      <c r="X25" s="29" t="str">
         <f>IF(_gfln_day_hour!V18="","",_gfln_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="X25" s="31" t="str">
+      <c r="Y25" s="29" t="str">
         <f>IF(_gfln_day_hour!W18="","",_gfln_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Y25" s="31" t="str">
+      <c r="Z25" s="29" t="str">
         <f>IF(_gfln_day_hour!X18="","",_gfln_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="Z25" s="31" t="str">
+      <c r="AA25" s="29" t="str">
         <f>IF(_gfln_day_hour!Y18="","",_gfln_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AA25" s="31" t="str">
+      <c r="AB25" s="29" t="str">
         <f>IF(_gfln_day_hour!Z18="","",_gfln_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AB25" s="31" t="str">
+      <c r="AC25" s="29" t="str">
         <f>IF(_gfln_day_hour!AA18="","",_gfln_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AC25" s="31" t="str">
+      <c r="AD25" s="29" t="str">
         <f>IF(_gfln_day_hour!AB18="","",_gfln_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AD25" s="31" t="str">
+      <c r="AE25" s="29" t="str">
         <f>IF(_gfln_day_hour!AC18="","",_gfln_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AE25" s="31" t="str">
+      <c r="AF25" s="29" t="str">
         <f>IF(_gfln_day_hour!AD18="","",_gfln_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AF25" s="31" t="str">
+      <c r="AG25" s="29" t="str">
         <f>IF(_gfln_day_hour!AE18="","",_gfln_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AG25" s="86" t="str">
+      <c r="AH25" s="86" t="str">
         <f>IF(_gfln_day_hour!AF18="","",_gfln_day_hour!AF18)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:33">
-      <c r="A26" s="20">
+    <row r="26" ht="14.25" spans="2:34">
+      <c r="B26" s="18">
         <v>0.708333333333334</v>
       </c>
-      <c r="B26" s="21" t="str">
+      <c r="C26" s="19" t="str">
         <f>IF(_gfln_day_hour!A19="","",_gfln_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="C26" s="21" t="str">
+      <c r="D26" s="19" t="str">
         <f>IF(_gfln_day_hour!B19="","",_gfln_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="D26" s="21" t="str">
+      <c r="E26" s="19" t="str">
         <f>IF(_gfln_day_hour!C19="","",_gfln_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="E26" s="21" t="str">
+      <c r="F26" s="19" t="str">
         <f>IF(_gfln_day_hour!D19="","",_gfln_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="F26" s="21" t="str">
+      <c r="G26" s="19" t="str">
         <f>IF(_gfln_day_hour!E19="","",_gfln_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="G26" s="21" t="str">
+      <c r="H26" s="19" t="str">
         <f>IF(_gfln_day_hour!F19="","",_gfln_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="H26" s="21" t="str">
+      <c r="I26" s="19" t="str">
         <f>IF(_gfln_day_hour!G19="","",_gfln_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="I26" s="21" t="str">
+      <c r="J26" s="19" t="str">
         <f>IF(_gfln_day_hour!H19="","",_gfln_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="J26" s="21" t="str">
+      <c r="K26" s="19" t="str">
         <f>IF(_gfln_day_hour!I19="","",_gfln_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="K26" s="21" t="str">
+      <c r="L26" s="19" t="str">
         <f>IF(_gfln_day_hour!J19="","",_gfln_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="L26" s="21" t="str">
+      <c r="M26" s="19" t="str">
         <f>IF(_gfln_day_hour!K19="","",_gfln_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="M26" s="21" t="str">
+      <c r="N26" s="19" t="str">
         <f>IF(_gfln_day_hour!L19="","",_gfln_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="N26" s="21" t="str">
+      <c r="O26" s="19" t="str">
         <f>IF(_gfln_day_hour!M19="","",_gfln_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="O26" s="21" t="str">
+      <c r="P26" s="19" t="str">
         <f>IF(_gfln_day_hour!N19="","",_gfln_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="P26" s="21" t="str">
+      <c r="Q26" s="19" t="str">
         <f>IF(_gfln_day_hour!O19="","",_gfln_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="Q26" s="21" t="str">
+      <c r="R26" s="19" t="str">
         <f>IF(_gfln_day_hour!P19="","",_gfln_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="R26" s="21" t="str">
+      <c r="S26" s="19" t="str">
         <f>IF(_gfln_day_hour!Q19="","",_gfln_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="S26" s="21" t="str">
+      <c r="T26" s="19" t="str">
         <f>IF(_gfln_day_hour!R19="","",_gfln_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="T26" s="21" t="str">
+      <c r="U26" s="19" t="str">
         <f>IF(_gfln_day_hour!S19="","",_gfln_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="U26" s="21" t="str">
+      <c r="V26" s="19" t="str">
         <f>IF(_gfln_day_hour!T19="","",_gfln_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="V26" s="21" t="str">
+      <c r="W26" s="19" t="str">
         <f>IF(_gfln_day_hour!U19="","",_gfln_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="W26" s="21" t="str">
+      <c r="X26" s="19" t="str">
         <f>IF(_gfln_day_hour!V19="","",_gfln_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="X26" s="21" t="str">
+      <c r="Y26" s="19" t="str">
         <f>IF(_gfln_day_hour!W19="","",_gfln_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Y26" s="21" t="str">
+      <c r="Z26" s="19" t="str">
         <f>IF(_gfln_day_hour!X19="","",_gfln_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="Z26" s="21" t="str">
+      <c r="AA26" s="19" t="str">
         <f>IF(_gfln_day_hour!Y19="","",_gfln_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AA26" s="21" t="str">
+      <c r="AB26" s="19" t="str">
         <f>IF(_gfln_day_hour!Z19="","",_gfln_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AB26" s="21" t="str">
+      <c r="AC26" s="19" t="str">
         <f>IF(_gfln_day_hour!AA19="","",_gfln_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AC26" s="21" t="str">
+      <c r="AD26" s="19" t="str">
         <f>IF(_gfln_day_hour!AB19="","",_gfln_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AD26" s="21" t="str">
+      <c r="AE26" s="19" t="str">
         <f>IF(_gfln_day_hour!AC19="","",_gfln_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AE26" s="21" t="str">
+      <c r="AF26" s="19" t="str">
         <f>IF(_gfln_day_hour!AD19="","",_gfln_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AF26" s="21" t="str">
+      <c r="AG26" s="19" t="str">
         <f>IF(_gfln_day_hour!AE19="","",_gfln_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AG26" s="81" t="str">
+      <c r="AH26" s="81" t="str">
         <f>IF(_gfln_day_hour!AF19="","",_gfln_day_hour!AF19)</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:33">
-      <c r="A27" s="20">
+    <row r="27" ht="14.25" spans="2:34">
+      <c r="B27" s="18">
         <v>0.75</v>
       </c>
-      <c r="B27" s="21" t="str">
+      <c r="C27" s="19" t="str">
         <f>IF(_gfln_day_hour!A20="","",_gfln_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="C27" s="21" t="str">
+      <c r="D27" s="19" t="str">
         <f>IF(_gfln_day_hour!B20="","",_gfln_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="D27" s="21" t="str">
+      <c r="E27" s="19" t="str">
         <f>IF(_gfln_day_hour!C20="","",_gfln_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="E27" s="21" t="str">
+      <c r="F27" s="19" t="str">
         <f>IF(_gfln_day_hour!D20="","",_gfln_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="F27" s="21" t="str">
+      <c r="G27" s="19" t="str">
         <f>IF(_gfln_day_hour!E20="","",_gfln_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="G27" s="21" t="str">
+      <c r="H27" s="19" t="str">
         <f>IF(_gfln_day_hour!F20="","",_gfln_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="H27" s="21" t="str">
+      <c r="I27" s="19" t="str">
         <f>IF(_gfln_day_hour!G20="","",_gfln_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="I27" s="21" t="str">
+      <c r="J27" s="19" t="str">
         <f>IF(_gfln_day_hour!H20="","",_gfln_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="J27" s="21" t="str">
+      <c r="K27" s="19" t="str">
         <f>IF(_gfln_day_hour!I20="","",_gfln_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="K27" s="21" t="str">
+      <c r="L27" s="19" t="str">
         <f>IF(_gfln_day_hour!J20="","",_gfln_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="L27" s="21" t="str">
+      <c r="M27" s="19" t="str">
         <f>IF(_gfln_day_hour!K20="","",_gfln_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="M27" s="21" t="str">
+      <c r="N27" s="19" t="str">
         <f>IF(_gfln_day_hour!L20="","",_gfln_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="N27" s="21" t="str">
+      <c r="O27" s="19" t="str">
         <f>IF(_gfln_day_hour!M20="","",_gfln_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="O27" s="21" t="str">
+      <c r="P27" s="19" t="str">
         <f>IF(_gfln_day_hour!N20="","",_gfln_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="P27" s="21" t="str">
+      <c r="Q27" s="19" t="str">
         <f>IF(_gfln_day_hour!O20="","",_gfln_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="Q27" s="21" t="str">
+      <c r="R27" s="19" t="str">
         <f>IF(_gfln_day_hour!P20="","",_gfln_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="R27" s="21" t="str">
+      <c r="S27" s="19" t="str">
         <f>IF(_gfln_day_hour!Q20="","",_gfln_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="S27" s="21" t="str">
+      <c r="T27" s="19" t="str">
         <f>IF(_gfln_day_hour!R20="","",_gfln_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="T27" s="21" t="str">
+      <c r="U27" s="19" t="str">
         <f>IF(_gfln_day_hour!S20="","",_gfln_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="U27" s="21" t="str">
+      <c r="V27" s="19" t="str">
         <f>IF(_gfln_day_hour!T20="","",_gfln_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="V27" s="21" t="str">
+      <c r="W27" s="19" t="str">
         <f>IF(_gfln_day_hour!U20="","",_gfln_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="W27" s="21" t="str">
+      <c r="X27" s="19" t="str">
         <f>IF(_gfln_day_hour!V20="","",_gfln_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="X27" s="21" t="str">
+      <c r="Y27" s="19" t="str">
         <f>IF(_gfln_day_hour!W20="","",_gfln_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Y27" s="21" t="str">
+      <c r="Z27" s="19" t="str">
         <f>IF(_gfln_day_hour!X20="","",_gfln_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="Z27" s="21" t="str">
+      <c r="AA27" s="19" t="str">
         <f>IF(_gfln_day_hour!Y20="","",_gfln_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AA27" s="21" t="str">
+      <c r="AB27" s="19" t="str">
         <f>IF(_gfln_day_hour!Z20="","",_gfln_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AB27" s="21" t="str">
+      <c r="AC27" s="19" t="str">
         <f>IF(_gfln_day_hour!AA20="","",_gfln_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AC27" s="21" t="str">
+      <c r="AD27" s="19" t="str">
         <f>IF(_gfln_day_hour!AB20="","",_gfln_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AD27" s="21" t="str">
+      <c r="AE27" s="19" t="str">
         <f>IF(_gfln_day_hour!AC20="","",_gfln_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AE27" s="21" t="str">
+      <c r="AF27" s="19" t="str">
         <f>IF(_gfln_day_hour!AD20="","",_gfln_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AF27" s="21" t="str">
+      <c r="AG27" s="19" t="str">
         <f>IF(_gfln_day_hour!AE20="","",_gfln_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AG27" s="81" t="str">
+      <c r="AH27" s="81" t="str">
         <f>IF(_gfln_day_hour!AF20="","",_gfln_day_hour!AF20)</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:33">
-      <c r="A28" s="20">
+    <row r="28" ht="14.25" spans="2:34">
+      <c r="B28" s="18">
         <v>0.791666666666667</v>
       </c>
-      <c r="B28" s="21" t="str">
+      <c r="C28" s="19" t="str">
         <f>IF(_gfln_day_hour!A21="","",_gfln_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="C28" s="21" t="str">
+      <c r="D28" s="19" t="str">
         <f>IF(_gfln_day_hour!B21="","",_gfln_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="D28" s="21" t="str">
+      <c r="E28" s="19" t="str">
         <f>IF(_gfln_day_hour!C21="","",_gfln_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="E28" s="21" t="str">
+      <c r="F28" s="19" t="str">
         <f>IF(_gfln_day_hour!D21="","",_gfln_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="F28" s="21" t="str">
+      <c r="G28" s="19" t="str">
         <f>IF(_gfln_day_hour!E21="","",_gfln_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="G28" s="21" t="str">
+      <c r="H28" s="19" t="str">
         <f>IF(_gfln_day_hour!F21="","",_gfln_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="H28" s="21" t="str">
+      <c r="I28" s="19" t="str">
         <f>IF(_gfln_day_hour!G21="","",_gfln_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="I28" s="21" t="str">
+      <c r="J28" s="19" t="str">
         <f>IF(_gfln_day_hour!H21="","",_gfln_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="J28" s="21" t="str">
+      <c r="K28" s="19" t="str">
         <f>IF(_gfln_day_hour!I21="","",_gfln_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="K28" s="21" t="str">
+      <c r="L28" s="19" t="str">
         <f>IF(_gfln_day_hour!J21="","",_gfln_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="L28" s="21" t="str">
+      <c r="M28" s="19" t="str">
         <f>IF(_gfln_day_hour!K21="","",_gfln_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="M28" s="21" t="str">
+      <c r="N28" s="19" t="str">
         <f>IF(_gfln_day_hour!L21="","",_gfln_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="N28" s="21" t="str">
+      <c r="O28" s="19" t="str">
         <f>IF(_gfln_day_hour!M21="","",_gfln_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="O28" s="21" t="str">
+      <c r="P28" s="19" t="str">
         <f>IF(_gfln_day_hour!N21="","",_gfln_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="P28" s="21" t="str">
+      <c r="Q28" s="19" t="str">
         <f>IF(_gfln_day_hour!O21="","",_gfln_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="Q28" s="21" t="str">
+      <c r="R28" s="19" t="str">
         <f>IF(_gfln_day_hour!P21="","",_gfln_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="R28" s="21" t="str">
+      <c r="S28" s="19" t="str">
         <f>IF(_gfln_day_hour!Q21="","",_gfln_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="S28" s="21" t="str">
+      <c r="T28" s="19" t="str">
         <f>IF(_gfln_day_hour!R21="","",_gfln_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="T28" s="21" t="str">
+      <c r="U28" s="19" t="str">
         <f>IF(_gfln_day_hour!S21="","",_gfln_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="U28" s="21" t="str">
+      <c r="V28" s="19" t="str">
         <f>IF(_gfln_day_hour!T21="","",_gfln_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="V28" s="21" t="str">
+      <c r="W28" s="19" t="str">
         <f>IF(_gfln_day_hour!U21="","",_gfln_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="W28" s="21" t="str">
+      <c r="X28" s="19" t="str">
         <f>IF(_gfln_day_hour!V21="","",_gfln_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="X28" s="21" t="str">
+      <c r="Y28" s="19" t="str">
         <f>IF(_gfln_day_hour!W21="","",_gfln_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Y28" s="21" t="str">
+      <c r="Z28" s="19" t="str">
         <f>IF(_gfln_day_hour!X21="","",_gfln_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="Z28" s="21" t="str">
+      <c r="AA28" s="19" t="str">
         <f>IF(_gfln_day_hour!Y21="","",_gfln_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AA28" s="21" t="str">
+      <c r="AB28" s="19" t="str">
         <f>IF(_gfln_day_hour!Z21="","",_gfln_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AB28" s="21" t="str">
+      <c r="AC28" s="19" t="str">
         <f>IF(_gfln_day_hour!AA21="","",_gfln_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AC28" s="21" t="str">
+      <c r="AD28" s="19" t="str">
         <f>IF(_gfln_day_hour!AB21="","",_gfln_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AD28" s="21" t="str">
+      <c r="AE28" s="19" t="str">
         <f>IF(_gfln_day_hour!AC21="","",_gfln_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AE28" s="21" t="str">
+      <c r="AF28" s="19" t="str">
         <f>IF(_gfln_day_hour!AD21="","",_gfln_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AF28" s="21" t="str">
+      <c r="AG28" s="19" t="str">
         <f>IF(_gfln_day_hour!AE21="","",_gfln_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AG28" s="81" t="str">
+      <c r="AH28" s="81" t="str">
         <f>IF(_gfln_day_hour!AF21="","",_gfln_day_hour!AF21)</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:33">
-      <c r="A29" s="20">
+    <row r="29" ht="14.25" spans="2:34">
+      <c r="B29" s="18">
         <v>0.833333333333334</v>
       </c>
-      <c r="B29" s="21" t="str">
+      <c r="C29" s="19" t="str">
         <f>IF(_gfln_day_hour!A22="","",_gfln_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="C29" s="21" t="str">
+      <c r="D29" s="19" t="str">
         <f>IF(_gfln_day_hour!B22="","",_gfln_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="D29" s="21" t="str">
+      <c r="E29" s="19" t="str">
         <f>IF(_gfln_day_hour!C22="","",_gfln_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="E29" s="21" t="str">
+      <c r="F29" s="19" t="str">
         <f>IF(_gfln_day_hour!D22="","",_gfln_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="F29" s="21" t="str">
+      <c r="G29" s="19" t="str">
         <f>IF(_gfln_day_hour!E22="","",_gfln_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="G29" s="21" t="str">
+      <c r="H29" s="19" t="str">
         <f>IF(_gfln_day_hour!F22="","",_gfln_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="H29" s="21" t="str">
+      <c r="I29" s="19" t="str">
         <f>IF(_gfln_day_hour!G22="","",_gfln_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="I29" s="21" t="str">
+      <c r="J29" s="19" t="str">
         <f>IF(_gfln_day_hour!H22="","",_gfln_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="J29" s="21" t="str">
+      <c r="K29" s="19" t="str">
         <f>IF(_gfln_day_hour!I22="","",_gfln_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="K29" s="21" t="str">
+      <c r="L29" s="19" t="str">
         <f>IF(_gfln_day_hour!J22="","",_gfln_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="L29" s="21" t="str">
+      <c r="M29" s="19" t="str">
         <f>IF(_gfln_day_hour!K22="","",_gfln_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="M29" s="21" t="str">
+      <c r="N29" s="19" t="str">
         <f>IF(_gfln_day_hour!L22="","",_gfln_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="N29" s="21" t="str">
+      <c r="O29" s="19" t="str">
         <f>IF(_gfln_day_hour!M22="","",_gfln_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="O29" s="21" t="str">
+      <c r="P29" s="19" t="str">
         <f>IF(_gfln_day_hour!N22="","",_gfln_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="P29" s="21" t="str">
+      <c r="Q29" s="19" t="str">
         <f>IF(_gfln_day_hour!O22="","",_gfln_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="Q29" s="21" t="str">
+      <c r="R29" s="19" t="str">
         <f>IF(_gfln_day_hour!P22="","",_gfln_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="R29" s="21" t="str">
+      <c r="S29" s="19" t="str">
         <f>IF(_gfln_day_hour!Q22="","",_gfln_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="S29" s="21" t="str">
+      <c r="T29" s="19" t="str">
         <f>IF(_gfln_day_hour!R22="","",_gfln_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="T29" s="21" t="str">
+      <c r="U29" s="19" t="str">
         <f>IF(_gfln_day_hour!S22="","",_gfln_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="U29" s="21" t="str">
+      <c r="V29" s="19" t="str">
         <f>IF(_gfln_day_hour!T22="","",_gfln_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="V29" s="21" t="str">
+      <c r="W29" s="19" t="str">
         <f>IF(_gfln_day_hour!U22="","",_gfln_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="W29" s="21" t="str">
+      <c r="X29" s="19" t="str">
         <f>IF(_gfln_day_hour!V22="","",_gfln_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="X29" s="21" t="str">
+      <c r="Y29" s="19" t="str">
         <f>IF(_gfln_day_hour!W22="","",_gfln_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Y29" s="21" t="str">
+      <c r="Z29" s="19" t="str">
         <f>IF(_gfln_day_hour!X22="","",_gfln_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="Z29" s="21" t="str">
+      <c r="AA29" s="19" t="str">
         <f>IF(_gfln_day_hour!Y22="","",_gfln_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AA29" s="21" t="str">
+      <c r="AB29" s="19" t="str">
         <f>IF(_gfln_day_hour!Z22="","",_gfln_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AB29" s="21" t="str">
+      <c r="AC29" s="19" t="str">
         <f>IF(_gfln_day_hour!AA22="","",_gfln_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AC29" s="21" t="str">
+      <c r="AD29" s="19" t="str">
         <f>IF(_gfln_day_hour!AB22="","",_gfln_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AD29" s="21" t="str">
+      <c r="AE29" s="19" t="str">
         <f>IF(_gfln_day_hour!AC22="","",_gfln_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AE29" s="21" t="str">
+      <c r="AF29" s="19" t="str">
         <f>IF(_gfln_day_hour!AD22="","",_gfln_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AF29" s="21" t="str">
+      <c r="AG29" s="19" t="str">
         <f>IF(_gfln_day_hour!AE22="","",_gfln_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AG29" s="81" t="str">
+      <c r="AH29" s="81" t="str">
         <f>IF(_gfln_day_hour!AF22="","",_gfln_day_hour!AF22)</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:33">
-      <c r="A30" s="20">
+    <row r="30" ht="14.25" spans="2:34">
+      <c r="B30" s="18">
         <v>0.875</v>
       </c>
-      <c r="B30" s="21" t="str">
+      <c r="C30" s="19" t="str">
         <f>IF(_gfln_day_hour!A23="","",_gfln_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="C30" s="21" t="str">
+      <c r="D30" s="19" t="str">
         <f>IF(_gfln_day_hour!B23="","",_gfln_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="D30" s="21" t="str">
+      <c r="E30" s="19" t="str">
         <f>IF(_gfln_day_hour!C23="","",_gfln_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="E30" s="21" t="str">
+      <c r="F30" s="19" t="str">
         <f>IF(_gfln_day_hour!D23="","",_gfln_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="F30" s="21" t="str">
+      <c r="G30" s="19" t="str">
         <f>IF(_gfln_day_hour!E23="","",_gfln_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="G30" s="21" t="str">
+      <c r="H30" s="19" t="str">
         <f>IF(_gfln_day_hour!F23="","",_gfln_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="H30" s="21" t="str">
+      <c r="I30" s="19" t="str">
         <f>IF(_gfln_day_hour!G23="","",_gfln_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="I30" s="21" t="str">
+      <c r="J30" s="19" t="str">
         <f>IF(_gfln_day_hour!H23="","",_gfln_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="J30" s="21" t="str">
+      <c r="K30" s="19" t="str">
         <f>IF(_gfln_day_hour!I23="","",_gfln_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="K30" s="21" t="str">
+      <c r="L30" s="19" t="str">
         <f>IF(_gfln_day_hour!J23="","",_gfln_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="L30" s="21" t="str">
+      <c r="M30" s="19" t="str">
         <f>IF(_gfln_day_hour!K23="","",_gfln_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="M30" s="21" t="str">
+      <c r="N30" s="19" t="str">
         <f>IF(_gfln_day_hour!L23="","",_gfln_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="N30" s="21" t="str">
+      <c r="O30" s="19" t="str">
         <f>IF(_gfln_day_hour!M23="","",_gfln_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="O30" s="21" t="str">
+      <c r="P30" s="19" t="str">
         <f>IF(_gfln_day_hour!N23="","",_gfln_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="P30" s="21" t="str">
+      <c r="Q30" s="19" t="str">
         <f>IF(_gfln_day_hour!O23="","",_gfln_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="Q30" s="21" t="str">
+      <c r="R30" s="19" t="str">
         <f>IF(_gfln_day_hour!P23="","",_gfln_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="R30" s="21" t="str">
+      <c r="S30" s="19" t="str">
         <f>IF(_gfln_day_hour!Q23="","",_gfln_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="S30" s="21" t="str">
+      <c r="T30" s="19" t="str">
         <f>IF(_gfln_day_hour!R23="","",_gfln_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="T30" s="21" t="str">
+      <c r="U30" s="19" t="str">
         <f>IF(_gfln_day_hour!S23="","",_gfln_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="U30" s="21" t="str">
+      <c r="V30" s="19" t="str">
         <f>IF(_gfln_day_hour!T23="","",_gfln_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="V30" s="21" t="str">
+      <c r="W30" s="19" t="str">
         <f>IF(_gfln_day_hour!U23="","",_gfln_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="W30" s="21" t="str">
+      <c r="X30" s="19" t="str">
         <f>IF(_gfln_day_hour!V23="","",_gfln_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="X30" s="21" t="str">
+      <c r="Y30" s="19" t="str">
         <f>IF(_gfln_day_hour!W23="","",_gfln_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Y30" s="21" t="str">
+      <c r="Z30" s="19" t="str">
         <f>IF(_gfln_day_hour!X23="","",_gfln_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="Z30" s="21" t="str">
+      <c r="AA30" s="19" t="str">
         <f>IF(_gfln_day_hour!Y23="","",_gfln_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AA30" s="21" t="str">
+      <c r="AB30" s="19" t="str">
         <f>IF(_gfln_day_hour!Z23="","",_gfln_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AB30" s="21" t="str">
+      <c r="AC30" s="19" t="str">
         <f>IF(_gfln_day_hour!AA23="","",_gfln_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AC30" s="21" t="str">
+      <c r="AD30" s="19" t="str">
         <f>IF(_gfln_day_hour!AB23="","",_gfln_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AD30" s="21" t="str">
+      <c r="AE30" s="19" t="str">
         <f>IF(_gfln_day_hour!AC23="","",_gfln_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AE30" s="21" t="str">
+      <c r="AF30" s="19" t="str">
         <f>IF(_gfln_day_hour!AD23="","",_gfln_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AF30" s="21" t="str">
+      <c r="AG30" s="19" t="str">
         <f>IF(_gfln_day_hour!AE23="","",_gfln_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AG30" s="81" t="str">
+      <c r="AH30" s="81" t="str">
         <f>IF(_gfln_day_hour!AF23="","",_gfln_day_hour!AF23)</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:33">
-      <c r="A31" s="20">
+    <row r="31" ht="14.25" spans="2:34">
+      <c r="B31" s="18">
         <v>0.916666666666667</v>
       </c>
-      <c r="B31" s="21" t="str">
+      <c r="C31" s="19" t="str">
         <f>IF(_gfln_day_hour!A24="","",_gfln_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="C31" s="21" t="str">
+      <c r="D31" s="19" t="str">
         <f>IF(_gfln_day_hour!B24="","",_gfln_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="D31" s="21" t="str">
+      <c r="E31" s="19" t="str">
         <f>IF(_gfln_day_hour!C24="","",_gfln_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="E31" s="21" t="str">
+      <c r="F31" s="19" t="str">
         <f>IF(_gfln_day_hour!D24="","",_gfln_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="F31" s="21" t="str">
+      <c r="G31" s="19" t="str">
         <f>IF(_gfln_day_hour!E24="","",_gfln_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="G31" s="21" t="str">
+      <c r="H31" s="19" t="str">
         <f>IF(_gfln_day_hour!F24="","",_gfln_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="H31" s="21" t="str">
+      <c r="I31" s="19" t="str">
         <f>IF(_gfln_day_hour!G24="","",_gfln_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="I31" s="21" t="str">
+      <c r="J31" s="19" t="str">
         <f>IF(_gfln_day_hour!H24="","",_gfln_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="J31" s="21" t="str">
+      <c r="K31" s="19" t="str">
         <f>IF(_gfln_day_hour!I24="","",_gfln_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="K31" s="21" t="str">
+      <c r="L31" s="19" t="str">
         <f>IF(_gfln_day_hour!J24="","",_gfln_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="L31" s="21" t="str">
+      <c r="M31" s="19" t="str">
         <f>IF(_gfln_day_hour!K24="","",_gfln_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="M31" s="21" t="str">
+      <c r="N31" s="19" t="str">
         <f>IF(_gfln_day_hour!L24="","",_gfln_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="N31" s="21" t="str">
+      <c r="O31" s="19" t="str">
         <f>IF(_gfln_day_hour!M24="","",_gfln_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="O31" s="21" t="str">
+      <c r="P31" s="19" t="str">
         <f>IF(_gfln_day_hour!N24="","",_gfln_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="P31" s="21" t="str">
+      <c r="Q31" s="19" t="str">
         <f>IF(_gfln_day_hour!O24="","",_gfln_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="Q31" s="21" t="str">
+      <c r="R31" s="19" t="str">
         <f>IF(_gfln_day_hour!P24="","",_gfln_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="R31" s="21" t="str">
+      <c r="S31" s="19" t="str">
         <f>IF(_gfln_day_hour!Q24="","",_gfln_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="S31" s="21" t="str">
+      <c r="T31" s="19" t="str">
         <f>IF(_gfln_day_hour!R24="","",_gfln_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="T31" s="21" t="str">
+      <c r="U31" s="19" t="str">
         <f>IF(_gfln_day_hour!S24="","",_gfln_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="U31" s="21" t="str">
+      <c r="V31" s="19" t="str">
         <f>IF(_gfln_day_hour!T24="","",_gfln_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="V31" s="21" t="str">
+      <c r="W31" s="19" t="str">
         <f>IF(_gfln_day_hour!U24="","",_gfln_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="W31" s="21" t="str">
+      <c r="X31" s="19" t="str">
         <f>IF(_gfln_day_hour!V24="","",_gfln_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="X31" s="21" t="str">
+      <c r="Y31" s="19" t="str">
         <f>IF(_gfln_day_hour!W24="","",_gfln_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Y31" s="21" t="str">
+      <c r="Z31" s="19" t="str">
         <f>IF(_gfln_day_hour!X24="","",_gfln_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="Z31" s="21" t="str">
+      <c r="AA31" s="19" t="str">
         <f>IF(_gfln_day_hour!Y24="","",_gfln_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AA31" s="21" t="str">
+      <c r="AB31" s="19" t="str">
         <f>IF(_gfln_day_hour!Z24="","",_gfln_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AB31" s="21" t="str">
+      <c r="AC31" s="19" t="str">
         <f>IF(_gfln_day_hour!AA24="","",_gfln_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AC31" s="21" t="str">
+      <c r="AD31" s="19" t="str">
         <f>IF(_gfln_day_hour!AB24="","",_gfln_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AD31" s="21" t="str">
+      <c r="AE31" s="19" t="str">
         <f>IF(_gfln_day_hour!AC24="","",_gfln_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AE31" s="21" t="str">
+      <c r="AF31" s="19" t="str">
         <f>IF(_gfln_day_hour!AD24="","",_gfln_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AF31" s="21" t="str">
+      <c r="AG31" s="19" t="str">
         <f>IF(_gfln_day_hour!AE24="","",_gfln_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AG31" s="81" t="str">
+      <c r="AH31" s="81" t="str">
         <f>IF(_gfln_day_hour!AF24="","",_gfln_day_hour!AF24)</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:33">
-      <c r="A32" s="20">
+    <row r="32" ht="14.25" spans="2:34">
+      <c r="B32" s="18">
         <v>0.958333333333334</v>
       </c>
-      <c r="B32" s="21" t="str">
+      <c r="C32" s="19" t="str">
         <f>IF(_gfln_day_hour!A25="","",_gfln_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="C32" s="21" t="str">
+      <c r="D32" s="19" t="str">
         <f>IF(_gfln_day_hour!B25="","",_gfln_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="D32" s="21" t="str">
+      <c r="E32" s="19" t="str">
         <f>IF(_gfln_day_hour!C25="","",_gfln_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="E32" s="21" t="str">
+      <c r="F32" s="19" t="str">
         <f>IF(_gfln_day_hour!D25="","",_gfln_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="F32" s="21" t="str">
+      <c r="G32" s="19" t="str">
         <f>IF(_gfln_day_hour!E25="","",_gfln_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="G32" s="21" t="str">
+      <c r="H32" s="19" t="str">
         <f>IF(_gfln_day_hour!F25="","",_gfln_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="H32" s="21" t="str">
+      <c r="I32" s="19" t="str">
         <f>IF(_gfln_day_hour!G25="","",_gfln_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="I32" s="21" t="str">
+      <c r="J32" s="19" t="str">
         <f>IF(_gfln_day_hour!H25="","",_gfln_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="J32" s="21" t="str">
+      <c r="K32" s="19" t="str">
         <f>IF(_gfln_day_hour!I25="","",_gfln_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="K32" s="21" t="str">
+      <c r="L32" s="19" t="str">
         <f>IF(_gfln_day_hour!J25="","",_gfln_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="L32" s="21" t="str">
+      <c r="M32" s="19" t="str">
         <f>IF(_gfln_day_hour!K25="","",_gfln_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="M32" s="21" t="str">
+      <c r="N32" s="19" t="str">
         <f>IF(_gfln_day_hour!L25="","",_gfln_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="N32" s="21" t="str">
+      <c r="O32" s="19" t="str">
         <f>IF(_gfln_day_hour!M25="","",_gfln_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="O32" s="21" t="str">
+      <c r="P32" s="19" t="str">
         <f>IF(_gfln_day_hour!N25="","",_gfln_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="P32" s="21" t="str">
+      <c r="Q32" s="19" t="str">
         <f>IF(_gfln_day_hour!O25="","",_gfln_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="Q32" s="21" t="str">
+      <c r="R32" s="19" t="str">
         <f>IF(_gfln_day_hour!P25="","",_gfln_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="R32" s="21" t="str">
+      <c r="S32" s="19" t="str">
         <f>IF(_gfln_day_hour!Q25="","",_gfln_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="S32" s="21" t="str">
+      <c r="T32" s="19" t="str">
         <f>IF(_gfln_day_hour!R25="","",_gfln_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="T32" s="21" t="str">
+      <c r="U32" s="19" t="str">
         <f>IF(_gfln_day_hour!S25="","",_gfln_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="U32" s="21" t="str">
+      <c r="V32" s="19" t="str">
         <f>IF(_gfln_day_hour!T25="","",_gfln_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="V32" s="21" t="str">
+      <c r="W32" s="19" t="str">
         <f>IF(_gfln_day_hour!U25="","",_gfln_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="W32" s="21" t="str">
+      <c r="X32" s="19" t="str">
         <f>IF(_gfln_day_hour!V25="","",_gfln_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="X32" s="21" t="str">
+      <c r="Y32" s="19" t="str">
         <f>IF(_gfln_day_hour!W25="","",_gfln_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Y32" s="21" t="str">
+      <c r="Z32" s="19" t="str">
         <f>IF(_gfln_day_hour!X25="","",_gfln_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="Z32" s="21" t="str">
+      <c r="AA32" s="19" t="str">
         <f>IF(_gfln_day_hour!Y25="","",_gfln_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AA32" s="21" t="str">
+      <c r="AB32" s="19" t="str">
         <f>IF(_gfln_day_hour!Z25="","",_gfln_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AB32" s="21" t="str">
+      <c r="AC32" s="19" t="str">
         <f>IF(_gfln_day_hour!AA25="","",_gfln_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AC32" s="21" t="str">
+      <c r="AD32" s="19" t="str">
         <f>IF(_gfln_day_hour!AB25="","",_gfln_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AD32" s="21" t="str">
+      <c r="AE32" s="19" t="str">
         <f>IF(_gfln_day_hour!AC25="","",_gfln_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AE32" s="21" t="str">
+      <c r="AF32" s="19" t="str">
         <f>IF(_gfln_day_hour!AD25="","",_gfln_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AF32" s="21" t="str">
+      <c r="AG32" s="19" t="str">
         <f>IF(_gfln_day_hour!AE25="","",_gfln_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AG32" s="81" t="str">
+      <c r="AH32" s="81" t="str">
         <f>IF(_gfln_day_hour!AF25="","",_gfln_day_hour!AF25)</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:33">
-      <c r="A33" s="32" t="s">
+    <row r="33" ht="15" spans="2:34">
+      <c r="B33" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="21"/>
-      <c r="AF33" s="21"/>
-      <c r="AG33" s="81"/>
+      <c r="C33" s="31" t="str">
+        <f t="shared" ref="C33:AH33" si="0">IFERROR(AVERAGE(C9:C32),"")</f>
+        <v/>
+      </c>
+      <c r="D33" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E33" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G33" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H33" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I33" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J33" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K33" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH33" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="34" ht="15" spans="1:33">
-      <c r="A34" s="34" t="s">
+    <row r="34" ht="15" spans="2:34">
+      <c r="B34" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="C34" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="52" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="M34" s="53"/>
       <c r="N34" s="53"/>
       <c r="O34" s="53"/>
       <c r="P34" s="53"/>
@@ -6494,38 +6593,38 @@
       <c r="T34" s="53"/>
       <c r="U34" s="53"/>
       <c r="V34" s="53"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="35" t="s">
+      <c r="W34" s="53"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="87"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="34"/>
+      <c r="AH34" s="87"/>
     </row>
-    <row r="35" ht="15" spans="1:33">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38" t="s">
+    <row r="35" ht="15" spans="2:34">
+      <c r="B35" s="35"/>
+      <c r="C35" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="55" t="s">
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="M35" s="56"/>
       <c r="N35" s="56"/>
       <c r="O35" s="56"/>
       <c r="P35" s="56"/>
@@ -6535,40 +6634,40 @@
       <c r="T35" s="56"/>
       <c r="U35" s="56"/>
       <c r="V35" s="56"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="38" t="s">
+      <c r="W35" s="56"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="39"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="88"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="L34:W34"/>
-    <mergeCell ref="X34:AG34"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="L35:W35"/>
-    <mergeCell ref="X35:AG35"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B1:AH1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="M34:X34"/>
+    <mergeCell ref="Y34:AH34"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="M35:X35"/>
+    <mergeCell ref="Y35:AH35"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -6577,18 +6676,19 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R3:R5"/>
     <mergeCell ref="AC3:AC5"/>
     <mergeCell ref="AD3:AD5"/>
     <mergeCell ref="AE3:AE5"/>
     <mergeCell ref="AF3:AF5"/>
     <mergeCell ref="AG3:AG5"/>
-    <mergeCell ref="R3:T4"/>
-    <mergeCell ref="U3:X4"/>
-    <mergeCell ref="Y3:AA4"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:Y4"/>
+    <mergeCell ref="Z3:AB4"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/excel/finished/焦化12/CK12-化产-鼓风冷凝报表（二）（日）.xlsx
+++ b/excel/finished/焦化12/CK12-化产-鼓风冷凝报表（二）（日）.xlsx
@@ -1,147 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1.鼓风冷凝(日)" sheetId="1" r:id="rId1"/>
-    <sheet name="_gfln_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
+    <sheet name="1.鼓风冷凝(日)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_gfln_day_hour" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_dictionary" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="18"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">          </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="18"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>鼓</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="18"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="18"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>风</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="18"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="18"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>冷</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="18"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="18"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>凝</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="18"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="18"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>操</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="18"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="18"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>作记</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="18"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <rFont val="宋体"/>
         <sz val="18"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>录（二）</t>
     </r>
@@ -150,9 +135,8 @@
     <r>
       <rPr>
         <b/>
+        <rFont val="Times New Roman"/>
         <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                            </t>
     </r>
@@ -163,28 +147,25 @@
   <si>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>项目</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Times New Roman"/>
         <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">    
   </t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>时间</t>
     </r>
@@ -199,31 +180,29 @@
     <t>#循环氨水泵</t>
   </si>
   <si>
-    <t>上段冷凝液泵喷洒流量 Nm3/h</t>
-  </si>
-  <si>
-    <t>下段冷凝液泵喷洒流量 Nm3/h</t>
-  </si>
-  <si>
-    <t>剩余氨水槽液位外送槽 mm</t>
-  </si>
-  <si>
-    <t>集中放散总管吸力 kPa</t>
+    <t xml:space="preserve">上段冷凝液泵喷洒流量 Nm3/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下段冷凝液泵喷洒流量 Nm3/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剩余氨水槽液位外送槽 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">集中放散总管吸力 kPa</t>
   </si>
   <si>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>下段冷凝液槽液位</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Times New Roman"/>
         <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> m    </t>
     </r>
@@ -231,119 +210,109 @@
   <si>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
     <r>
       <rPr>
+        <rFont val="宋体"/>
+        <sz val="12"/>
         <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
-      <t>焦油氨水分离槽界面 mm</t>
+      <t xml:space="preserve">焦油氨水分离槽界面 mm</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
+        <rFont val="宋体"/>
+        <sz val="12"/>
         <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
-      <t>焦油氨水分离槽界面 mm</t>
+      <t xml:space="preserve">焦油氨水分离槽界面 mm</t>
     </r>
   </si>
   <si>
-    <t>焦油外送自动调节阀阀位 %</t>
-  </si>
-  <si>
-    <t>器前煤气吸力 kPa</t>
+    <t xml:space="preserve">焦油外送自动调节阀阀位 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">器前煤气吸力 kPa</t>
   </si>
   <si>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>机前总阻力</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Times New Roman"/>
         <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  kPa</t>
     </r>
   </si>
   <si>
-    <t>1#机前吸力  kPa</t>
-  </si>
-  <si>
-    <t>2#机前吸力  kPa</t>
-  </si>
-  <si>
-    <t>3#机前吸力  kPa</t>
+    <t xml:space="preserve">1#机前吸力  kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2#机前吸力  kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3#机前吸力  kPa</t>
   </si>
   <si>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>机后压力</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Times New Roman"/>
         <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  kPa </t>
     </r>
   </si>
   <si>
-    <t>大循环管开度 %</t>
-  </si>
-  <si>
-    <t>煤气含氧量 %</t>
-  </si>
-  <si>
-    <t>氮气流量  Nm3/h</t>
-  </si>
-  <si>
-    <t>流量 Nm3/h</t>
+    <t xml:space="preserve">大循环管开度 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煤气含氧量 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氮气流量  Nm3/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">流量 Nm3/h</t>
   </si>
   <si>
     <t>1#初冷器</t>
@@ -355,7 +324,7 @@
     <t>3#初冷器</t>
   </si>
   <si>
-    <t>外送阀       阀位</t>
+    <t xml:space="preserve">外送阀       阀位</t>
   </si>
   <si>
     <t>PI-1401</t>
@@ -424,13 +393,13 @@
     <t>管控范围</t>
   </si>
   <si>
-    <t>&lt;2.5</t>
+    <t>&gt;-2.5</t>
   </si>
   <si>
     <t>&lt;4</t>
   </si>
   <si>
-    <t>&lt;6</t>
+    <t>&gt;-6</t>
   </si>
   <si>
     <t>&lt;18</t>
@@ -561,25 +530,22 @@
   <si>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>记</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Times New Roman"/>
         <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">          </t>
     </r>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>事</t>
     </r>
@@ -594,7 +560,7 @@
     <t xml:space="preserve"> 交班：                              接班：</t>
   </si>
   <si>
-    <t>交班：                                 接班：</t>
+    <t xml:space="preserve">交班：                                 接班：</t>
   </si>
   <si>
     <t>CK12_L1R_CC_JQ_PIDLMN_1m_avg</t>
@@ -609,250 +575,73 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="10">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
+      <b/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
       <b/>
       <sz val="12"/>
-      <color indexed="2"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Arial"/>
+      <b/>
+      <sz val="14"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="14"/>
     </font>
     <font>
+      <name val="宋体"/>
       <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <color indexed="2"/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <bgColor theme="0" tint="-0.14993743705557422"/>
       </patternFill>
     </fill>
     <fill>
@@ -861,194 +650,8 @@
         <bgColor indexed="2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1056,6 +659,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="1"/>
+      </diagonal>
+    </border>
     <border>
       <left style="thin">
         <color theme="1"/>
@@ -1063,7 +683,7 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color theme="1"/>
       </top>
       <bottom style="thin">
@@ -1078,7 +698,7 @@
       <right style="medium">
         <color theme="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color theme="1"/>
       </top>
       <bottom style="thin">
@@ -1093,7 +713,7 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color theme="1"/>
       </top>
       <bottom style="thin">
@@ -1110,42 +730,10 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color theme="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
         <color theme="1"/>
       </bottom>
       <diagonal/>
@@ -1154,13 +742,13 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color theme="1"/>
       </right>
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color theme="1"/>
       </bottom>
       <diagonal/>
@@ -1172,8 +760,10 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
         <color theme="1"/>
       </bottom>
       <diagonal/>
@@ -1183,6 +773,62 @@
         <color theme="1"/>
       </left>
       <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
         <color theme="1"/>
       </right>
       <top/>
@@ -1218,6 +864,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -1274,6 +933,49 @@
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
       <top style="medium">
         <color theme="1"/>
       </top>
@@ -1322,9 +1024,7 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
@@ -1334,107 +1034,10 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color theme="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
@@ -1451,509 +1054,230 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
+  </cellStyleXfs>
+  <cellXfs count="83">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="81">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="2" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="3" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="2" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="6" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="6" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="7" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="8" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="9" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="13" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="14" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="3" borderId="14" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="3" borderId="15" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="16" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="17" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="17" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="13" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="14" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="14" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="14" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="15" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="7" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="8" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="8" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="8" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="9" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="11" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="11" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="11" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="12" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="7" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="8" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="8" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="8" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="9" numFmtId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="18" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="19" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="20" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="21" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="22" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="23" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="24" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="25" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="26" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="27" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="29" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="24" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="25" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -1964,18 +1288,516 @@
         <color indexed="2"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2182,147 +2004,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:AA37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0" zoomScale="85">
+      <selection activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="7" width="8.3"/>
-    <col min="8" max="8" width="9.7" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="11" width="8.3"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="9.3"/>
-    <col min="15" max="15" width="9.3"/>
-    <col min="16" max="19" width="9.6" customWidth="1"/>
-    <col min="20" max="20" width="10.9" customWidth="1"/>
-    <col min="21" max="22" width="11" customWidth="1"/>
-    <col min="23" max="27" width="9.6" customWidth="1"/>
+    <col min="3" max="7" width="8.33203125"/>
+    <col customWidth="1" min="8" max="8" width="9.6640625"/>
+    <col customWidth="1" min="9" max="9" width="10"/>
+    <col min="10" max="11" width="8.33203125"/>
+    <col customWidth="1" min="12" max="12" width="11.5"/>
+    <col min="13" max="13" width="9.33203125"/>
+    <col min="15" max="15" width="9.33203125"/>
+    <col customWidth="1" min="16" max="19" width="9.58203125"/>
+    <col customWidth="1" min="20" max="20" width="10.9140625"/>
+    <col customWidth="1" min="21" max="22" width="11"/>
+    <col customWidth="1" min="23" max="27" width="9.58203125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="2:27">
-      <c r="B1" s="4" t="s">
+    <row ht="21.75" r="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
     </row>
-    <row r="2" ht="16.5" spans="2:27">
-      <c r="B2" s="6" t="s">
+    <row ht="15" r="2">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="str">
+      <c r="C2" s="5"/>
+      <c r="D2" s="3" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="8" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
     </row>
-    <row r="3" ht="15.6" customHeight="1" spans="2:27">
-      <c r="B3" s="9" t="s">
+    <row ht="15.65" customHeight="1" r="3">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="47" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="47" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47" t="s">
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="62" t="s">
+      <c r="X3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="47" t="s">
+      <c r="Y3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="47" t="s">
+      <c r="Z3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="66" t="s">
+      <c r="AA3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" spans="2:27">
+    <row ht="13.75" customHeight="1" r="4">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>15</v>
@@ -2357,20 +2177,20 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="67"/>
+      <c r="AA4" s="14"/>
     </row>
-    <row r="5" ht="28.5" spans="2:27">
+    <row ht="26.25" r="5">
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2381,7 +2201,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="49"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="12" t="s">
         <v>25</v>
       </c>
@@ -2400,3114 +2220,3119 @@
       <c r="R5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="63" t="s">
+      <c r="S5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="48">
+      <c r="T5" s="13">
         <v>1302</v>
       </c>
-      <c r="U5" s="48">
+      <c r="U5" s="13">
         <v>1303</v>
       </c>
-      <c r="V5" s="48">
+      <c r="V5" s="13">
         <v>1304</v>
       </c>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="67"/>
+      <c r="AA5" s="14"/>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6">
       <c r="B6" s="11"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="50" t="s">
+      <c r="M6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="50" t="s">
+      <c r="O6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="50" t="s">
+      <c r="P6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="50" t="s">
+      <c r="Q6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="50" t="s">
+      <c r="S6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="50" t="s">
+      <c r="T6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50" t="s">
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="X6" s="50" t="s">
+      <c r="X6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="Y6" s="50" t="s">
+      <c r="Y6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Z6" s="50" t="s">
+      <c r="Z6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AA6" s="68" t="s">
+      <c r="AA6" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="2:27">
-      <c r="B7" s="14" t="s">
+    <row ht="18.75" customHeight="1" r="7">
+      <c r="B7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15" t="s">
+      <c r="S7" s="21"/>
+      <c r="T7" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="U7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="X7" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="15" t="s">
+      <c r="Y7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Z7" s="15" t="s">
+      <c r="Z7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="69" t="s">
+      <c r="AA7" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="2:27">
-      <c r="B8" s="16" t="s">
+    <row ht="15.5" hidden="1" r="8">
+      <c r="B8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="C8" s="24">
+        <v>99999</v>
+      </c>
+      <c r="D8" s="24">
         <v>4</v>
       </c>
-      <c r="E8" s="17">
-        <v>6</v>
-      </c>
-      <c r="F8" s="17">
-        <v>6</v>
-      </c>
-      <c r="G8" s="17">
-        <v>6</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="E8" s="24">
+        <v>9999</v>
+      </c>
+      <c r="F8" s="25">
+        <v>9999</v>
+      </c>
+      <c r="G8" s="25">
+        <v>9999</v>
+      </c>
+      <c r="H8" s="24">
         <v>18</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="26">
         <v>60</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="26">
         <v>2</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="26">
         <v>250</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="26">
         <v>99999</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="26">
         <v>99999</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="26">
         <v>999999</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="26">
         <v>99999</v>
       </c>
-      <c r="P8" s="51">
+      <c r="P8" s="26">
         <v>99999</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="26">
         <v>99999</v>
       </c>
-      <c r="R8" s="51">
+      <c r="R8" s="26">
         <v>99999</v>
       </c>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51">
+      <c r="S8" s="26">
+        <v>99999</v>
+      </c>
+      <c r="T8" s="26">
         <v>4000</v>
       </c>
-      <c r="U8" s="51">
+      <c r="U8" s="26">
         <v>7200</v>
       </c>
-      <c r="V8" s="51">
+      <c r="V8" s="26">
         <v>7200</v>
       </c>
-      <c r="W8" s="51">
+      <c r="W8" s="26">
         <v>0</v>
       </c>
-      <c r="X8" s="51">
-        <v>1.6</v>
-      </c>
-      <c r="Y8" s="51">
+      <c r="X8" s="26">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="Y8" s="26">
         <v>6500</v>
       </c>
-      <c r="Z8" s="51">
+      <c r="Z8" s="26">
         <v>6500</v>
       </c>
-      <c r="AA8" s="70">
+      <c r="AA8" s="27">
         <v>50</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="2:27">
-      <c r="B9" s="16" t="s">
+    <row ht="15.5" hidden="1" r="9">
+      <c r="B9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="24">
+        <v>-2.5</v>
+      </c>
+      <c r="D9" s="24">
         <v>-99999</v>
       </c>
-      <c r="D9" s="17">
+      <c r="E9" s="24">
+        <v>-6</v>
+      </c>
+      <c r="F9" s="28">
+        <v>-6</v>
+      </c>
+      <c r="G9" s="28">
+        <v>-6</v>
+      </c>
+      <c r="H9" s="24">
         <v>-99999</v>
       </c>
-      <c r="E9" s="17">
+      <c r="I9" s="26">
         <v>-99999</v>
       </c>
-      <c r="F9" s="17">
+      <c r="J9" s="26">
         <v>-99999</v>
       </c>
-      <c r="G9" s="17">
+      <c r="K9" s="26">
         <v>-99999</v>
       </c>
-      <c r="H9" s="17">
+      <c r="L9" s="26">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="26">
+        <v>10</v>
+      </c>
+      <c r="N9" s="26">
+        <v>10</v>
+      </c>
+      <c r="O9" s="26">
+        <v>10</v>
+      </c>
+      <c r="P9" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>20</v>
+      </c>
+      <c r="R9" s="26">
+        <v>20</v>
+      </c>
+      <c r="S9" s="26">
         <v>-99999</v>
       </c>
-      <c r="I9" s="51">
+      <c r="T9" s="26">
+        <v>7200</v>
+      </c>
+      <c r="U9" s="26">
         <v>-99999</v>
       </c>
-      <c r="J9" s="51">
+      <c r="V9" s="26">
         <v>-99999</v>
       </c>
-      <c r="K9" s="51">
+      <c r="W9" s="26">
+        <v>-500</v>
+      </c>
+      <c r="X9" s="26">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="Y9" s="26">
         <v>-99999</v>
       </c>
-      <c r="L9" s="51">
-        <v>1000</v>
-      </c>
-      <c r="M9" s="51">
-        <v>10</v>
-      </c>
-      <c r="N9" s="51">
-        <v>10</v>
-      </c>
-      <c r="O9" s="51">
-        <v>10</v>
-      </c>
-      <c r="P9" s="51">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="51">
-        <v>20</v>
-      </c>
-      <c r="R9" s="51">
-        <v>20</v>
-      </c>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51">
-        <v>7200</v>
-      </c>
-      <c r="U9" s="51">
+      <c r="Z9" s="26">
         <v>-99999</v>
       </c>
-      <c r="V9" s="51">
+      <c r="AA9" s="27">
         <v>-99999</v>
       </c>
-      <c r="W9" s="51">
-        <v>-500</v>
-      </c>
-      <c r="X9" s="51">
-        <v>0.8</v>
-      </c>
-      <c r="Y9" s="51">
-        <v>-99999</v>
-      </c>
-      <c r="Z9" s="51">
-        <v>-99999</v>
-      </c>
-      <c r="AA9" s="70">
-        <v>-99999</v>
-      </c>
     </row>
-    <row r="10" ht="72" hidden="1" spans="2:27">
-      <c r="B10" s="18" t="s">
+    <row ht="75.5" hidden="1" r="10">
+      <c r="B10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="52" t="s">
+      <c r="Q10" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="19" t="s">
+      <c r="S10" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="T10" s="52" t="s">
+      <c r="T10" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="V10" s="19" t="s">
+      <c r="V10" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="W10" s="19" t="s">
+      <c r="W10" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="X10" s="52" t="s">
+      <c r="X10" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="Y10" s="19" t="s">
+      <c r="Y10" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="Z10" s="19" t="s">
+      <c r="Z10" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B11" s="20">
+    <row ht="19.5" customHeight="1" r="11">
+      <c r="B11" s="33">
         <v>0</v>
       </c>
-      <c r="C11" s="21" t="str">
+      <c r="C11" s="34" t="str">
         <f>IF(_gfln_day_hour!A2="","",_gfln_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D11" s="21" t="str">
+      <c r="D11" s="34" t="str">
         <f>IF(_gfln_day_hour!B2="","",_gfln_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E11" s="21" t="str">
+      <c r="E11" s="34" t="str">
         <f>IF(_gfln_day_hour!C2="","",_gfln_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F11" s="21" t="str">
+      <c r="F11" s="34" t="str">
         <f>IF(_gfln_day_hour!D2="","",_gfln_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="34" t="str">
         <f>IF(_gfln_day_hour!E2="","",_gfln_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H11" s="22" t="str">
+      <c r="H11" s="35" t="str">
         <f>IF(_gfln_day_hour!F2="","",_gfln_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I11" s="22" t="str">
+      <c r="I11" s="35" t="str">
         <f>IF(_gfln_day_hour!G2="","",_gfln_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J11" s="21" t="str">
+      <c r="J11" s="34" t="str">
         <f>IF(_gfln_day_hour!H2="","",_gfln_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K11" s="53" t="str">
+      <c r="K11" s="36" t="str">
         <f>IF(_gfln_day_hour!I2="","",_gfln_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L11" s="53" t="str">
+      <c r="L11" s="36" t="str">
         <f>IF(_gfln_day_hour!N2="","",_gfln_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="M11" s="53" t="str">
+      <c r="M11" s="36" t="str">
         <f>IF(_gfln_day_hour!Q2="","",_gfln_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="N11" s="53" t="str">
+      <c r="N11" s="36" t="str">
         <f>IF(_gfln_day_hour!R2="","",_gfln_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="O11" s="53" t="str">
+      <c r="O11" s="36" t="str">
         <f>IF(_gfln_day_hour!S2="","",_gfln_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="P11" s="53" t="str">
+      <c r="P11" s="36" t="str">
         <f>IF(_gfln_day_hour!T2="","",_gfln_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="Q11" s="53" t="str">
+      <c r="Q11" s="36" t="str">
         <f>IF(_gfln_day_hour!U2="","",_gfln_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="R11" s="53" t="str">
+      <c r="R11" s="36" t="str">
         <f>IF(_gfln_day_hour!V2="","",_gfln_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="S11" s="53" t="str">
+      <c r="S11" s="36" t="str">
         <f>IF(_gfln_day_hour!W2="","",_gfln_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="T11" s="53" t="str">
+      <c r="T11" s="36" t="str">
         <f>IF(_gfln_day_hour!X2="","",_gfln_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="U11" s="53" t="str">
+      <c r="U11" s="36" t="str">
         <f>IF(_gfln_day_hour!Y2="","",_gfln_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="V11" s="53" t="str">
+      <c r="V11" s="36" t="str">
         <f>IF(_gfln_day_hour!Z2="","",_gfln_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="W11" s="53" t="str">
+      <c r="W11" s="36" t="str">
         <f>IF(_gfln_day_hour!AA2="","",_gfln_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="X11" s="21" t="str">
+      <c r="X11" s="34" t="str">
         <f>IF(_gfln_day_hour!AB2="","",_gfln_day_hour!AB2/1000)</f>
         <v/>
       </c>
-      <c r="Y11" s="53" t="str">
+      <c r="Y11" s="36" t="str">
         <f>IF(_gfln_day_hour!AC2="","",_gfln_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="Z11" s="53" t="str">
+      <c r="Z11" s="36" t="str">
         <f>IF(_gfln_day_hour!AD2="","",_gfln_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AA11" s="72" t="str">
+      <c r="AA11" s="37" t="str">
         <f>IF(_gfln_day_hour!AF2="","",100-_gfln_day_hour!AF2)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B12" s="23">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="C12" s="24" t="str">
+    <row ht="19.5" customHeight="1" r="12">
+      <c r="B12" s="38">
+        <v>0.041666666666666699</v>
+      </c>
+      <c r="C12" s="39" t="str">
         <f>IF(_gfln_day_hour!A3="","",_gfln_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D12" s="24" t="str">
+      <c r="D12" s="39" t="str">
         <f>IF(_gfln_day_hour!B3="","",_gfln_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E12" s="24" t="str">
+      <c r="E12" s="39" t="str">
         <f>IF(_gfln_day_hour!C3="","",_gfln_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F12" s="24" t="str">
+      <c r="F12" s="39" t="str">
         <f>IF(_gfln_day_hour!D3="","",_gfln_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G12" s="24" t="str">
+      <c r="G12" s="39" t="str">
         <f>IF(_gfln_day_hour!E3="","",_gfln_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H12" s="25" t="str">
+      <c r="H12" s="40" t="str">
         <f>IF(_gfln_day_hour!F3="","",_gfln_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I12" s="25" t="str">
+      <c r="I12" s="40" t="str">
         <f>IF(_gfln_day_hour!G3="","",_gfln_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J12" s="24" t="str">
+      <c r="J12" s="39" t="str">
         <f>IF(_gfln_day_hour!H3="","",_gfln_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K12" s="54" t="str">
+      <c r="K12" s="41" t="str">
         <f>IF(_gfln_day_hour!I3="","",_gfln_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L12" s="54" t="str">
+      <c r="L12" s="41" t="str">
         <f>IF(_gfln_day_hour!N3="","",_gfln_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="M12" s="54" t="str">
+      <c r="M12" s="41" t="str">
         <f>IF(_gfln_day_hour!Q3="","",_gfln_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="N12" s="54" t="str">
+      <c r="N12" s="41" t="str">
         <f>IF(_gfln_day_hour!R3="","",_gfln_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="O12" s="54" t="str">
+      <c r="O12" s="41" t="str">
         <f>IF(_gfln_day_hour!S3="","",_gfln_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="P12" s="54" t="str">
+      <c r="P12" s="41" t="str">
         <f>IF(_gfln_day_hour!T3="","",_gfln_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="Q12" s="54" t="str">
+      <c r="Q12" s="41" t="str">
         <f>IF(_gfln_day_hour!U3="","",_gfln_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="R12" s="54" t="str">
+      <c r="R12" s="41" t="str">
         <f>IF(_gfln_day_hour!V3="","",_gfln_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="S12" s="54" t="str">
+      <c r="S12" s="41" t="str">
         <f>IF(_gfln_day_hour!W3="","",_gfln_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="T12" s="54" t="str">
+      <c r="T12" s="41" t="str">
         <f>IF(_gfln_day_hour!X3="","",_gfln_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="U12" s="54" t="str">
+      <c r="U12" s="41" t="str">
         <f>IF(_gfln_day_hour!Y3="","",_gfln_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="V12" s="54" t="str">
+      <c r="V12" s="41" t="str">
         <f>IF(_gfln_day_hour!Z3="","",_gfln_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="W12" s="54" t="str">
+      <c r="W12" s="41" t="str">
         <f>IF(_gfln_day_hour!AA3="","",_gfln_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="X12" s="24" t="str">
+      <c r="X12" s="39" t="str">
         <f>IF(_gfln_day_hour!AB3="","",_gfln_day_hour!AB3/1000)</f>
         <v/>
       </c>
-      <c r="Y12" s="54" t="str">
+      <c r="Y12" s="41" t="str">
         <f>IF(_gfln_day_hour!AC3="","",_gfln_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="Z12" s="54" t="str">
+      <c r="Z12" s="41" t="str">
         <f>IF(_gfln_day_hour!AD3="","",_gfln_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AA12" s="73" t="str">
+      <c r="AA12" s="42" t="str">
         <f>IF(_gfln_day_hour!AF3="","",100-_gfln_day_hour!AF3)</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B13" s="26">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="C13" s="27" t="str">
+    <row ht="19.5" customHeight="1" r="13">
+      <c r="B13" s="43">
+        <v>0.083333333333333301</v>
+      </c>
+      <c r="C13" s="44" t="str">
         <f>IF(_gfln_day_hour!A4="","",_gfln_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="44" t="str">
         <f>IF(_gfln_day_hour!B4="","",_gfln_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="44" t="str">
         <f>IF(_gfln_day_hour!C4="","",_gfln_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="44" t="str">
         <f>IF(_gfln_day_hour!D4="","",_gfln_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="44" t="str">
         <f>IF(_gfln_day_hour!E4="","",_gfln_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H13" s="28" t="str">
+      <c r="H13" s="45" t="str">
         <f>IF(_gfln_day_hour!F4="","",_gfln_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I13" s="28" t="str">
+      <c r="I13" s="45" t="str">
         <f>IF(_gfln_day_hour!G4="","",_gfln_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J13" s="27" t="str">
+      <c r="J13" s="44" t="str">
         <f>IF(_gfln_day_hour!H4="","",_gfln_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K13" s="55" t="str">
+      <c r="K13" s="46" t="str">
         <f>IF(_gfln_day_hour!I4="","",_gfln_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L13" s="55" t="str">
+      <c r="L13" s="46" t="str">
         <f>IF(_gfln_day_hour!N4="","",_gfln_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="M13" s="55" t="str">
+      <c r="M13" s="46" t="str">
         <f>IF(_gfln_day_hour!Q4="","",_gfln_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="N13" s="55" t="str">
+      <c r="N13" s="46" t="str">
         <f>IF(_gfln_day_hour!R4="","",_gfln_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="O13" s="55" t="str">
+      <c r="O13" s="46" t="str">
         <f>IF(_gfln_day_hour!S4="","",_gfln_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="P13" s="55" t="str">
+      <c r="P13" s="46" t="str">
         <f>IF(_gfln_day_hour!T4="","",_gfln_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="Q13" s="55" t="str">
+      <c r="Q13" s="46" t="str">
         <f>IF(_gfln_day_hour!U4="","",_gfln_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="R13" s="55" t="str">
+      <c r="R13" s="46" t="str">
         <f>IF(_gfln_day_hour!V4="","",_gfln_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="S13" s="55" t="str">
+      <c r="S13" s="46" t="str">
         <f>IF(_gfln_day_hour!W4="","",_gfln_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="T13" s="55" t="str">
+      <c r="T13" s="46" t="str">
         <f>IF(_gfln_day_hour!X4="","",_gfln_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="U13" s="55" t="str">
+      <c r="U13" s="46" t="str">
         <f>IF(_gfln_day_hour!Y4="","",_gfln_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="V13" s="55" t="str">
+      <c r="V13" s="46" t="str">
         <f>IF(_gfln_day_hour!Z4="","",_gfln_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="W13" s="55" t="str">
+      <c r="W13" s="46" t="str">
         <f>IF(_gfln_day_hour!AA4="","",_gfln_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="X13" s="27" t="str">
+      <c r="X13" s="44" t="str">
         <f>IF(_gfln_day_hour!AB4="","",_gfln_day_hour!AB4/1000)</f>
         <v/>
       </c>
-      <c r="Y13" s="55" t="str">
+      <c r="Y13" s="46" t="str">
         <f>IF(_gfln_day_hour!AC4="","",_gfln_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="Z13" s="55" t="str">
+      <c r="Z13" s="46" t="str">
         <f>IF(_gfln_day_hour!AD4="","",_gfln_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AA13" s="74" t="str">
+      <c r="AA13" s="47" t="str">
         <f>IF(_gfln_day_hour!AF4="","",100-_gfln_day_hour!AF4)</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B14" s="26">
+    <row ht="19.5" customHeight="1" r="14">
+      <c r="B14" s="43">
         <v>0.125</v>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="44" t="str">
         <f>IF(_gfln_day_hour!A5="","",_gfln_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="44" t="str">
         <f>IF(_gfln_day_hour!B5="","",_gfln_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="44" t="str">
         <f>IF(_gfln_day_hour!C5="","",_gfln_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="44" t="str">
         <f>IF(_gfln_day_hour!D5="","",_gfln_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G14" s="27" t="str">
+      <c r="G14" s="44" t="str">
         <f>IF(_gfln_day_hour!E5="","",_gfln_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H14" s="28" t="str">
+      <c r="H14" s="45" t="str">
         <f>IF(_gfln_day_hour!F5="","",_gfln_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I14" s="28" t="str">
+      <c r="I14" s="45" t="str">
         <f>IF(_gfln_day_hour!G5="","",_gfln_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J14" s="27" t="str">
+      <c r="J14" s="44" t="str">
         <f>IF(_gfln_day_hour!H5="","",_gfln_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K14" s="55" t="str">
+      <c r="K14" s="46" t="str">
         <f>IF(_gfln_day_hour!I5="","",_gfln_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L14" s="55" t="str">
+      <c r="L14" s="46" t="str">
         <f>IF(_gfln_day_hour!N5="","",_gfln_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="M14" s="55" t="str">
+      <c r="M14" s="46" t="str">
         <f>IF(_gfln_day_hour!Q5="","",_gfln_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="N14" s="55" t="str">
+      <c r="N14" s="46" t="str">
         <f>IF(_gfln_day_hour!R5="","",_gfln_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="O14" s="55" t="str">
+      <c r="O14" s="46" t="str">
         <f>IF(_gfln_day_hour!S5="","",_gfln_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="P14" s="55" t="str">
+      <c r="P14" s="46" t="str">
         <f>IF(_gfln_day_hour!T5="","",_gfln_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="Q14" s="55" t="str">
+      <c r="Q14" s="46" t="str">
         <f>IF(_gfln_day_hour!U5="","",_gfln_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="R14" s="55" t="str">
+      <c r="R14" s="46" t="str">
         <f>IF(_gfln_day_hour!V5="","",_gfln_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="S14" s="55" t="str">
+      <c r="S14" s="46" t="str">
         <f>IF(_gfln_day_hour!W5="","",_gfln_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="T14" s="55" t="str">
+      <c r="T14" s="46" t="str">
         <f>IF(_gfln_day_hour!X5="","",_gfln_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="U14" s="55" t="str">
+      <c r="U14" s="46" t="str">
         <f>IF(_gfln_day_hour!Y5="","",_gfln_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="V14" s="55" t="str">
+      <c r="V14" s="46" t="str">
         <f>IF(_gfln_day_hour!Z5="","",_gfln_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="W14" s="55" t="str">
+      <c r="W14" s="46" t="str">
         <f>IF(_gfln_day_hour!AA5="","",_gfln_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="X14" s="27" t="str">
+      <c r="X14" s="44" t="str">
         <f>IF(_gfln_day_hour!AB5="","",_gfln_day_hour!AB5/1000)</f>
         <v/>
       </c>
-      <c r="Y14" s="55" t="str">
+      <c r="Y14" s="46" t="str">
         <f>IF(_gfln_day_hour!AC5="","",_gfln_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="Z14" s="55" t="str">
+      <c r="Z14" s="46" t="str">
         <f>IF(_gfln_day_hour!AD5="","",_gfln_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AA14" s="74" t="str">
+      <c r="AA14" s="47" t="str">
         <f>IF(_gfln_day_hour!AF5="","",100-_gfln_day_hour!AF5)</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B15" s="26">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="C15" s="27" t="str">
+    <row ht="19.5" customHeight="1" r="15">
+      <c r="B15" s="43">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C15" s="44" t="str">
         <f>IF(_gfln_day_hour!A6="","",_gfln_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D15" s="27" t="str">
+      <c r="D15" s="44" t="str">
         <f>IF(_gfln_day_hour!B6="","",_gfln_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E15" s="27" t="str">
+      <c r="E15" s="44" t="str">
         <f>IF(_gfln_day_hour!C6="","",_gfln_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F15" s="27" t="str">
+      <c r="F15" s="44" t="str">
         <f>IF(_gfln_day_hour!D6="","",_gfln_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G15" s="27" t="str">
+      <c r="G15" s="44" t="str">
         <f>IF(_gfln_day_hour!E6="","",_gfln_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H15" s="28" t="str">
+      <c r="H15" s="45" t="str">
         <f>IF(_gfln_day_hour!F6="","",_gfln_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I15" s="28" t="str">
+      <c r="I15" s="45" t="str">
         <f>IF(_gfln_day_hour!G6="","",_gfln_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J15" s="27" t="str">
+      <c r="J15" s="44" t="str">
         <f>IF(_gfln_day_hour!H6="","",_gfln_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K15" s="55" t="str">
+      <c r="K15" s="46" t="str">
         <f>IF(_gfln_day_hour!I6="","",_gfln_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L15" s="55" t="str">
+      <c r="L15" s="46" t="str">
         <f>IF(_gfln_day_hour!N6="","",_gfln_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="M15" s="55" t="str">
+      <c r="M15" s="46" t="str">
         <f>IF(_gfln_day_hour!Q6="","",_gfln_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="N15" s="55" t="str">
+      <c r="N15" s="46" t="str">
         <f>IF(_gfln_day_hour!R6="","",_gfln_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="O15" s="55" t="str">
+      <c r="O15" s="46" t="str">
         <f>IF(_gfln_day_hour!S6="","",_gfln_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="P15" s="55" t="str">
+      <c r="P15" s="46" t="str">
         <f>IF(_gfln_day_hour!T6="","",_gfln_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="Q15" s="55" t="str">
+      <c r="Q15" s="46" t="str">
         <f>IF(_gfln_day_hour!U6="","",_gfln_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="R15" s="55" t="str">
+      <c r="R15" s="46" t="str">
         <f>IF(_gfln_day_hour!V6="","",_gfln_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="S15" s="55" t="str">
+      <c r="S15" s="46" t="str">
         <f>IF(_gfln_day_hour!W6="","",_gfln_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="T15" s="55" t="str">
+      <c r="T15" s="46" t="str">
         <f>IF(_gfln_day_hour!X6="","",_gfln_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="U15" s="55" t="str">
+      <c r="U15" s="46" t="str">
         <f>IF(_gfln_day_hour!Y6="","",_gfln_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="V15" s="55" t="str">
+      <c r="V15" s="46" t="str">
         <f>IF(_gfln_day_hour!Z6="","",_gfln_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="W15" s="55" t="str">
+      <c r="W15" s="46" t="str">
         <f>IF(_gfln_day_hour!AA6="","",_gfln_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="X15" s="27" t="str">
+      <c r="X15" s="44" t="str">
         <f>IF(_gfln_day_hour!AB6="","",_gfln_day_hour!AB6/1000)</f>
         <v/>
       </c>
-      <c r="Y15" s="55" t="str">
+      <c r="Y15" s="46" t="str">
         <f>IF(_gfln_day_hour!AC6="","",_gfln_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="Z15" s="55" t="str">
+      <c r="Z15" s="46" t="str">
         <f>IF(_gfln_day_hour!AD6="","",_gfln_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AA15" s="74" t="str">
+      <c r="AA15" s="47" t="str">
         <f>IF(_gfln_day_hour!AF6="","",100-_gfln_day_hour!AF6)</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B16" s="26">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="C16" s="27" t="str">
+    <row ht="19.5" customHeight="1" r="16">
+      <c r="B16" s="43">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="C16" s="44" t="str">
         <f>IF(_gfln_day_hour!A7="","",_gfln_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D16" s="27" t="str">
+      <c r="D16" s="44" t="str">
         <f>IF(_gfln_day_hour!B7="","",_gfln_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E16" s="27" t="str">
+      <c r="E16" s="44" t="str">
         <f>IF(_gfln_day_hour!C7="","",_gfln_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F16" s="27" t="str">
+      <c r="F16" s="44" t="str">
         <f>IF(_gfln_day_hour!D7="","",_gfln_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G16" s="27" t="str">
+      <c r="G16" s="44" t="str">
         <f>IF(_gfln_day_hour!E7="","",_gfln_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H16" s="28" t="str">
+      <c r="H16" s="45" t="str">
         <f>IF(_gfln_day_hour!F7="","",_gfln_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I16" s="28" t="str">
+      <c r="I16" s="45" t="str">
         <f>IF(_gfln_day_hour!G7="","",_gfln_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J16" s="27" t="str">
+      <c r="J16" s="44" t="str">
         <f>IF(_gfln_day_hour!H7="","",_gfln_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K16" s="55" t="str">
+      <c r="K16" s="46" t="str">
         <f>IF(_gfln_day_hour!I7="","",_gfln_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L16" s="55" t="str">
+      <c r="L16" s="46" t="str">
         <f>IF(_gfln_day_hour!N7="","",_gfln_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="M16" s="55" t="str">
+      <c r="M16" s="46" t="str">
         <f>IF(_gfln_day_hour!Q7="","",_gfln_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="N16" s="55" t="str">
+      <c r="N16" s="46" t="str">
         <f>IF(_gfln_day_hour!R7="","",_gfln_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="O16" s="55" t="str">
+      <c r="O16" s="46" t="str">
         <f>IF(_gfln_day_hour!S7="","",_gfln_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="P16" s="55" t="str">
+      <c r="P16" s="46" t="str">
         <f>IF(_gfln_day_hour!T7="","",_gfln_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="Q16" s="55" t="str">
+      <c r="Q16" s="46" t="str">
         <f>IF(_gfln_day_hour!U7="","",_gfln_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="R16" s="55" t="str">
+      <c r="R16" s="46" t="str">
         <f>IF(_gfln_day_hour!V7="","",_gfln_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="S16" s="55" t="str">
+      <c r="S16" s="46" t="str">
         <f>IF(_gfln_day_hour!W7="","",_gfln_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="T16" s="55" t="str">
+      <c r="T16" s="46" t="str">
         <f>IF(_gfln_day_hour!X7="","",_gfln_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="U16" s="55" t="str">
+      <c r="U16" s="46" t="str">
         <f>IF(_gfln_day_hour!Y7="","",_gfln_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="V16" s="55" t="str">
+      <c r="V16" s="46" t="str">
         <f>IF(_gfln_day_hour!Z7="","",_gfln_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="W16" s="55" t="str">
+      <c r="W16" s="46" t="str">
         <f>IF(_gfln_day_hour!AA7="","",_gfln_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="X16" s="27" t="str">
+      <c r="X16" s="44" t="str">
         <f>IF(_gfln_day_hour!AB7="","",_gfln_day_hour!AB7/1000)</f>
         <v/>
       </c>
-      <c r="Y16" s="55" t="str">
+      <c r="Y16" s="46" t="str">
         <f>IF(_gfln_day_hour!AC7="","",_gfln_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="Z16" s="55" t="str">
+      <c r="Z16" s="46" t="str">
         <f>IF(_gfln_day_hour!AD7="","",_gfln_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AA16" s="74" t="str">
+      <c r="AA16" s="47" t="str">
         <f>IF(_gfln_day_hour!AF7="","",100-_gfln_day_hour!AF7)</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B17" s="26">
+    <row ht="19.5" customHeight="1" r="17">
+      <c r="B17" s="43">
         <v>0.25</v>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="44" t="str">
         <f>IF(_gfln_day_hour!A8="","",_gfln_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D17" s="27" t="str">
+      <c r="D17" s="44" t="str">
         <f>IF(_gfln_day_hour!B8="","",_gfln_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E17" s="27" t="str">
+      <c r="E17" s="44" t="str">
         <f>IF(_gfln_day_hour!C8="","",_gfln_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F17" s="27" t="str">
+      <c r="F17" s="44" t="str">
         <f>IF(_gfln_day_hour!D8="","",_gfln_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G17" s="27" t="str">
+      <c r="G17" s="44" t="str">
         <f>IF(_gfln_day_hour!E8="","",_gfln_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H17" s="28" t="str">
+      <c r="H17" s="45" t="str">
         <f>IF(_gfln_day_hour!F8="","",_gfln_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I17" s="28" t="str">
+      <c r="I17" s="45" t="str">
         <f>IF(_gfln_day_hour!G8="","",_gfln_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J17" s="27" t="str">
+      <c r="J17" s="44" t="str">
         <f>IF(_gfln_day_hour!H8="","",_gfln_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K17" s="55" t="str">
+      <c r="K17" s="46" t="str">
         <f>IF(_gfln_day_hour!I8="","",_gfln_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L17" s="55" t="str">
+      <c r="L17" s="46" t="str">
         <f>IF(_gfln_day_hour!N8="","",_gfln_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="M17" s="55" t="str">
+      <c r="M17" s="46" t="str">
         <f>IF(_gfln_day_hour!Q8="","",_gfln_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="N17" s="55" t="str">
+      <c r="N17" s="46" t="str">
         <f>IF(_gfln_day_hour!R8="","",_gfln_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="O17" s="55" t="str">
+      <c r="O17" s="46" t="str">
         <f>IF(_gfln_day_hour!S8="","",_gfln_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="P17" s="55" t="str">
+      <c r="P17" s="46" t="str">
         <f>IF(_gfln_day_hour!T8="","",_gfln_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="Q17" s="55" t="str">
+      <c r="Q17" s="46" t="str">
         <f>IF(_gfln_day_hour!U8="","",_gfln_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="R17" s="55" t="str">
+      <c r="R17" s="46" t="str">
         <f>IF(_gfln_day_hour!V8="","",_gfln_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="S17" s="55" t="str">
+      <c r="S17" s="46" t="str">
         <f>IF(_gfln_day_hour!W8="","",_gfln_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="T17" s="55" t="str">
+      <c r="T17" s="46" t="str">
         <f>IF(_gfln_day_hour!X8="","",_gfln_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="U17" s="55" t="str">
+      <c r="U17" s="46" t="str">
         <f>IF(_gfln_day_hour!Y8="","",_gfln_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="V17" s="55" t="str">
+      <c r="V17" s="46" t="str">
         <f>IF(_gfln_day_hour!Z8="","",_gfln_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="W17" s="55" t="str">
+      <c r="W17" s="46" t="str">
         <f>IF(_gfln_day_hour!AA8="","",_gfln_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="X17" s="27" t="str">
+      <c r="X17" s="44" t="str">
         <f>IF(_gfln_day_hour!AB8="","",_gfln_day_hour!AB8/1000)</f>
         <v/>
       </c>
-      <c r="Y17" s="55" t="str">
+      <c r="Y17" s="46" t="str">
         <f>IF(_gfln_day_hour!AC8="","",_gfln_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="Z17" s="55" t="str">
+      <c r="Z17" s="46" t="str">
         <f>IF(_gfln_day_hour!AD8="","",_gfln_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AA17" s="74" t="str">
+      <c r="AA17" s="47" t="str">
         <f>IF(_gfln_day_hour!AF8="","",100-_gfln_day_hour!AF8)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B18" s="29">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="C18" s="30" t="str">
+    <row ht="19.5" customHeight="1" r="18">
+      <c r="B18" s="48">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C18" s="49" t="str">
         <f>IF(_gfln_day_hour!A9="","",_gfln_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D18" s="30" t="str">
+      <c r="D18" s="49" t="str">
         <f>IF(_gfln_day_hour!B9="","",_gfln_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E18" s="30" t="str">
+      <c r="E18" s="49" t="str">
         <f>IF(_gfln_day_hour!C9="","",_gfln_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F18" s="30" t="str">
+      <c r="F18" s="49" t="str">
         <f>IF(_gfln_day_hour!D9="","",_gfln_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G18" s="30" t="str">
+      <c r="G18" s="49" t="str">
         <f>IF(_gfln_day_hour!E9="","",_gfln_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H18" s="31" t="str">
+      <c r="H18" s="50" t="str">
         <f>IF(_gfln_day_hour!F9="","",_gfln_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I18" s="31" t="str">
+      <c r="I18" s="50" t="str">
         <f>IF(_gfln_day_hour!G9="","",_gfln_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J18" s="30" t="str">
+      <c r="J18" s="49" t="str">
         <f>IF(_gfln_day_hour!H9="","",_gfln_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K18" s="56" t="str">
+      <c r="K18" s="51" t="str">
         <f>IF(_gfln_day_hour!I9="","",_gfln_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L18" s="56" t="str">
+      <c r="L18" s="51" t="str">
         <f>IF(_gfln_day_hour!N9="","",_gfln_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="M18" s="56" t="str">
+      <c r="M18" s="51" t="str">
         <f>IF(_gfln_day_hour!Q9="","",_gfln_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="N18" s="56" t="str">
+      <c r="N18" s="51" t="str">
         <f>IF(_gfln_day_hour!R9="","",_gfln_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="O18" s="56" t="str">
+      <c r="O18" s="51" t="str">
         <f>IF(_gfln_day_hour!S9="","",_gfln_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="P18" s="56" t="str">
+      <c r="P18" s="51" t="str">
         <f>IF(_gfln_day_hour!T9="","",_gfln_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="Q18" s="56" t="str">
+      <c r="Q18" s="51" t="str">
         <f>IF(_gfln_day_hour!U9="","",_gfln_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="R18" s="56" t="str">
+      <c r="R18" s="51" t="str">
         <f>IF(_gfln_day_hour!V9="","",_gfln_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="S18" s="56" t="str">
+      <c r="S18" s="51" t="str">
         <f>IF(_gfln_day_hour!W9="","",_gfln_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="T18" s="56" t="str">
+      <c r="T18" s="51" t="str">
         <f>IF(_gfln_day_hour!X9="","",_gfln_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="U18" s="56" t="str">
+      <c r="U18" s="51" t="str">
         <f>IF(_gfln_day_hour!Y9="","",_gfln_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="V18" s="56" t="str">
+      <c r="V18" s="51" t="str">
         <f>IF(_gfln_day_hour!Z9="","",_gfln_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="W18" s="56" t="str">
+      <c r="W18" s="51" t="str">
         <f>IF(_gfln_day_hour!AA9="","",_gfln_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="X18" s="30" t="str">
+      <c r="X18" s="49" t="str">
         <f>IF(_gfln_day_hour!AB9="","",_gfln_day_hour!AB9/1000)</f>
         <v/>
       </c>
-      <c r="Y18" s="56" t="str">
+      <c r="Y18" s="51" t="str">
         <f>IF(_gfln_day_hour!AC9="","",_gfln_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="Z18" s="56" t="str">
+      <c r="Z18" s="51" t="str">
         <f>IF(_gfln_day_hour!AD9="","",_gfln_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AA18" s="75" t="str">
+      <c r="AA18" s="52" t="str">
         <f>IF(_gfln_day_hour!AF9="","",100-_gfln_day_hour!AF9)</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B19" s="20">
-        <v>0.333333333333334</v>
-      </c>
-      <c r="C19" s="21" t="str">
+    <row ht="19.5" customHeight="1" r="19">
+      <c r="B19" s="33">
+        <v>0.33333333333333398</v>
+      </c>
+      <c r="C19" s="34" t="str">
         <f>IF(_gfln_day_hour!A10="","",_gfln_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D19" s="21" t="str">
+      <c r="D19" s="34" t="str">
         <f>IF(_gfln_day_hour!B10="","",_gfln_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E19" s="21" t="str">
+      <c r="E19" s="34" t="str">
         <f>IF(_gfln_day_hour!C10="","",_gfln_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F19" s="21" t="str">
+      <c r="F19" s="34" t="str">
         <f>IF(_gfln_day_hour!D10="","",_gfln_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G19" s="21" t="str">
+      <c r="G19" s="34" t="str">
         <f>IF(_gfln_day_hour!E10="","",_gfln_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H19" s="22" t="str">
+      <c r="H19" s="35" t="str">
         <f>IF(_gfln_day_hour!F10="","",_gfln_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I19" s="22" t="str">
+      <c r="I19" s="35" t="str">
         <f>IF(_gfln_day_hour!G10="","",_gfln_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J19" s="21" t="str">
+      <c r="J19" s="34" t="str">
         <f>IF(_gfln_day_hour!H10="","",_gfln_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K19" s="53" t="str">
+      <c r="K19" s="36" t="str">
         <f>IF(_gfln_day_hour!I10="","",_gfln_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L19" s="53" t="str">
+      <c r="L19" s="36" t="str">
         <f>IF(_gfln_day_hour!N10="","",_gfln_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="M19" s="53" t="str">
+      <c r="M19" s="36" t="str">
         <f>IF(_gfln_day_hour!Q10="","",_gfln_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="N19" s="53" t="str">
+      <c r="N19" s="36" t="str">
         <f>IF(_gfln_day_hour!R10="","",_gfln_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="O19" s="53" t="str">
+      <c r="O19" s="36" t="str">
         <f>IF(_gfln_day_hour!S10="","",_gfln_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="P19" s="53" t="str">
+      <c r="P19" s="36" t="str">
         <f>IF(_gfln_day_hour!T10="","",_gfln_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="Q19" s="53" t="str">
+      <c r="Q19" s="36" t="str">
         <f>IF(_gfln_day_hour!U10="","",_gfln_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="R19" s="53" t="str">
+      <c r="R19" s="36" t="str">
         <f>IF(_gfln_day_hour!V10="","",_gfln_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="S19" s="53" t="str">
+      <c r="S19" s="36" t="str">
         <f>IF(_gfln_day_hour!W10="","",_gfln_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="T19" s="53" t="str">
+      <c r="T19" s="36" t="str">
         <f>IF(_gfln_day_hour!X10="","",_gfln_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="U19" s="53" t="str">
+      <c r="U19" s="36" t="str">
         <f>IF(_gfln_day_hour!Y10="","",_gfln_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="V19" s="53" t="str">
+      <c r="V19" s="36" t="str">
         <f>IF(_gfln_day_hour!Z10="","",_gfln_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="W19" s="53" t="str">
+      <c r="W19" s="36" t="str">
         <f>IF(_gfln_day_hour!AA10="","",_gfln_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="X19" s="21" t="str">
+      <c r="X19" s="34" t="str">
         <f>IF(_gfln_day_hour!AB10="","",_gfln_day_hour!AB10/1000)</f>
         <v/>
       </c>
-      <c r="Y19" s="53" t="str">
+      <c r="Y19" s="36" t="str">
         <f>IF(_gfln_day_hour!AC10="","",_gfln_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="Z19" s="53" t="str">
+      <c r="Z19" s="36" t="str">
         <f>IF(_gfln_day_hour!AD10="","",_gfln_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AA19" s="72" t="str">
+      <c r="AA19" s="37" t="str">
         <f>IF(_gfln_day_hour!AF10="","",100-_gfln_day_hour!AF10)</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B20" s="23">
+    <row ht="19.5" customHeight="1" r="20">
+      <c r="B20" s="38">
         <v>0.375</v>
       </c>
-      <c r="C20" s="24" t="str">
+      <c r="C20" s="39" t="str">
         <f>IF(_gfln_day_hour!A11="","",_gfln_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D20" s="24" t="str">
+      <c r="D20" s="39" t="str">
         <f>IF(_gfln_day_hour!B11="","",_gfln_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E20" s="24" t="str">
+      <c r="E20" s="39" t="str">
         <f>IF(_gfln_day_hour!C11="","",_gfln_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F20" s="24" t="str">
+      <c r="F20" s="39" t="str">
         <f>IF(_gfln_day_hour!D11="","",_gfln_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G20" s="24" t="str">
+      <c r="G20" s="39" t="str">
         <f>IF(_gfln_day_hour!E11="","",_gfln_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H20" s="25" t="str">
+      <c r="H20" s="40" t="str">
         <f>IF(_gfln_day_hour!F11="","",_gfln_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I20" s="25" t="str">
+      <c r="I20" s="40" t="str">
         <f>IF(_gfln_day_hour!G11="","",_gfln_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J20" s="24" t="str">
+      <c r="J20" s="39" t="str">
         <f>IF(_gfln_day_hour!H11="","",_gfln_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K20" s="54" t="str">
+      <c r="K20" s="41" t="str">
         <f>IF(_gfln_day_hour!I11="","",_gfln_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L20" s="54" t="str">
+      <c r="L20" s="41" t="str">
         <f>IF(_gfln_day_hour!N11="","",_gfln_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="M20" s="54" t="str">
+      <c r="M20" s="41" t="str">
         <f>IF(_gfln_day_hour!Q11="","",_gfln_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="N20" s="54" t="str">
+      <c r="N20" s="41" t="str">
         <f>IF(_gfln_day_hour!R11="","",_gfln_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="O20" s="54" t="str">
+      <c r="O20" s="41" t="str">
         <f>IF(_gfln_day_hour!S11="","",_gfln_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="P20" s="54" t="str">
+      <c r="P20" s="41" t="str">
         <f>IF(_gfln_day_hour!T11="","",_gfln_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="Q20" s="54" t="str">
+      <c r="Q20" s="41" t="str">
         <f>IF(_gfln_day_hour!U11="","",_gfln_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="R20" s="54" t="str">
+      <c r="R20" s="41" t="str">
         <f>IF(_gfln_day_hour!V11="","",_gfln_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="S20" s="54" t="str">
+      <c r="S20" s="41" t="str">
         <f>IF(_gfln_day_hour!W11="","",_gfln_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="T20" s="54" t="str">
+      <c r="T20" s="41" t="str">
         <f>IF(_gfln_day_hour!X11="","",_gfln_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="U20" s="54" t="str">
+      <c r="U20" s="41" t="str">
         <f>IF(_gfln_day_hour!Y11="","",_gfln_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="V20" s="54" t="str">
+      <c r="V20" s="41" t="str">
         <f>IF(_gfln_day_hour!Z11="","",_gfln_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="W20" s="54" t="str">
+      <c r="W20" s="41" t="str">
         <f>IF(_gfln_day_hour!AA11="","",_gfln_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="X20" s="24" t="str">
+      <c r="X20" s="39" t="str">
         <f>IF(_gfln_day_hour!AB11="","",_gfln_day_hour!AB11/1000)</f>
         <v/>
       </c>
-      <c r="Y20" s="54" t="str">
+      <c r="Y20" s="41" t="str">
         <f>IF(_gfln_day_hour!AC11="","",_gfln_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="Z20" s="54" t="str">
+      <c r="Z20" s="41" t="str">
         <f>IF(_gfln_day_hour!AD11="","",_gfln_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AA20" s="73" t="str">
+      <c r="AA20" s="42" t="str">
         <f>IF(_gfln_day_hour!AF11="","",100-_gfln_day_hour!AF11)</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B21" s="23">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C21" s="24" t="str">
+    <row ht="19.5" customHeight="1" r="21">
+      <c r="B21" s="38">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C21" s="39" t="str">
         <f>IF(_gfln_day_hour!A12="","",_gfln_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D21" s="24" t="str">
+      <c r="D21" s="39" t="str">
         <f>IF(_gfln_day_hour!B12="","",_gfln_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E21" s="24" t="str">
+      <c r="E21" s="39" t="str">
         <f>IF(_gfln_day_hour!C12="","",_gfln_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F21" s="24" t="str">
+      <c r="F21" s="39" t="str">
         <f>IF(_gfln_day_hour!D12="","",_gfln_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G21" s="24" t="str">
+      <c r="G21" s="39" t="str">
         <f>IF(_gfln_day_hour!E12="","",_gfln_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H21" s="25" t="str">
+      <c r="H21" s="40" t="str">
         <f>IF(_gfln_day_hour!F12="","",_gfln_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I21" s="25" t="str">
+      <c r="I21" s="40" t="str">
         <f>IF(_gfln_day_hour!G12="","",_gfln_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J21" s="24" t="str">
+      <c r="J21" s="39" t="str">
         <f>IF(_gfln_day_hour!H12="","",_gfln_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K21" s="54" t="str">
+      <c r="K21" s="41" t="str">
         <f>IF(_gfln_day_hour!I12="","",_gfln_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L21" s="54" t="str">
+      <c r="L21" s="41" t="str">
         <f>IF(_gfln_day_hour!N12="","",_gfln_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="M21" s="54" t="str">
+      <c r="M21" s="41" t="str">
         <f>IF(_gfln_day_hour!Q12="","",_gfln_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="N21" s="54" t="str">
+      <c r="N21" s="41" t="str">
         <f>IF(_gfln_day_hour!R12="","",_gfln_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="O21" s="54" t="str">
+      <c r="O21" s="41" t="str">
         <f>IF(_gfln_day_hour!S12="","",_gfln_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="P21" s="54" t="str">
+      <c r="P21" s="41" t="str">
         <f>IF(_gfln_day_hour!T12="","",_gfln_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="Q21" s="54" t="str">
+      <c r="Q21" s="41" t="str">
         <f>IF(_gfln_day_hour!U12="","",_gfln_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="R21" s="54" t="str">
+      <c r="R21" s="41" t="str">
         <f>IF(_gfln_day_hour!V12="","",_gfln_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="S21" s="54" t="str">
+      <c r="S21" s="41" t="str">
         <f>IF(_gfln_day_hour!W12="","",_gfln_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="T21" s="54" t="str">
+      <c r="T21" s="41" t="str">
         <f>IF(_gfln_day_hour!X12="","",_gfln_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="U21" s="54" t="str">
+      <c r="U21" s="41" t="str">
         <f>IF(_gfln_day_hour!Y12="","",_gfln_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="V21" s="54" t="str">
+      <c r="V21" s="41" t="str">
         <f>IF(_gfln_day_hour!Z12="","",_gfln_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="W21" s="54" t="str">
+      <c r="W21" s="41" t="str">
         <f>IF(_gfln_day_hour!AA12="","",_gfln_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="X21" s="24" t="str">
+      <c r="X21" s="39" t="str">
         <f>IF(_gfln_day_hour!AB12="","",_gfln_day_hour!AB12/1000)</f>
         <v/>
       </c>
-      <c r="Y21" s="54" t="str">
+      <c r="Y21" s="41" t="str">
         <f>IF(_gfln_day_hour!AC12="","",_gfln_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="Z21" s="54" t="str">
+      <c r="Z21" s="41" t="str">
         <f>IF(_gfln_day_hour!AD12="","",_gfln_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AA21" s="73" t="str">
+      <c r="AA21" s="42" t="str">
         <f>IF(_gfln_day_hour!AF12="","",100-_gfln_day_hour!AF12)</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B22" s="23">
-        <v>0.458333333333334</v>
-      </c>
-      <c r="C22" s="24" t="str">
+    <row ht="19.5" customHeight="1" r="22">
+      <c r="B22" s="38">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="C22" s="39" t="str">
         <f>IF(_gfln_day_hour!A13="","",_gfln_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D22" s="24" t="str">
+      <c r="D22" s="39" t="str">
         <f>IF(_gfln_day_hour!B13="","",_gfln_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E22" s="24" t="str">
+      <c r="E22" s="39" t="str">
         <f>IF(_gfln_day_hour!C13="","",_gfln_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F22" s="24" t="str">
+      <c r="F22" s="39" t="str">
         <f>IF(_gfln_day_hour!D13="","",_gfln_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G22" s="24" t="str">
+      <c r="G22" s="39" t="str">
         <f>IF(_gfln_day_hour!E13="","",_gfln_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H22" s="25" t="str">
+      <c r="H22" s="40" t="str">
         <f>IF(_gfln_day_hour!F13="","",_gfln_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I22" s="25" t="str">
+      <c r="I22" s="40" t="str">
         <f>IF(_gfln_day_hour!G13="","",_gfln_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J22" s="24" t="str">
+      <c r="J22" s="39" t="str">
         <f>IF(_gfln_day_hour!H13="","",_gfln_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K22" s="54" t="str">
+      <c r="K22" s="41" t="str">
         <f>IF(_gfln_day_hour!I13="","",_gfln_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L22" s="54" t="str">
+      <c r="L22" s="41" t="str">
         <f>IF(_gfln_day_hour!N13="","",_gfln_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="M22" s="54" t="str">
+      <c r="M22" s="41" t="str">
         <f>IF(_gfln_day_hour!Q13="","",_gfln_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="N22" s="54" t="str">
+      <c r="N22" s="41" t="str">
         <f>IF(_gfln_day_hour!R13="","",_gfln_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="O22" s="54" t="str">
+      <c r="O22" s="41" t="str">
         <f>IF(_gfln_day_hour!S13="","",_gfln_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="P22" s="54" t="str">
+      <c r="P22" s="41" t="str">
         <f>IF(_gfln_day_hour!T13="","",_gfln_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="Q22" s="54" t="str">
+      <c r="Q22" s="41" t="str">
         <f>IF(_gfln_day_hour!U13="","",_gfln_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="R22" s="54" t="str">
+      <c r="R22" s="41" t="str">
         <f>IF(_gfln_day_hour!V13="","",_gfln_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="S22" s="54" t="str">
+      <c r="S22" s="41" t="str">
         <f>IF(_gfln_day_hour!W13="","",_gfln_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="T22" s="54" t="str">
+      <c r="T22" s="41" t="str">
         <f>IF(_gfln_day_hour!X13="","",_gfln_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="U22" s="54" t="str">
+      <c r="U22" s="41" t="str">
         <f>IF(_gfln_day_hour!Y13="","",_gfln_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="V22" s="54" t="str">
+      <c r="V22" s="41" t="str">
         <f>IF(_gfln_day_hour!Z13="","",_gfln_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="W22" s="54" t="str">
+      <c r="W22" s="41" t="str">
         <f>IF(_gfln_day_hour!AA13="","",_gfln_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="X22" s="24" t="str">
+      <c r="X22" s="39" t="str">
         <f>IF(_gfln_day_hour!AB13="","",_gfln_day_hour!AB13/1000)</f>
         <v/>
       </c>
-      <c r="Y22" s="54" t="str">
+      <c r="Y22" s="41" t="str">
         <f>IF(_gfln_day_hour!AC13="","",_gfln_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="Z22" s="54" t="str">
+      <c r="Z22" s="41" t="str">
         <f>IF(_gfln_day_hour!AD13="","",_gfln_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AA22" s="73" t="str">
+      <c r="AA22" s="42" t="str">
         <f>IF(_gfln_day_hour!AF13="","",100-_gfln_day_hour!AF13)</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B23" s="23">
+    <row ht="19.5" customHeight="1" r="23">
+      <c r="B23" s="38">
         <v>0.5</v>
       </c>
-      <c r="C23" s="24" t="str">
+      <c r="C23" s="39" t="str">
         <f>IF(_gfln_day_hour!A14="","",_gfln_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D23" s="24" t="str">
+      <c r="D23" s="39" t="str">
         <f>IF(_gfln_day_hour!B14="","",_gfln_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E23" s="24" t="str">
+      <c r="E23" s="39" t="str">
         <f>IF(_gfln_day_hour!C14="","",_gfln_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F23" s="24" t="str">
+      <c r="F23" s="39" t="str">
         <f>IF(_gfln_day_hour!D14="","",_gfln_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G23" s="24" t="str">
+      <c r="G23" s="39" t="str">
         <f>IF(_gfln_day_hour!E14="","",_gfln_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H23" s="25" t="str">
+      <c r="H23" s="40" t="str">
         <f>IF(_gfln_day_hour!F14="","",_gfln_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I23" s="25" t="str">
+      <c r="I23" s="40" t="str">
         <f>IF(_gfln_day_hour!G14="","",_gfln_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J23" s="24" t="str">
+      <c r="J23" s="39" t="str">
         <f>IF(_gfln_day_hour!H14="","",_gfln_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K23" s="54" t="str">
+      <c r="K23" s="41" t="str">
         <f>IF(_gfln_day_hour!I14="","",_gfln_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L23" s="54" t="str">
+      <c r="L23" s="41" t="str">
         <f>IF(_gfln_day_hour!N14="","",_gfln_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="M23" s="54" t="str">
+      <c r="M23" s="41" t="str">
         <f>IF(_gfln_day_hour!Q14="","",_gfln_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="N23" s="54" t="str">
+      <c r="N23" s="41" t="str">
         <f>IF(_gfln_day_hour!R14="","",_gfln_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="O23" s="54" t="str">
+      <c r="O23" s="41" t="str">
         <f>IF(_gfln_day_hour!S14="","",_gfln_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="P23" s="54" t="str">
+      <c r="P23" s="41" t="str">
         <f>IF(_gfln_day_hour!T14="","",_gfln_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="Q23" s="54" t="str">
+      <c r="Q23" s="41" t="str">
         <f>IF(_gfln_day_hour!U14="","",_gfln_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="R23" s="54" t="str">
+      <c r="R23" s="41" t="str">
         <f>IF(_gfln_day_hour!V14="","",_gfln_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="S23" s="54" t="str">
+      <c r="S23" s="41" t="str">
         <f>IF(_gfln_day_hour!W14="","",_gfln_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="T23" s="54" t="str">
+      <c r="T23" s="41" t="str">
         <f>IF(_gfln_day_hour!X14="","",_gfln_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="U23" s="54" t="str">
+      <c r="U23" s="41" t="str">
         <f>IF(_gfln_day_hour!Y14="","",_gfln_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="V23" s="54" t="str">
+      <c r="V23" s="41" t="str">
         <f>IF(_gfln_day_hour!Z14="","",_gfln_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="W23" s="54" t="str">
+      <c r="W23" s="41" t="str">
         <f>IF(_gfln_day_hour!AA14="","",_gfln_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="X23" s="24" t="str">
+      <c r="X23" s="39" t="str">
         <f>IF(_gfln_day_hour!AB14="","",_gfln_day_hour!AB14/1000)</f>
         <v/>
       </c>
-      <c r="Y23" s="54" t="str">
+      <c r="Y23" s="41" t="str">
         <f>IF(_gfln_day_hour!AC14="","",_gfln_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="Z23" s="54" t="str">
+      <c r="Z23" s="41" t="str">
         <f>IF(_gfln_day_hour!AD14="","",_gfln_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AA23" s="73" t="str">
+      <c r="AA23" s="42" t="str">
         <f>IF(_gfln_day_hour!AF14="","",100-_gfln_day_hour!AF14)</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B24" s="23">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="C24" s="24" t="str">
+    <row ht="19.5" customHeight="1" r="24">
+      <c r="B24" s="38">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C24" s="39" t="str">
         <f>IF(_gfln_day_hour!A15="","",_gfln_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D24" s="24" t="str">
+      <c r="D24" s="39" t="str">
         <f>IF(_gfln_day_hour!B15="","",_gfln_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E24" s="24" t="str">
+      <c r="E24" s="39" t="str">
         <f>IF(_gfln_day_hour!C15="","",_gfln_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F24" s="24" t="str">
+      <c r="F24" s="39" t="str">
         <f>IF(_gfln_day_hour!D15="","",_gfln_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G24" s="24" t="str">
+      <c r="G24" s="39" t="str">
         <f>IF(_gfln_day_hour!E15="","",_gfln_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H24" s="25" t="str">
+      <c r="H24" s="40" t="str">
         <f>IF(_gfln_day_hour!F15="","",_gfln_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I24" s="25" t="str">
+      <c r="I24" s="40" t="str">
         <f>IF(_gfln_day_hour!G15="","",_gfln_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J24" s="24" t="str">
+      <c r="J24" s="39" t="str">
         <f>IF(_gfln_day_hour!H15="","",_gfln_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K24" s="54" t="str">
+      <c r="K24" s="41" t="str">
         <f>IF(_gfln_day_hour!I15="","",_gfln_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L24" s="54" t="str">
+      <c r="L24" s="41" t="str">
         <f>IF(_gfln_day_hour!N15="","",_gfln_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="M24" s="54" t="str">
+      <c r="M24" s="41" t="str">
         <f>IF(_gfln_day_hour!Q15="","",_gfln_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="N24" s="54" t="str">
+      <c r="N24" s="41" t="str">
         <f>IF(_gfln_day_hour!R15="","",_gfln_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="O24" s="54" t="str">
+      <c r="O24" s="41" t="str">
         <f>IF(_gfln_day_hour!S15="","",_gfln_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="P24" s="54" t="str">
+      <c r="P24" s="41" t="str">
         <f>IF(_gfln_day_hour!T15="","",_gfln_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="Q24" s="54" t="str">
+      <c r="Q24" s="41" t="str">
         <f>IF(_gfln_day_hour!U15="","",_gfln_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="R24" s="54" t="str">
+      <c r="R24" s="41" t="str">
         <f>IF(_gfln_day_hour!V15="","",_gfln_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="S24" s="54" t="str">
+      <c r="S24" s="41" t="str">
         <f>IF(_gfln_day_hour!W15="","",_gfln_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="T24" s="54" t="str">
+      <c r="T24" s="41" t="str">
         <f>IF(_gfln_day_hour!X15="","",_gfln_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="U24" s="54" t="str">
+      <c r="U24" s="41" t="str">
         <f>IF(_gfln_day_hour!Y15="","",_gfln_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="V24" s="54" t="str">
+      <c r="V24" s="41" t="str">
         <f>IF(_gfln_day_hour!Z15="","",_gfln_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="W24" s="54" t="str">
+      <c r="W24" s="41" t="str">
         <f>IF(_gfln_day_hour!AA15="","",_gfln_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="X24" s="24" t="str">
+      <c r="X24" s="39" t="str">
         <f>IF(_gfln_day_hour!AB15="","",_gfln_day_hour!AB15/1000)</f>
         <v/>
       </c>
-      <c r="Y24" s="54" t="str">
+      <c r="Y24" s="41" t="str">
         <f>IF(_gfln_day_hour!AC15="","",_gfln_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="Z24" s="54" t="str">
+      <c r="Z24" s="41" t="str">
         <f>IF(_gfln_day_hour!AD15="","",_gfln_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AA24" s="73" t="str">
+      <c r="AA24" s="42" t="str">
         <f>IF(_gfln_day_hour!AF15="","",100-_gfln_day_hour!AF15)</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B25" s="23">
-        <v>0.583333333333334</v>
-      </c>
-      <c r="C25" s="24" t="str">
+    <row ht="19.5" customHeight="1" r="25">
+      <c r="B25" s="38">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="C25" s="39" t="str">
         <f>IF(_gfln_day_hour!A16="","",_gfln_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D25" s="24" t="str">
+      <c r="D25" s="39" t="str">
         <f>IF(_gfln_day_hour!B16="","",_gfln_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E25" s="24" t="str">
+      <c r="E25" s="39" t="str">
         <f>IF(_gfln_day_hour!C16="","",_gfln_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F25" s="24" t="str">
+      <c r="F25" s="39" t="str">
         <f>IF(_gfln_day_hour!D16="","",_gfln_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G25" s="24" t="str">
+      <c r="G25" s="39" t="str">
         <f>IF(_gfln_day_hour!E16="","",_gfln_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H25" s="25" t="str">
+      <c r="H25" s="40" t="str">
         <f>IF(_gfln_day_hour!F16="","",_gfln_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I25" s="25" t="str">
+      <c r="I25" s="40" t="str">
         <f>IF(_gfln_day_hour!G16="","",_gfln_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J25" s="24" t="str">
+      <c r="J25" s="39" t="str">
         <f>IF(_gfln_day_hour!H16="","",_gfln_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K25" s="54" t="str">
+      <c r="K25" s="41" t="str">
         <f>IF(_gfln_day_hour!I16="","",_gfln_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L25" s="54" t="str">
+      <c r="L25" s="41" t="str">
         <f>IF(_gfln_day_hour!N16="","",_gfln_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="M25" s="54" t="str">
+      <c r="M25" s="41" t="str">
         <f>IF(_gfln_day_hour!Q16="","",_gfln_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="N25" s="54" t="str">
+      <c r="N25" s="41" t="str">
         <f>IF(_gfln_day_hour!R16="","",_gfln_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="O25" s="54" t="str">
+      <c r="O25" s="41" t="str">
         <f>IF(_gfln_day_hour!S16="","",_gfln_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="P25" s="54" t="str">
+      <c r="P25" s="41" t="str">
         <f>IF(_gfln_day_hour!T16="","",_gfln_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="Q25" s="54" t="str">
+      <c r="Q25" s="41" t="str">
         <f>IF(_gfln_day_hour!U16="","",_gfln_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="R25" s="54" t="str">
+      <c r="R25" s="41" t="str">
         <f>IF(_gfln_day_hour!V16="","",_gfln_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="S25" s="54" t="str">
+      <c r="S25" s="41" t="str">
         <f>IF(_gfln_day_hour!W16="","",_gfln_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="T25" s="54" t="str">
+      <c r="T25" s="41" t="str">
         <f>IF(_gfln_day_hour!X16="","",_gfln_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="U25" s="54" t="str">
+      <c r="U25" s="41" t="str">
         <f>IF(_gfln_day_hour!Y16="","",_gfln_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="V25" s="54" t="str">
+      <c r="V25" s="41" t="str">
         <f>IF(_gfln_day_hour!Z16="","",_gfln_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="W25" s="54" t="str">
+      <c r="W25" s="41" t="str">
         <f>IF(_gfln_day_hour!AA16="","",_gfln_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="X25" s="24" t="str">
+      <c r="X25" s="39" t="str">
         <f>IF(_gfln_day_hour!AB16="","",_gfln_day_hour!AB16/1000)</f>
         <v/>
       </c>
-      <c r="Y25" s="54" t="str">
+      <c r="Y25" s="41" t="str">
         <f>IF(_gfln_day_hour!AC16="","",_gfln_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="Z25" s="54" t="str">
+      <c r="Z25" s="41" t="str">
         <f>IF(_gfln_day_hour!AD16="","",_gfln_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AA25" s="73" t="str">
+      <c r="AA25" s="42" t="str">
         <f>IF(_gfln_day_hour!AF16="","",100-_gfln_day_hour!AF16)</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B26" s="32">
+    <row ht="19.5" customHeight="1" r="26">
+      <c r="B26" s="53">
         <v>0.625</v>
       </c>
-      <c r="C26" s="33" t="str">
+      <c r="C26" s="54" t="str">
         <f>IF(_gfln_day_hour!A17="","",_gfln_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D26" s="33" t="str">
+      <c r="D26" s="54" t="str">
         <f>IF(_gfln_day_hour!B17="","",_gfln_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E26" s="33" t="str">
+      <c r="E26" s="54" t="str">
         <f>IF(_gfln_day_hour!C17="","",_gfln_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F26" s="33" t="str">
+      <c r="F26" s="54" t="str">
         <f>IF(_gfln_day_hour!D17="","",_gfln_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G26" s="33" t="str">
+      <c r="G26" s="54" t="str">
         <f>IF(_gfln_day_hour!E17="","",_gfln_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H26" s="34" t="str">
+      <c r="H26" s="55" t="str">
         <f>IF(_gfln_day_hour!F17="","",_gfln_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I26" s="34" t="str">
+      <c r="I26" s="55" t="str">
         <f>IF(_gfln_day_hour!G17="","",_gfln_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J26" s="33" t="str">
+      <c r="J26" s="54" t="str">
         <f>IF(_gfln_day_hour!H17="","",_gfln_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K26" s="57" t="str">
+      <c r="K26" s="56" t="str">
         <f>IF(_gfln_day_hour!I17="","",_gfln_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L26" s="57" t="str">
+      <c r="L26" s="56" t="str">
         <f>IF(_gfln_day_hour!N17="","",_gfln_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="M26" s="57" t="str">
+      <c r="M26" s="56" t="str">
         <f>IF(_gfln_day_hour!Q17="","",_gfln_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="N26" s="57" t="str">
+      <c r="N26" s="56" t="str">
         <f>IF(_gfln_day_hour!R17="","",_gfln_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="O26" s="57" t="str">
+      <c r="O26" s="56" t="str">
         <f>IF(_gfln_day_hour!S17="","",_gfln_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="P26" s="57" t="str">
+      <c r="P26" s="56" t="str">
         <f>IF(_gfln_day_hour!T17="","",_gfln_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="Q26" s="57" t="str">
+      <c r="Q26" s="56" t="str">
         <f>IF(_gfln_day_hour!U17="","",_gfln_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="R26" s="57" t="str">
+      <c r="R26" s="56" t="str">
         <f>IF(_gfln_day_hour!V17="","",_gfln_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="S26" s="57" t="str">
+      <c r="S26" s="56" t="str">
         <f>IF(_gfln_day_hour!W17="","",_gfln_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="T26" s="57" t="str">
+      <c r="T26" s="56" t="str">
         <f>IF(_gfln_day_hour!X17="","",_gfln_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="U26" s="57" t="str">
+      <c r="U26" s="56" t="str">
         <f>IF(_gfln_day_hour!Y17="","",_gfln_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="V26" s="57" t="str">
+      <c r="V26" s="56" t="str">
         <f>IF(_gfln_day_hour!Z17="","",_gfln_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="W26" s="57" t="str">
+      <c r="W26" s="56" t="str">
         <f>IF(_gfln_day_hour!AA17="","",_gfln_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="X26" s="33" t="str">
+      <c r="X26" s="54" t="str">
         <f>IF(_gfln_day_hour!AB17="","",_gfln_day_hour!AB17/1000)</f>
         <v/>
       </c>
-      <c r="Y26" s="57" t="str">
+      <c r="Y26" s="56" t="str">
         <f>IF(_gfln_day_hour!AC17="","",_gfln_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="Z26" s="57" t="str">
+      <c r="Z26" s="56" t="str">
         <f>IF(_gfln_day_hour!AD17="","",_gfln_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AA26" s="76" t="str">
+      <c r="AA26" s="57" t="str">
         <f>IF(_gfln_day_hour!AF17="","",100-_gfln_day_hour!AF17)</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B27" s="35">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C27" s="36" t="str">
+    <row ht="19.5" customHeight="1" r="27">
+      <c r="B27" s="58">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C27" s="59" t="str">
         <f>IF(_gfln_day_hour!A18="","",_gfln_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D27" s="36" t="str">
+      <c r="D27" s="59" t="str">
         <f>IF(_gfln_day_hour!B18="","",_gfln_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E27" s="36" t="str">
+      <c r="E27" s="59" t="str">
         <f>IF(_gfln_day_hour!C18="","",_gfln_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F27" s="36" t="str">
+      <c r="F27" s="59" t="str">
         <f>IF(_gfln_day_hour!D18="","",_gfln_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G27" s="36" t="str">
+      <c r="G27" s="59" t="str">
         <f>IF(_gfln_day_hour!E18="","",_gfln_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H27" s="37" t="str">
+      <c r="H27" s="60" t="str">
         <f>IF(_gfln_day_hour!F18="","",_gfln_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I27" s="37" t="str">
+      <c r="I27" s="60" t="str">
         <f>IF(_gfln_day_hour!G18="","",_gfln_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J27" s="36" t="str">
+      <c r="J27" s="59" t="str">
         <f>IF(_gfln_day_hour!H18="","",_gfln_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K27" s="58" t="str">
+      <c r="K27" s="61" t="str">
         <f>IF(_gfln_day_hour!I18="","",_gfln_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L27" s="58" t="str">
+      <c r="L27" s="61" t="str">
         <f>IF(_gfln_day_hour!N18="","",_gfln_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="M27" s="58" t="str">
+      <c r="M27" s="61" t="str">
         <f>IF(_gfln_day_hour!Q18="","",_gfln_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="N27" s="58" t="str">
+      <c r="N27" s="61" t="str">
         <f>IF(_gfln_day_hour!R18="","",_gfln_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="O27" s="58" t="str">
+      <c r="O27" s="61" t="str">
         <f>IF(_gfln_day_hour!S18="","",_gfln_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="P27" s="58" t="str">
+      <c r="P27" s="61" t="str">
         <f>IF(_gfln_day_hour!T18="","",_gfln_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="Q27" s="58" t="str">
+      <c r="Q27" s="61" t="str">
         <f>IF(_gfln_day_hour!U18="","",_gfln_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="R27" s="58" t="str">
+      <c r="R27" s="61" t="str">
         <f>IF(_gfln_day_hour!V18="","",_gfln_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="S27" s="58" t="str">
+      <c r="S27" s="61" t="str">
         <f>IF(_gfln_day_hour!W18="","",_gfln_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="T27" s="58" t="str">
+      <c r="T27" s="61" t="str">
         <f>IF(_gfln_day_hour!X18="","",_gfln_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="U27" s="58" t="str">
+      <c r="U27" s="61" t="str">
         <f>IF(_gfln_day_hour!Y18="","",_gfln_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="V27" s="58" t="str">
+      <c r="V27" s="61" t="str">
         <f>IF(_gfln_day_hour!Z18="","",_gfln_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="W27" s="58" t="str">
+      <c r="W27" s="61" t="str">
         <f>IF(_gfln_day_hour!AA18="","",_gfln_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="X27" s="36" t="str">
+      <c r="X27" s="59" t="str">
         <f>IF(_gfln_day_hour!AB18="","",_gfln_day_hour!AB18/1000)</f>
         <v/>
       </c>
-      <c r="Y27" s="58" t="str">
+      <c r="Y27" s="61" t="str">
         <f>IF(_gfln_day_hour!AC18="","",_gfln_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="Z27" s="58" t="str">
+      <c r="Z27" s="61" t="str">
         <f>IF(_gfln_day_hour!AD18="","",_gfln_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AA27" s="77" t="str">
+      <c r="AA27" s="62" t="str">
         <f>IF(_gfln_day_hour!AF18="","",100-_gfln_day_hour!AF18)</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B28" s="23">
-        <v>0.708333333333334</v>
-      </c>
-      <c r="C28" s="24" t="str">
+    <row ht="19.5" customHeight="1" r="28">
+      <c r="B28" s="38">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="C28" s="39" t="str">
         <f>IF(_gfln_day_hour!A19="","",_gfln_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D28" s="24" t="str">
+      <c r="D28" s="39" t="str">
         <f>IF(_gfln_day_hour!B19="","",_gfln_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E28" s="24" t="str">
+      <c r="E28" s="39" t="str">
         <f>IF(_gfln_day_hour!C19="","",_gfln_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F28" s="24" t="str">
+      <c r="F28" s="39" t="str">
         <f>IF(_gfln_day_hour!D19="","",_gfln_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G28" s="24" t="str">
+      <c r="G28" s="39" t="str">
         <f>IF(_gfln_day_hour!E19="","",_gfln_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H28" s="25" t="str">
+      <c r="H28" s="40" t="str">
         <f>IF(_gfln_day_hour!F19="","",_gfln_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I28" s="25" t="str">
+      <c r="I28" s="40" t="str">
         <f>IF(_gfln_day_hour!G19="","",_gfln_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J28" s="24" t="str">
+      <c r="J28" s="39" t="str">
         <f>IF(_gfln_day_hour!H19="","",_gfln_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K28" s="54" t="str">
+      <c r="K28" s="41" t="str">
         <f>IF(_gfln_day_hour!I19="","",_gfln_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L28" s="54" t="str">
+      <c r="L28" s="41" t="str">
         <f>IF(_gfln_day_hour!N19="","",_gfln_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="M28" s="54" t="str">
+      <c r="M28" s="41" t="str">
         <f>IF(_gfln_day_hour!Q19="","",_gfln_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="N28" s="54" t="str">
+      <c r="N28" s="41" t="str">
         <f>IF(_gfln_day_hour!R19="","",_gfln_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="O28" s="54" t="str">
+      <c r="O28" s="41" t="str">
         <f>IF(_gfln_day_hour!S19="","",_gfln_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="P28" s="54" t="str">
+      <c r="P28" s="41" t="str">
         <f>IF(_gfln_day_hour!T19="","",_gfln_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="Q28" s="54" t="str">
+      <c r="Q28" s="41" t="str">
         <f>IF(_gfln_day_hour!U19="","",_gfln_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="R28" s="54" t="str">
+      <c r="R28" s="41" t="str">
         <f>IF(_gfln_day_hour!V19="","",_gfln_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="S28" s="54" t="str">
+      <c r="S28" s="41" t="str">
         <f>IF(_gfln_day_hour!W19="","",_gfln_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="T28" s="54" t="str">
+      <c r="T28" s="41" t="str">
         <f>IF(_gfln_day_hour!X19="","",_gfln_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="U28" s="54" t="str">
+      <c r="U28" s="41" t="str">
         <f>IF(_gfln_day_hour!Y19="","",_gfln_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="V28" s="54" t="str">
+      <c r="V28" s="41" t="str">
         <f>IF(_gfln_day_hour!Z19="","",_gfln_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="W28" s="54" t="str">
+      <c r="W28" s="41" t="str">
         <f>IF(_gfln_day_hour!AA19="","",_gfln_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="X28" s="24" t="str">
+      <c r="X28" s="39" t="str">
         <f>IF(_gfln_day_hour!AB19="","",_gfln_day_hour!AB19/1000)</f>
         <v/>
       </c>
-      <c r="Y28" s="54" t="str">
+      <c r="Y28" s="41" t="str">
         <f>IF(_gfln_day_hour!AC19="","",_gfln_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="Z28" s="54" t="str">
+      <c r="Z28" s="41" t="str">
         <f>IF(_gfln_day_hour!AD19="","",_gfln_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AA28" s="73" t="str">
+      <c r="AA28" s="42" t="str">
         <f>IF(_gfln_day_hour!AF19="","",100-_gfln_day_hour!AF19)</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B29" s="23">
+    <row ht="19.5" customHeight="1" r="29">
+      <c r="B29" s="38">
         <v>0.75</v>
       </c>
-      <c r="C29" s="24" t="str">
+      <c r="C29" s="39" t="str">
         <f>IF(_gfln_day_hour!A20="","",_gfln_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D29" s="24" t="str">
+      <c r="D29" s="39" t="str">
         <f>IF(_gfln_day_hour!B20="","",_gfln_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E29" s="24" t="str">
+      <c r="E29" s="39" t="str">
         <f>IF(_gfln_day_hour!C20="","",_gfln_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F29" s="24" t="str">
+      <c r="F29" s="39" t="str">
         <f>IF(_gfln_day_hour!D20="","",_gfln_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G29" s="24" t="str">
+      <c r="G29" s="39" t="str">
         <f>IF(_gfln_day_hour!E20="","",_gfln_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H29" s="25" t="str">
+      <c r="H29" s="40" t="str">
         <f>IF(_gfln_day_hour!F20="","",_gfln_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I29" s="25" t="str">
+      <c r="I29" s="40" t="str">
         <f>IF(_gfln_day_hour!G20="","",_gfln_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J29" s="24" t="str">
+      <c r="J29" s="39" t="str">
         <f>IF(_gfln_day_hour!H20="","",_gfln_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K29" s="54" t="str">
+      <c r="K29" s="41" t="str">
         <f>IF(_gfln_day_hour!I20="","",_gfln_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L29" s="54" t="str">
+      <c r="L29" s="41" t="str">
         <f>IF(_gfln_day_hour!N20="","",_gfln_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="M29" s="54" t="str">
+      <c r="M29" s="41" t="str">
         <f>IF(_gfln_day_hour!Q20="","",_gfln_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="N29" s="54" t="str">
+      <c r="N29" s="41" t="str">
         <f>IF(_gfln_day_hour!R20="","",_gfln_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="O29" s="54" t="str">
+      <c r="O29" s="41" t="str">
         <f>IF(_gfln_day_hour!S20="","",_gfln_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="P29" s="54" t="str">
+      <c r="P29" s="41" t="str">
         <f>IF(_gfln_day_hour!T20="","",_gfln_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="Q29" s="54" t="str">
+      <c r="Q29" s="41" t="str">
         <f>IF(_gfln_day_hour!U20="","",_gfln_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="R29" s="54" t="str">
+      <c r="R29" s="41" t="str">
         <f>IF(_gfln_day_hour!V20="","",_gfln_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="S29" s="54" t="str">
+      <c r="S29" s="41" t="str">
         <f>IF(_gfln_day_hour!W20="","",_gfln_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="T29" s="54" t="str">
+      <c r="T29" s="41" t="str">
         <f>IF(_gfln_day_hour!X20="","",_gfln_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="U29" s="54" t="str">
+      <c r="U29" s="41" t="str">
         <f>IF(_gfln_day_hour!Y20="","",_gfln_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="V29" s="54" t="str">
+      <c r="V29" s="41" t="str">
         <f>IF(_gfln_day_hour!Z20="","",_gfln_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="W29" s="54" t="str">
+      <c r="W29" s="41" t="str">
         <f>IF(_gfln_day_hour!AA20="","",_gfln_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="X29" s="24" t="str">
+      <c r="X29" s="39" t="str">
         <f>IF(_gfln_day_hour!AB20="","",_gfln_day_hour!AB20/1000)</f>
         <v/>
       </c>
-      <c r="Y29" s="54" t="str">
+      <c r="Y29" s="41" t="str">
         <f>IF(_gfln_day_hour!AC20="","",_gfln_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="Z29" s="54" t="str">
+      <c r="Z29" s="41" t="str">
         <f>IF(_gfln_day_hour!AD20="","",_gfln_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AA29" s="73" t="str">
+      <c r="AA29" s="42" t="str">
         <f>IF(_gfln_day_hour!AF20="","",100-_gfln_day_hour!AF20)</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B30" s="23">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C30" s="24" t="str">
+    <row ht="19.5" customHeight="1" r="30">
+      <c r="B30" s="38">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C30" s="39" t="str">
         <f>IF(_gfln_day_hour!A21="","",_gfln_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D30" s="24" t="str">
+      <c r="D30" s="39" t="str">
         <f>IF(_gfln_day_hour!B21="","",_gfln_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E30" s="24" t="str">
+      <c r="E30" s="39" t="str">
         <f>IF(_gfln_day_hour!C21="","",_gfln_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F30" s="24" t="str">
+      <c r="F30" s="39" t="str">
         <f>IF(_gfln_day_hour!D21="","",_gfln_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G30" s="24" t="str">
+      <c r="G30" s="39" t="str">
         <f>IF(_gfln_day_hour!E21="","",_gfln_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H30" s="25" t="str">
+      <c r="H30" s="40" t="str">
         <f>IF(_gfln_day_hour!F21="","",_gfln_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I30" s="25" t="str">
+      <c r="I30" s="40" t="str">
         <f>IF(_gfln_day_hour!G21="","",_gfln_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J30" s="24" t="str">
+      <c r="J30" s="39" t="str">
         <f>IF(_gfln_day_hour!H21="","",_gfln_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K30" s="54" t="str">
+      <c r="K30" s="41" t="str">
         <f>IF(_gfln_day_hour!I21="","",_gfln_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L30" s="54" t="str">
+      <c r="L30" s="41" t="str">
         <f>IF(_gfln_day_hour!N21="","",_gfln_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="M30" s="54" t="str">
+      <c r="M30" s="41" t="str">
         <f>IF(_gfln_day_hour!Q21="","",_gfln_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="N30" s="54" t="str">
+      <c r="N30" s="41" t="str">
         <f>IF(_gfln_day_hour!R21="","",_gfln_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="O30" s="54" t="str">
+      <c r="O30" s="41" t="str">
         <f>IF(_gfln_day_hour!S21="","",_gfln_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="P30" s="54" t="str">
+      <c r="P30" s="41" t="str">
         <f>IF(_gfln_day_hour!T21="","",_gfln_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="Q30" s="54" t="str">
+      <c r="Q30" s="41" t="str">
         <f>IF(_gfln_day_hour!U21="","",_gfln_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="R30" s="54" t="str">
+      <c r="R30" s="41" t="str">
         <f>IF(_gfln_day_hour!V21="","",_gfln_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="S30" s="54" t="str">
+      <c r="S30" s="41" t="str">
         <f>IF(_gfln_day_hour!W21="","",_gfln_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="T30" s="54" t="str">
+      <c r="T30" s="41" t="str">
         <f>IF(_gfln_day_hour!X21="","",_gfln_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="U30" s="54" t="str">
+      <c r="U30" s="41" t="str">
         <f>IF(_gfln_day_hour!Y21="","",_gfln_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="V30" s="54" t="str">
+      <c r="V30" s="41" t="str">
         <f>IF(_gfln_day_hour!Z21="","",_gfln_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="W30" s="54" t="str">
+      <c r="W30" s="41" t="str">
         <f>IF(_gfln_day_hour!AA21="","",_gfln_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="X30" s="24" t="str">
+      <c r="X30" s="39" t="str">
         <f>IF(_gfln_day_hour!AB21="","",_gfln_day_hour!AB21/1000)</f>
         <v/>
       </c>
-      <c r="Y30" s="54" t="str">
+      <c r="Y30" s="41" t="str">
         <f>IF(_gfln_day_hour!AC21="","",_gfln_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="Z30" s="54" t="str">
+      <c r="Z30" s="41" t="str">
         <f>IF(_gfln_day_hour!AD21="","",_gfln_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AA30" s="73" t="str">
+      <c r="AA30" s="42" t="str">
         <f>IF(_gfln_day_hour!AF21="","",100-_gfln_day_hour!AF21)</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B31" s="23">
-        <v>0.833333333333334</v>
-      </c>
-      <c r="C31" s="24" t="str">
+    <row ht="19.5" customHeight="1" r="31">
+      <c r="B31" s="38">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="C31" s="39" t="str">
         <f>IF(_gfln_day_hour!A22="","",_gfln_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D31" s="24" t="str">
+      <c r="D31" s="39" t="str">
         <f>IF(_gfln_day_hour!B22="","",_gfln_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E31" s="24" t="str">
+      <c r="E31" s="39" t="str">
         <f>IF(_gfln_day_hour!C22="","",_gfln_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F31" s="24" t="str">
+      <c r="F31" s="39" t="str">
         <f>IF(_gfln_day_hour!D22="","",_gfln_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G31" s="24" t="str">
+      <c r="G31" s="39" t="str">
         <f>IF(_gfln_day_hour!E22="","",_gfln_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H31" s="25" t="str">
+      <c r="H31" s="40" t="str">
         <f>IF(_gfln_day_hour!F22="","",_gfln_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I31" s="25" t="str">
+      <c r="I31" s="40" t="str">
         <f>IF(_gfln_day_hour!G22="","",_gfln_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J31" s="24" t="str">
+      <c r="J31" s="39" t="str">
         <f>IF(_gfln_day_hour!H22="","",_gfln_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K31" s="54" t="str">
+      <c r="K31" s="41" t="str">
         <f>IF(_gfln_day_hour!I22="","",_gfln_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L31" s="54" t="str">
+      <c r="L31" s="41" t="str">
         <f>IF(_gfln_day_hour!N22="","",_gfln_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="M31" s="54" t="str">
+      <c r="M31" s="41" t="str">
         <f>IF(_gfln_day_hour!Q22="","",_gfln_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="N31" s="54" t="str">
+      <c r="N31" s="41" t="str">
         <f>IF(_gfln_day_hour!R22="","",_gfln_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="O31" s="54" t="str">
+      <c r="O31" s="41" t="str">
         <f>IF(_gfln_day_hour!S22="","",_gfln_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="P31" s="54" t="str">
+      <c r="P31" s="41" t="str">
         <f>IF(_gfln_day_hour!T22="","",_gfln_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="Q31" s="54" t="str">
+      <c r="Q31" s="41" t="str">
         <f>IF(_gfln_day_hour!U22="","",_gfln_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="R31" s="54" t="str">
+      <c r="R31" s="41" t="str">
         <f>IF(_gfln_day_hour!V22="","",_gfln_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="S31" s="54" t="str">
+      <c r="S31" s="41" t="str">
         <f>IF(_gfln_day_hour!W22="","",_gfln_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="T31" s="54" t="str">
+      <c r="T31" s="41" t="str">
         <f>IF(_gfln_day_hour!X22="","",_gfln_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="U31" s="54" t="str">
+      <c r="U31" s="41" t="str">
         <f>IF(_gfln_day_hour!Y22="","",_gfln_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="V31" s="54" t="str">
+      <c r="V31" s="41" t="str">
         <f>IF(_gfln_day_hour!Z22="","",_gfln_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="W31" s="54" t="str">
+      <c r="W31" s="41" t="str">
         <f>IF(_gfln_day_hour!AA22="","",_gfln_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="X31" s="24" t="str">
+      <c r="X31" s="39" t="str">
         <f>IF(_gfln_day_hour!AB22="","",_gfln_day_hour!AB22/1000)</f>
         <v/>
       </c>
-      <c r="Y31" s="54" t="str">
+      <c r="Y31" s="41" t="str">
         <f>IF(_gfln_day_hour!AC22="","",_gfln_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="Z31" s="54" t="str">
+      <c r="Z31" s="41" t="str">
         <f>IF(_gfln_day_hour!AD22="","",_gfln_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AA31" s="73" t="str">
+      <c r="AA31" s="42" t="str">
         <f>IF(_gfln_day_hour!AF22="","",100-_gfln_day_hour!AF22)</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B32" s="23">
+    <row ht="19.5" customHeight="1" r="32">
+      <c r="B32" s="38">
         <v>0.875</v>
       </c>
-      <c r="C32" s="24" t="str">
+      <c r="C32" s="39" t="str">
         <f>IF(_gfln_day_hour!A23="","",_gfln_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D32" s="24" t="str">
+      <c r="D32" s="39" t="str">
         <f>IF(_gfln_day_hour!B23="","",_gfln_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E32" s="24" t="str">
+      <c r="E32" s="39" t="str">
         <f>IF(_gfln_day_hour!C23="","",_gfln_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F32" s="24" t="str">
+      <c r="F32" s="39" t="str">
         <f>IF(_gfln_day_hour!D23="","",_gfln_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G32" s="24" t="str">
+      <c r="G32" s="39" t="str">
         <f>IF(_gfln_day_hour!E23="","",_gfln_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H32" s="25" t="str">
+      <c r="H32" s="40" t="str">
         <f>IF(_gfln_day_hour!F23="","",_gfln_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I32" s="25" t="str">
+      <c r="I32" s="40" t="str">
         <f>IF(_gfln_day_hour!G23="","",_gfln_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J32" s="24" t="str">
+      <c r="J32" s="39" t="str">
         <f>IF(_gfln_day_hour!H23="","",_gfln_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K32" s="54" t="str">
+      <c r="K32" s="41" t="str">
         <f>IF(_gfln_day_hour!I23="","",_gfln_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L32" s="54" t="str">
+      <c r="L32" s="41" t="str">
         <f>IF(_gfln_day_hour!N23="","",_gfln_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="M32" s="54" t="str">
+      <c r="M32" s="41" t="str">
         <f>IF(_gfln_day_hour!Q23="","",_gfln_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="N32" s="54" t="str">
+      <c r="N32" s="41" t="str">
         <f>IF(_gfln_day_hour!R23="","",_gfln_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="O32" s="54" t="str">
+      <c r="O32" s="41" t="str">
         <f>IF(_gfln_day_hour!S23="","",_gfln_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="P32" s="54" t="str">
+      <c r="P32" s="41" t="str">
         <f>IF(_gfln_day_hour!T23="","",_gfln_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="Q32" s="54" t="str">
+      <c r="Q32" s="41" t="str">
         <f>IF(_gfln_day_hour!U23="","",_gfln_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="R32" s="54" t="str">
+      <c r="R32" s="41" t="str">
         <f>IF(_gfln_day_hour!V23="","",_gfln_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="S32" s="54" t="str">
+      <c r="S32" s="41" t="str">
         <f>IF(_gfln_day_hour!W23="","",_gfln_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="T32" s="54" t="str">
+      <c r="T32" s="41" t="str">
         <f>IF(_gfln_day_hour!X23="","",_gfln_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="U32" s="54" t="str">
+      <c r="U32" s="41" t="str">
         <f>IF(_gfln_day_hour!Y23="","",_gfln_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="V32" s="54" t="str">
+      <c r="V32" s="41" t="str">
         <f>IF(_gfln_day_hour!Z23="","",_gfln_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="W32" s="54" t="str">
+      <c r="W32" s="41" t="str">
         <f>IF(_gfln_day_hour!AA23="","",_gfln_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="X32" s="24" t="str">
+      <c r="X32" s="39" t="str">
         <f>IF(_gfln_day_hour!AB23="","",_gfln_day_hour!AB23/1000)</f>
         <v/>
       </c>
-      <c r="Y32" s="54" t="str">
+      <c r="Y32" s="41" t="str">
         <f>IF(_gfln_day_hour!AC23="","",_gfln_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="Z32" s="54" t="str">
+      <c r="Z32" s="41" t="str">
         <f>IF(_gfln_day_hour!AD23="","",_gfln_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AA32" s="73" t="str">
+      <c r="AA32" s="42" t="str">
         <f>IF(_gfln_day_hour!AF23="","",100-_gfln_day_hour!AF23)</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B33" s="23">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C33" s="24" t="str">
+    <row ht="19.5" customHeight="1" r="33">
+      <c r="B33" s="38">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C33" s="39" t="str">
         <f>IF(_gfln_day_hour!A24="","",_gfln_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D33" s="24" t="str">
+      <c r="D33" s="39" t="str">
         <f>IF(_gfln_day_hour!B24="","",_gfln_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E33" s="24" t="str">
+      <c r="E33" s="39" t="str">
         <f>IF(_gfln_day_hour!C24="","",_gfln_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F33" s="24" t="str">
+      <c r="F33" s="39" t="str">
         <f>IF(_gfln_day_hour!D24="","",_gfln_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G33" s="24" t="str">
+      <c r="G33" s="39" t="str">
         <f>IF(_gfln_day_hour!E24="","",_gfln_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H33" s="25" t="str">
+      <c r="H33" s="40" t="str">
         <f>IF(_gfln_day_hour!F24="","",_gfln_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I33" s="25" t="str">
+      <c r="I33" s="40" t="str">
         <f>IF(_gfln_day_hour!G24="","",_gfln_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J33" s="24" t="str">
+      <c r="J33" s="39" t="str">
         <f>IF(_gfln_day_hour!H24="","",_gfln_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K33" s="54" t="str">
+      <c r="K33" s="41" t="str">
         <f>IF(_gfln_day_hour!I24="","",_gfln_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L33" s="54" t="str">
+      <c r="L33" s="41" t="str">
         <f>IF(_gfln_day_hour!N24="","",_gfln_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="M33" s="54" t="str">
+      <c r="M33" s="41" t="str">
         <f>IF(_gfln_day_hour!Q24="","",_gfln_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="N33" s="54" t="str">
+      <c r="N33" s="41" t="str">
         <f>IF(_gfln_day_hour!R24="","",_gfln_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="O33" s="54" t="str">
+      <c r="O33" s="41" t="str">
         <f>IF(_gfln_day_hour!S24="","",_gfln_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="P33" s="54" t="str">
+      <c r="P33" s="41" t="str">
         <f>IF(_gfln_day_hour!T24="","",_gfln_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="Q33" s="54" t="str">
+      <c r="Q33" s="41" t="str">
         <f>IF(_gfln_day_hour!U24="","",_gfln_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="R33" s="54" t="str">
+      <c r="R33" s="41" t="str">
         <f>IF(_gfln_day_hour!V24="","",_gfln_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="S33" s="54" t="str">
+      <c r="S33" s="41" t="str">
         <f>IF(_gfln_day_hour!W24="","",_gfln_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="T33" s="54" t="str">
+      <c r="T33" s="41" t="str">
         <f>IF(_gfln_day_hour!X24="","",_gfln_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="U33" s="54" t="str">
+      <c r="U33" s="41" t="str">
         <f>IF(_gfln_day_hour!Y24="","",_gfln_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="V33" s="54" t="str">
+      <c r="V33" s="41" t="str">
         <f>IF(_gfln_day_hour!Z24="","",_gfln_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="W33" s="54" t="str">
+      <c r="W33" s="41" t="str">
         <f>IF(_gfln_day_hour!AA24="","",_gfln_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="X33" s="24" t="str">
+      <c r="X33" s="39" t="str">
         <f>IF(_gfln_day_hour!AB24="","",_gfln_day_hour!AB24/1000)</f>
         <v/>
       </c>
-      <c r="Y33" s="54" t="str">
+      <c r="Y33" s="41" t="str">
         <f>IF(_gfln_day_hour!AC24="","",_gfln_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="Z33" s="54" t="str">
+      <c r="Z33" s="41" t="str">
         <f>IF(_gfln_day_hour!AD24="","",_gfln_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AA33" s="73" t="str">
+      <c r="AA33" s="42" t="str">
         <f>IF(_gfln_day_hour!AF24="","",100-_gfln_day_hour!AF24)</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B34" s="23">
-        <v>0.958333333333334</v>
-      </c>
-      <c r="C34" s="24" t="str">
+    <row ht="19.5" customHeight="1" r="34">
+      <c r="B34" s="38">
+        <v>0.95833333333333404</v>
+      </c>
+      <c r="C34" s="39" t="str">
         <f>IF(_gfln_day_hour!A25="","",_gfln_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D34" s="24" t="str">
+      <c r="D34" s="39" t="str">
         <f>IF(_gfln_day_hour!B25="","",_gfln_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E34" s="24" t="str">
+      <c r="E34" s="39" t="str">
         <f>IF(_gfln_day_hour!C25="","",_gfln_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F34" s="24" t="str">
+      <c r="F34" s="39" t="str">
         <f>IF(_gfln_day_hour!D25="","",_gfln_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G34" s="24" t="str">
+      <c r="G34" s="39" t="str">
         <f>IF(_gfln_day_hour!E25="","",_gfln_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H34" s="25" t="str">
+      <c r="H34" s="40" t="str">
         <f>IF(_gfln_day_hour!F25="","",_gfln_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I34" s="25" t="str">
+      <c r="I34" s="40" t="str">
         <f>IF(_gfln_day_hour!G25="","",_gfln_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J34" s="24" t="str">
+      <c r="J34" s="39" t="str">
         <f>IF(_gfln_day_hour!H25="","",_gfln_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K34" s="54" t="str">
+      <c r="K34" s="41" t="str">
         <f>IF(_gfln_day_hour!I25="","",_gfln_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L34" s="54" t="str">
+      <c r="L34" s="41" t="str">
         <f>IF(_gfln_day_hour!N25="","",_gfln_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="M34" s="54" t="str">
+      <c r="M34" s="41" t="str">
         <f>IF(_gfln_day_hour!Q25="","",_gfln_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="N34" s="54" t="str">
+      <c r="N34" s="41" t="str">
         <f>IF(_gfln_day_hour!R25="","",_gfln_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="O34" s="54" t="str">
+      <c r="O34" s="41" t="str">
         <f>IF(_gfln_day_hour!S25="","",_gfln_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="P34" s="54" t="str">
+      <c r="P34" s="41" t="str">
         <f>IF(_gfln_day_hour!T25="","",_gfln_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="Q34" s="54" t="str">
+      <c r="Q34" s="41" t="str">
         <f>IF(_gfln_day_hour!U25="","",_gfln_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="R34" s="54" t="str">
+      <c r="R34" s="41" t="str">
         <f>IF(_gfln_day_hour!V25="","",_gfln_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="S34" s="54" t="str">
+      <c r="S34" s="41" t="str">
         <f>IF(_gfln_day_hour!W25="","",_gfln_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="T34" s="54" t="str">
+      <c r="T34" s="41" t="str">
         <f>IF(_gfln_day_hour!X25="","",_gfln_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="U34" s="54" t="str">
+      <c r="U34" s="41" t="str">
         <f>IF(_gfln_day_hour!Y25="","",_gfln_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="V34" s="54" t="str">
+      <c r="V34" s="41" t="str">
         <f>IF(_gfln_day_hour!Z25="","",_gfln_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="W34" s="54" t="str">
+      <c r="W34" s="41" t="str">
         <f>IF(_gfln_day_hour!AA25="","",_gfln_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="X34" s="24" t="str">
+      <c r="X34" s="39" t="str">
         <f>IF(_gfln_day_hour!AB25="","",_gfln_day_hour!AB25/1000)</f>
         <v/>
       </c>
-      <c r="Y34" s="54" t="str">
+      <c r="Y34" s="41" t="str">
         <f>IF(_gfln_day_hour!AC25="","",_gfln_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="Z34" s="54" t="str">
+      <c r="Z34" s="41" t="str">
         <f>IF(_gfln_day_hour!AD25="","",_gfln_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AA34" s="73" t="str">
+      <c r="AA34" s="42" t="str">
         <f>IF(_gfln_day_hour!AF25="","",100-_gfln_day_hour!AF25)</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="19.5" customHeight="1" spans="2:27">
-      <c r="B35" s="38" t="s">
+    <row ht="19.5" customHeight="1" r="35">
+      <c r="B35" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="39" t="str">
-        <f t="shared" ref="C35:AA35" si="0">IFERROR(AVERAGE(C11:C34),"")</f>
-        <v/>
-      </c>
-      <c r="D35" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E35" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G35" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H35" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I35" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J35" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X35" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z35" s="59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA35" s="78" t="str">
-        <f t="shared" si="0"/>
+      <c r="C35" s="64" t="str">
+        <f>IFERROR(AVERAGE(C11:C34),"")</f>
+        <v/>
+      </c>
+      <c r="D35" s="64" t="str">
+        <f>IFERROR(AVERAGE(D11:D34),"")</f>
+        <v/>
+      </c>
+      <c r="E35" s="64" t="str">
+        <f>IFERROR(AVERAGE(E11:E34),"")</f>
+        <v/>
+      </c>
+      <c r="F35" s="64" t="str">
+        <f>IFERROR(AVERAGE(F11:F34),"")</f>
+        <v/>
+      </c>
+      <c r="G35" s="64" t="str">
+        <f>IFERROR(AVERAGE(G11:G34),"")</f>
+        <v/>
+      </c>
+      <c r="H35" s="65" t="str">
+        <f>IFERROR(AVERAGE(H11:H34),"")</f>
+        <v/>
+      </c>
+      <c r="I35" s="65" t="str">
+        <f>IFERROR(AVERAGE(I11:I34),"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="64" t="str">
+        <f>IFERROR(AVERAGE(J11:J34),"")</f>
+        <v/>
+      </c>
+      <c r="K35" s="66" t="str">
+        <f>IFERROR(AVERAGE(K11:K34),"")</f>
+        <v/>
+      </c>
+      <c r="L35" s="66" t="str">
+        <f>IFERROR(AVERAGE(L11:L34),"")</f>
+        <v/>
+      </c>
+      <c r="M35" s="66" t="str">
+        <f>IFERROR(AVERAGE(M11:M34),"")</f>
+        <v/>
+      </c>
+      <c r="N35" s="66" t="str">
+        <f>IFERROR(AVERAGE(N11:N34),"")</f>
+        <v/>
+      </c>
+      <c r="O35" s="66" t="str">
+        <f>IFERROR(AVERAGE(O11:O34),"")</f>
+        <v/>
+      </c>
+      <c r="P35" s="66" t="str">
+        <f>IFERROR(AVERAGE(P11:P34),"")</f>
+        <v/>
+      </c>
+      <c r="Q35" s="66" t="str">
+        <f>IFERROR(AVERAGE(Q11:Q34),"")</f>
+        <v/>
+      </c>
+      <c r="R35" s="66" t="str">
+        <f>IFERROR(AVERAGE(R11:R34),"")</f>
+        <v/>
+      </c>
+      <c r="S35" s="66" t="str">
+        <f>IFERROR(AVERAGE(S11:S34),"")</f>
+        <v/>
+      </c>
+      <c r="T35" s="66" t="str">
+        <f>IFERROR(AVERAGE(T11:T34),"")</f>
+        <v/>
+      </c>
+      <c r="U35" s="66" t="str">
+        <f>IFERROR(AVERAGE(U11:U34),"")</f>
+        <v/>
+      </c>
+      <c r="V35" s="66" t="str">
+        <f>IFERROR(AVERAGE(V11:V34),"")</f>
+        <v/>
+      </c>
+      <c r="W35" s="66" t="str">
+        <f>IFERROR(AVERAGE(W11:W34),"")</f>
+        <v/>
+      </c>
+      <c r="X35" s="64" t="str">
+        <f>IFERROR(AVERAGE(X11:X34),"")</f>
+        <v/>
+      </c>
+      <c r="Y35" s="66" t="str">
+        <f>IFERROR(AVERAGE(Y11:Y34),"")</f>
+        <v/>
+      </c>
+      <c r="Z35" s="66" t="str">
+        <f>IFERROR(AVERAGE(Z11:Z34),"")</f>
+        <v/>
+      </c>
+      <c r="AA35" s="67" t="str">
+        <f>IFERROR(AVERAGE(AA11:AA34),"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="86.25" customHeight="1" spans="2:27">
-      <c r="B36" s="41" t="s">
+    <row ht="112.5" customHeight="1" r="36">
+      <c r="B36" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="42" t="s">
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="79"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="70"/>
+      <c r="V36" s="70"/>
+      <c r="W36" s="70"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="70"/>
+      <c r="Z36" s="70"/>
+      <c r="AA36" s="73"/>
     </row>
-    <row r="37" ht="23.25" customHeight="1" spans="2:27">
-      <c r="B37" s="44"/>
-      <c r="C37" s="45" t="s">
+    <row ht="23.25" customHeight="1" r="37">
+      <c r="B37" s="74"/>
+      <c r="C37" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="45" t="s">
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="80"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="B1:AA1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="T2:X2"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="M3:O4"/>
+    <mergeCell ref="P3:S4"/>
+    <mergeCell ref="T3:V4"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="S36:AA36"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="S37:AA37"/>
     <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Z3:Z5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -5518,374 +5343,407 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="X3:X5"/>
-    <mergeCell ref="Y3:Y5"/>
-    <mergeCell ref="Z3:Z5"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="M3:O4"/>
-    <mergeCell ref="P3:S4"/>
-    <mergeCell ref="T3:V4"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="S36:AA36"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="S37:AA37"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C34">
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="lessThan">
-      <formula>C$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" priority="74" dxfId="0" operator="greaterThan">
       <formula>C$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C34">
+    <cfRule type="cellIs" priority="73" dxfId="1" operator="lessThan">
+      <formula>C$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D11:D34">
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="lessThan">
-      <formula>D$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" priority="64" dxfId="2" operator="greaterThan">
       <formula>D$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D34">
+    <cfRule type="cellIs" priority="63" dxfId="3" operator="lessThan">
+      <formula>D$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E11:E34">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="lessThan">
-      <formula>E$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" priority="62" dxfId="4" operator="greaterThan">
       <formula>E$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E34">
+    <cfRule type="cellIs" priority="61" dxfId="5" operator="lessThan">
+      <formula>E$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F11:F34">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="lessThan">
-      <formula>F$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" priority="60" dxfId="6" operator="greaterThan">
       <formula>F$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F34">
+    <cfRule type="cellIs" priority="59" dxfId="7" operator="lessThan">
+      <formula>F$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G11:G34">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThan">
-      <formula>G$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" priority="58" dxfId="8" operator="greaterThan">
       <formula>G$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G34">
+    <cfRule type="cellIs" priority="57" dxfId="9" operator="lessThan">
+      <formula>G$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H11:H34">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="lessThan">
-      <formula>H$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" priority="56" dxfId="10" operator="greaterThan">
       <formula>H$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H34">
+    <cfRule type="cellIs" priority="55" dxfId="11" operator="lessThan">
+      <formula>H$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I11:I34">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="lessThan">
-      <formula>I$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" priority="54" dxfId="12" operator="greaterThan">
       <formula>I$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I34">
+    <cfRule type="cellIs" priority="53" dxfId="13" operator="lessThan">
+      <formula>I$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J11:J34">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="lessThan">
-      <formula>J$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" priority="52" dxfId="14" operator="greaterThan">
       <formula>J$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J34">
+    <cfRule type="cellIs" priority="51" dxfId="15" operator="lessThan">
+      <formula>J$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K11:K34">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="lessThan">
-      <formula>K$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" priority="50" dxfId="16" operator="greaterThan">
       <formula>K$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K34">
+    <cfRule type="cellIs" priority="49" dxfId="17" operator="lessThan">
+      <formula>K$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L11:L34">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="lessThan">
-      <formula>L$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" priority="40" dxfId="18" operator="greaterThan">
       <formula>L$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L34">
+    <cfRule type="cellIs" priority="39" dxfId="19" operator="lessThan">
+      <formula>L$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M11:M34">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThan">
-      <formula>M$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" priority="34" dxfId="20" operator="greaterThan">
       <formula>M$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M34">
+    <cfRule type="cellIs" priority="33" dxfId="21" operator="lessThan">
+      <formula>M$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N11:N34">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="lessThan">
-      <formula>N$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" priority="32" dxfId="22" operator="greaterThan">
       <formula>N$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N11:N34">
+    <cfRule type="cellIs" priority="31" dxfId="23" operator="lessThan">
+      <formula>N$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O11:O34">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThan">
-      <formula>O$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" priority="30" dxfId="24" operator="greaterThan">
       <formula>O$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O11:O34">
+    <cfRule type="cellIs" priority="29" dxfId="25" operator="lessThan">
+      <formula>O$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P11:P34">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="lessThan">
-      <formula>P$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" priority="28" dxfId="26" operator="greaterThan">
       <formula>P$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P11:P34">
+    <cfRule type="cellIs" priority="27" dxfId="27" operator="lessThan">
+      <formula>P$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q34">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThan">
-      <formula>Q$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" priority="26" dxfId="28" operator="greaterThan">
       <formula>Q$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q11:Q34">
+    <cfRule type="cellIs" priority="25" dxfId="29" operator="lessThan">
+      <formula>Q$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R11:R34">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThan">
-      <formula>R$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" priority="24" dxfId="30" operator="greaterThan">
       <formula>R$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R11:R34">
+    <cfRule type="cellIs" priority="23" dxfId="31" operator="lessThan">
+      <formula>R$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S11:S34">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThan">
-      <formula>S$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" priority="22" dxfId="32" operator="greaterThan">
       <formula>S$8+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="S11:S34">
+    <cfRule type="cellIs" priority="21" dxfId="33" operator="lessThan">
+      <formula>S$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="T11:T34">
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="between">
+    <cfRule type="cellIs" priority="20" dxfId="34" operator="between">
       <formula>T$8+0</formula>
       <formula>T$9+0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="W11:W34">
+    <cfRule type="cellIs" priority="14" dxfId="35" operator="greaterThan">
+      <formula>W$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11:W34">
+    <cfRule type="cellIs" priority="13" dxfId="36" operator="lessThan">
+      <formula>W$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11:X34">
+    <cfRule type="cellIs" priority="12" dxfId="37" operator="greaterThan">
+      <formula>X$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11:X34">
+    <cfRule type="cellIs" priority="11" dxfId="38" operator="lessThan">
+      <formula>X$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:Y34">
+    <cfRule type="cellIs" priority="10" dxfId="39" operator="greaterThan">
+      <formula>Y$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:Y34">
+    <cfRule type="cellIs" priority="9" dxfId="40" operator="lessThan">
+      <formula>Y$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:Z34">
+    <cfRule type="cellIs" priority="8" dxfId="41" operator="greaterThan">
+      <formula>Z$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:Z34">
+    <cfRule type="cellIs" priority="7" dxfId="42" operator="lessThan">
+      <formula>Z$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11:AA34">
+    <cfRule type="cellIs" priority="4" dxfId="43" operator="greaterThan">
+      <formula>AA$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11:AA34">
+    <cfRule type="cellIs" priority="3" dxfId="44" operator="lessThan">
+      <formula>AA$9+0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U11:U34">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" priority="2" dxfId="45" operator="between">
       <formula>U$8+0</formula>
       <formula>U$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V34">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" priority="1" dxfId="46" operator="between">
       <formula>V$8+0</formula>
       <formula>V$9+0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W11:W34">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
-      <formula>W$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
-      <formula>W$8+0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X11:X34">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
-      <formula>X$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
-      <formula>X$8+0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11:Y34">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
-      <formula>Y$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
-      <formula>Y$8+0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11:Z34">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
-      <formula>Z$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
-      <formula>Z$8+0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA11:AA34">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
-      <formula>AA$9+0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
-      <formula>AA$8+0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AF1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" ht="57" spans="1:32">
-      <c r="A1" s="1" t="s">
+    <row ht="60.5" r="1">
+      <c r="A1" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="82" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="0">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化12/CK12-化产-鼓风冷凝报表（二）（日）.xlsx
+++ b/excel/finished/焦化12/CK12-化产-鼓风冷凝报表（二）（日）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <r>
       <rPr>
@@ -554,13 +554,19 @@
     <t>夜班记事：</t>
   </si>
   <si>
+    <t>白班记事：</t>
+  </si>
+  <si>
     <t>中班记事：</t>
   </si>
   <si>
-    <t xml:space="preserve"> 交班：                              接班：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">交班：                                 接班：</t>
+    <t xml:space="preserve"> 交班：                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 交班：                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">交班：                                 </t>
   </si>
   <si>
     <t>CK12_L1R_CC_JQ_PIDLMN_1m_avg</t>
@@ -2007,6 +2013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85">
+      <pane state="frozen" topLeftCell="C11" xSplit="2" ySplit="10"/>
       <selection activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -5266,7 +5273,9 @@
       <c r="I36" s="70"/>
       <c r="J36" s="70"/>
       <c r="K36" s="70"/>
-      <c r="L36" s="71"/>
+      <c r="L36" s="71" t="s">
+        <v>98</v>
+      </c>
       <c r="M36" s="71"/>
       <c r="N36" s="71"/>
       <c r="O36" s="71"/>
@@ -5274,7 +5283,7 @@
       <c r="Q36" s="71"/>
       <c r="R36" s="72"/>
       <c r="S36" s="69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T36" s="70"/>
       <c r="U36" s="70"/>
@@ -5288,7 +5297,7 @@
     <row ht="23.25" customHeight="1" r="37">
       <c r="B37" s="74"/>
       <c r="C37" s="75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D37" s="76"/>
       <c r="E37" s="76"/>
@@ -5298,7 +5307,9 @@
       <c r="I37" s="76"/>
       <c r="J37" s="76"/>
       <c r="K37" s="76"/>
-      <c r="L37" s="77"/>
+      <c r="L37" s="77" t="s">
+        <v>101</v>
+      </c>
       <c r="M37" s="77"/>
       <c r="N37" s="77"/>
       <c r="O37" s="77"/>
@@ -5306,7 +5317,7 @@
       <c r="Q37" s="77"/>
       <c r="R37" s="78"/>
       <c r="S37" s="75" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="T37" s="76"/>
       <c r="U37" s="76"/>
@@ -5624,7 +5635,7 @@
         <v>75</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H1" s="80" t="s">
         <v>77</v>
@@ -5633,25 +5644,25 @@
         <v>78</v>
       </c>
       <c r="J1" s="80" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K1" s="80" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L1" s="80" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M1" s="80" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N1" s="80" t="s">
         <v>79</v>
       </c>
       <c r="O1" s="80" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P1" s="80" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="80" t="s">
         <v>80</v>
@@ -5696,7 +5707,7 @@
         <v>93</v>
       </c>
       <c r="AE1" s="81" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF1" s="82" t="s">
         <v>94</v>
@@ -5735,7 +5746,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="0">
         <v>12</v>
